--- a/Kusal_Data_Set.xlsx
+++ b/Kusal_Data_Set.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Educational\Project\course-finder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87284E93-5588-4FA1-ABE6-65ABE8CBCBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981E91C6-B33C-4A73-92AB-86934A72A1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcMode="manual"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="20">
   <si>
     <t>SLIIT</t>
   </si>
@@ -49,16 +62,10 @@
     <t>NIBM</t>
   </si>
   <si>
-    <t>2.50 - 2.99</t>
+    <t>A/L Stream</t>
   </si>
   <si>
-    <t>3.00 - 3.59</t>
-  </si>
-  <si>
-    <t>3.60 and above</t>
-  </si>
-  <si>
-    <t>2.00 - 2.49</t>
+    <t>z-Core</t>
   </si>
   <si>
     <t>Interactive Media</t>
@@ -82,16 +89,10 @@
     <t>University</t>
   </si>
   <si>
-    <t>pecialization</t>
+    <t>pecialization (Only for IT graduates/undergraduates)</t>
   </si>
   <si>
-    <t>Stream</t>
-  </si>
-  <si>
-    <t>z_core</t>
-  </si>
-  <si>
-    <t>gpa</t>
+    <t>What is your GPA if you are a graduating student?2</t>
   </si>
 </sst>
 </file>
@@ -132,9 +133,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,6 +158,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -277,10 +280,10 @@
   <autoFilter ref="A1:E505" xr:uid="{27FC18F2-0095-44BA-9648-5E164EC0F77C}"/>
   <tableColumns count="5">
     <tableColumn id="4" xr3:uid="{C6F9AF65-CB48-4EC0-8B2A-27E7557C6A9A}" name="University" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{CF60D45D-BC7C-454C-98E5-0B0224AFDB10}" name="pecialization" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{9BA60FD3-7668-4F38-A83E-9F348453F55F}" name="Stream" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{EA650479-C2CA-49E4-91FF-C5B96D9C7FE9}" name="z_core" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{4C0A3D83-56F1-44C8-90D7-FF2C00C8834D}" name="gpa" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{CF60D45D-BC7C-454C-98E5-0B0224AFDB10}" name="pecialization (Only for IT graduates/undergraduates)" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{9BA60FD3-7668-4F38-A83E-9F348453F55F}" name="A/L Stream" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{EA650479-C2CA-49E4-91FF-C5B96D9C7FE9}" name="z-Core" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CFAECDC8-3225-44A5-B437-B09164EA94CB}" name="What is your GPA if you are a graduating student?2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -489,7 +492,7 @@
   </sheetPr>
   <dimension ref="A1:E505"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
@@ -513,19 +516,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -536,13 +539,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
         <v>0.46779999999999999</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
+      <c r="E2" s="2">
+        <v>3.2984219690554974</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -553,13 +556,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>0.92320000000000002</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
+      <c r="E3" s="2">
+        <v>3.45</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -570,13 +573,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <v>0.46779999999999999</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
+      <c r="E4" s="2">
+        <v>3.377618697802566</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -587,13 +590,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>0.92320000000000002</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
+      <c r="E5" s="2">
+        <v>3.65</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -604,13 +607,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>1.0678000000000001</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
+      <c r="E6" s="2">
+        <v>3.22</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -621,13 +624,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>0.23139999999999999</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
+      <c r="E7" s="2">
+        <v>3.4058535269851435</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -638,13 +641,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>0.92320000000000002</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
+      <c r="E8" s="2">
+        <v>3.43</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -655,13 +658,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
         <v>0.92320000000000002</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
+      <c r="E9" s="2">
+        <v>3.12</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -672,13 +675,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
         <v>0.64559999999999995</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
+      <c r="E10" s="2">
+        <v>3.2180793881029377</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -689,13 +692,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
         <v>0.1241</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
+      <c r="E11" s="2">
+        <v>2.5384304691934902</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -706,13 +709,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1">
         <v>0.92320000000000002</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
+      <c r="E12" s="2">
+        <v>3.46</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -723,13 +726,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1">
         <v>0.92320000000000002</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
+      <c r="E13" s="2">
+        <v>3.13</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -740,13 +743,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1">
         <v>0.92320000000000002</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
+      <c r="E14" s="2">
+        <v>2.99</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -757,13 +760,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1">
         <v>0.92320000000000002</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
+      <c r="E15" s="2">
+        <v>3.09</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -774,13 +777,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1">
         <v>0.63560000000000005</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
+      <c r="E16" s="2">
+        <v>3.0970607404077737</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -791,13 +794,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1">
         <v>0.63560000000000005</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
+      <c r="E17" s="2">
+        <v>2.6248152860038014</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -808,13 +811,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1">
         <v>0.63560000000000005</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
+      <c r="E18" s="2">
+        <v>3.4013374028809857</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -825,13 +828,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1">
         <v>1.1241000000000001</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
+      <c r="E19" s="2">
+        <v>3.89</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -842,13 +845,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1">
         <v>0.1241</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
+      <c r="E20" s="2">
+        <v>2.7650263703327576</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -859,13 +862,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1">
         <v>0.63560000000000005</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
+      <c r="E21" s="2">
+        <v>3.108810834406925</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -876,13 +879,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>0.59230000000000005</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
+      <c r="E22" s="2">
+        <v>3.3663248450045988</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -893,13 +896,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1">
         <v>0.65669999999999995</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
+      <c r="E23" s="2">
+        <v>2.5570232224032745</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -910,13 +913,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1">
         <v>0.63560000000000005</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>9</v>
+      <c r="E24" s="2">
+        <v>2.9590002887699183</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -927,13 +930,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1">
         <v>0.63560000000000005</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>11</v>
+      <c r="E25" s="2">
+        <v>3.0046519671707999</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -944,13 +947,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1">
         <v>0.77949999999999997</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
+      <c r="E26" s="2">
+        <v>2.83</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -961,13 +964,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1">
         <v>0.77949999999999997</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
+      <c r="E27" s="2">
+        <v>3.13</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -978,13 +981,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1">
         <v>0.63560000000000005</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>9</v>
+      <c r="E28" s="2">
+        <v>2.7841862293591078</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -995,13 +998,13 @@
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" s="1">
         <v>0.84560000000000002</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
+      <c r="E29" s="2">
+        <v>2.56</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1012,13 +1015,13 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1">
         <v>0.84560000000000002</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>10</v>
+      <c r="E30" s="2">
+        <v>2.89</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1029,13 +1032,13 @@
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1">
         <v>0.77949999999999997</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>10</v>
+      <c r="E31" s="2">
+        <v>2.78</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1046,13 +1049,13 @@
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1">
         <v>0.5323</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
+      <c r="E32" s="2">
+        <v>3.2530252432307378</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1063,13 +1066,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1">
         <v>0.5323</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>9</v>
+      <c r="E33" s="2">
+        <v>3.2090036605857337</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1080,13 +1083,13 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1">
         <v>0.5323</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>9</v>
+      <c r="E34" s="2">
+        <v>2.9888378054647777</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1097,13 +1100,13 @@
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1">
         <v>0.5323</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>10</v>
+      <c r="E35" s="2">
+        <v>3.190017660721955</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1114,13 +1117,13 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D36" s="1">
         <v>0.5323</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>10</v>
+      <c r="E36" s="2">
+        <v>2.9064176374932718</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1131,13 +1134,13 @@
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37" s="1">
         <v>0.5323</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>9</v>
+      <c r="E37" s="2">
+        <v>2.7545353632316969</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1148,13 +1151,13 @@
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>10</v>
+      <c r="E38" s="2">
+        <v>3.3436106278713735</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1165,13 +1168,13 @@
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1">
         <v>0.84560000000000002</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>12</v>
+      <c r="E39" s="2">
+        <v>2.89</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1182,13 +1185,13 @@
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D40" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>10</v>
+      <c r="E40" s="2">
+        <v>3.5761550355375986</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1199,13 +1202,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D41" s="1">
         <v>0.23949999999999999</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>10</v>
+      <c r="E41" s="2">
+        <v>3.0662956408838635</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1216,13 +1219,13 @@
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42" s="1">
         <v>0.23949999999999999</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>10</v>
+      <c r="E42" s="2">
+        <v>2.8479889326092311</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1233,13 +1236,13 @@
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1">
         <v>0.84560000000000002</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>9</v>
+      <c r="E43" s="2">
+        <v>2.09</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1250,13 +1253,13 @@
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D44" s="1">
         <v>0.84560000000000002</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>12</v>
+      <c r="E44" s="2">
+        <v>2.88</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1267,13 +1270,13 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D45" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>9</v>
+      <c r="E45" s="2">
+        <v>3.0796588522015576</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1284,13 +1287,13 @@
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D46" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>9</v>
+      <c r="E46" s="2">
+        <v>3.3218921942161388</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1301,13 +1304,13 @@
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D47" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>10</v>
+      <c r="E47" s="2">
+        <v>3.2111277271783769</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1318,13 +1321,13 @@
         <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>10</v>
+      <c r="E48" s="2">
+        <v>2.6715888522372619</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1335,13 +1338,13 @@
         <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D49" s="1">
         <v>0.84560000000000002</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>9</v>
+      <c r="E49" s="2">
+        <v>2.98</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1352,13 +1355,13 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D50" s="1">
         <v>0.23949999999999999</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>10</v>
+      <c r="E50" s="2">
+        <v>2.7740634462119478</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1369,13 +1372,13 @@
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D51" s="1">
         <v>0.84560000000000002</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>11</v>
+      <c r="E51" s="2">
+        <v>2.67</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1386,13 +1389,13 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D52" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>12</v>
+      <c r="E52" s="2">
+        <v>2.7437748384630241</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1403,13 +1406,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D53" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>10</v>
+      <c r="E53" s="2">
+        <v>3.3532922038256121</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1420,13 +1423,13 @@
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D54" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>10</v>
+      <c r="E54" s="2">
+        <v>2.5140453567507257</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1437,13 +1440,13 @@
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D55" s="1">
         <v>0.23949999999999999</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>10</v>
+      <c r="E55" s="2">
+        <v>2.5988229543093579</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1454,13 +1457,13 @@
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D56" s="1">
         <v>0.65429999999999999</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>9</v>
+      <c r="E56" s="2">
+        <v>3.5163951293456699</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1471,13 +1474,13 @@
         <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D57" s="1">
         <v>1.3867</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>11</v>
+      <c r="E57" s="2">
+        <v>3.33</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1488,13 +1491,13 @@
         <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D58" s="1">
         <v>0.84560000000000002</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>10</v>
+      <c r="E58" s="2">
+        <v>3.22</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1505,13 +1508,13 @@
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D59" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>12</v>
+      <c r="E59" s="2">
+        <v>2.5921893339363251</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1522,13 +1525,13 @@
         <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D60" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>9</v>
+      <c r="E60" s="2">
+        <v>2.9332418443110391</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1539,13 +1542,13 @@
         <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D61" s="1">
         <v>1.0056</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>10</v>
+      <c r="E61" s="2">
+        <v>3.22</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1556,13 +1559,13 @@
         <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D62" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>10</v>
+      <c r="E62" s="2">
+        <v>2.7292316453074967</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1573,13 +1576,13 @@
         <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D63" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>10</v>
+      <c r="E63" s="2">
+        <v>3.0176067240215017</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1590,13 +1593,13 @@
         <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D64" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>9</v>
+      <c r="E64" s="2">
+        <v>2.6249376017462542</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1607,13 +1610,13 @@
         <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D65" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>10</v>
+      <c r="E65" s="2">
+        <v>3.3068065656510046</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1624,13 +1627,13 @@
         <v>3</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D66" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>10</v>
+      <c r="E66" s="2">
+        <v>3.3774048336726525</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1641,13 +1644,13 @@
         <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D67" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>9</v>
+      <c r="E67" s="2">
+        <v>3.1380304538632022</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1658,13 +1661,13 @@
         <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D68" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>10</v>
+      <c r="E68" s="2">
+        <v>2.8149227918939639</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1675,13 +1678,13 @@
         <v>2</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D69" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>12</v>
+      <c r="E69" s="2">
+        <v>2.7687755644167984</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1692,13 +1695,13 @@
         <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D70" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>10</v>
+      <c r="E70" s="2">
+        <v>2.8467005945077655</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1709,13 +1712,13 @@
         <v>3</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D71" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>10</v>
+      <c r="E71" s="2">
+        <v>3.0780690381812343</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1726,13 +1729,13 @@
         <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D72" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>10</v>
+      <c r="E72" s="2">
+        <v>3.0101802225625378</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1743,13 +1746,13 @@
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D73" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>9</v>
+      <c r="E73" s="2">
+        <v>2.8019668712093613</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1760,13 +1763,13 @@
         <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D74" s="1">
         <v>0.84560000000000002</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>12</v>
+      <c r="E74" s="2">
+        <v>3.24</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1777,13 +1780,13 @@
         <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D75" s="1">
         <v>0.84560000000000002</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>9</v>
+      <c r="E75" s="2">
+        <v>3.75</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1794,13 +1797,13 @@
         <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D76" s="1">
         <v>0.84560000000000002</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>9</v>
+      <c r="E76" s="2">
+        <v>3.6</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1811,13 +1814,13 @@
         <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D77" s="1">
         <v>0.84560000000000002</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>10</v>
+      <c r="E77" s="2">
+        <v>3.15</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1828,13 +1831,13 @@
         <v>3</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D78" s="1">
         <v>1.1023000000000001</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>10</v>
+      <c r="E78" s="2">
+        <v>3.25</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1845,13 +1848,13 @@
         <v>3</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D79" s="1">
         <v>1.1023000000000001</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>9</v>
+      <c r="E79" s="2">
+        <v>3.4279999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1862,13 +1865,13 @@
         <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D80" s="1">
         <v>1.1023000000000001</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>10</v>
+      <c r="E80" s="2">
+        <v>3.8</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1879,13 +1882,13 @@
         <v>3</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81" s="1">
         <v>1.1023000000000001</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>10</v>
+      <c r="E81" s="2">
+        <v>2.9</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1896,13 +1899,13 @@
         <v>2</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D82" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>9</v>
+      <c r="E82" s="2">
+        <v>3.65</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1913,13 +1916,13 @@
         <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D83" s="1">
         <v>1.1023000000000001</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>12</v>
+      <c r="E83" s="2">
+        <v>3.75</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1930,13 +1933,13 @@
         <v>2</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D84" s="1">
         <v>1.1023000000000001</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>9</v>
+      <c r="E84" s="2">
+        <v>3.1</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1947,13 +1950,13 @@
         <v>2</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D85" s="1">
         <v>1.1023000000000001</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>9</v>
+      <c r="E85" s="2">
+        <v>3.8</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1964,13 +1967,13 @@
         <v>3</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D86" s="1">
         <v>1.0032000000000001</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>10</v>
+      <c r="E86" s="2">
+        <v>3.4</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1981,13 +1984,13 @@
         <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D87" s="1">
         <v>1.0032000000000001</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>10</v>
+      <c r="E87" s="2">
+        <v>3.57</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1998,13 +2001,13 @@
         <v>7</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D88" s="1">
         <v>1.0032000000000001</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>9</v>
+      <c r="E88" s="2">
+        <v>3.4</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2015,13 +2018,13 @@
         <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D89" s="1">
         <v>1.0032000000000001</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>10</v>
+      <c r="E89" s="2">
+        <v>3.5</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2032,13 +2035,13 @@
         <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D90" s="1">
         <v>1.0032000000000001</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>11</v>
+      <c r="E90" s="2">
+        <v>3.6</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2049,13 +2052,13 @@
         <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D91" s="1">
         <v>1.0032000000000001</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>12</v>
+      <c r="E91" s="2">
+        <v>3.42</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2066,13 +2069,13 @@
         <v>7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D92" s="1">
         <v>0.74350000000000005</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>9</v>
+      <c r="E92" s="2">
+        <v>3.75</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2083,13 +2086,13 @@
         <v>7</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D93" s="1">
         <v>0.74350000000000005</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>9</v>
+      <c r="E93" s="2">
+        <v>3.15</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2100,13 +2103,13 @@
         <v>7</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D94" s="1">
         <v>0.74350000000000005</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>10</v>
+      <c r="E94" s="2">
+        <v>3.4</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2117,13 +2120,13 @@
         <v>7</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D95" s="1">
         <v>0.74350000000000005</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>10</v>
+      <c r="E95" s="2">
+        <v>3.7</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2134,13 +2137,13 @@
         <v>7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D96" s="1">
         <v>0.74350000000000005</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>9</v>
+      <c r="E96" s="2">
+        <v>3.36</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2151,13 +2154,13 @@
         <v>3</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D97" s="1">
         <v>0.74350000000000005</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>10</v>
+      <c r="E97" s="2">
+        <v>3.7</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2168,13 +2171,13 @@
         <v>7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D98" s="1">
         <v>0.74350000000000005</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>11</v>
+      <c r="E98" s="2">
+        <v>3.7</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2185,13 +2188,13 @@
         <v>7</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D99" s="1">
         <v>0.74350000000000005</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>12</v>
+      <c r="E99" s="2">
+        <v>3.6</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2202,13 +2205,13 @@
         <v>7</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D100" s="1">
         <v>0.74350000000000005</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>10</v>
+      <c r="E100" s="2">
+        <v>3.2</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2219,13 +2222,13 @@
         <v>7</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D101" s="1">
         <v>0.87690000000000001</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>10</v>
+      <c r="E101" s="2">
+        <v>3.5</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2236,13 +2239,13 @@
         <v>7</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D102" s="1">
         <v>0.87690000000000001</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>10</v>
+      <c r="E102" s="2">
+        <v>3.5</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2253,13 +2256,13 @@
         <v>6</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D103" s="1">
         <v>0.87690000000000001</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>9</v>
+      <c r="E103" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2270,13 +2273,13 @@
         <v>7</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D104" s="1">
         <v>0.87690000000000001</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>11</v>
+      <c r="E104" s="2">
+        <v>3.7</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2287,13 +2290,13 @@
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D105" s="1">
         <v>1.0156000000000001</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>10</v>
+      <c r="E105" s="2">
+        <v>3.81</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2304,13 +2307,13 @@
         <v>7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D106" s="1">
         <v>0.87949999999999995</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>12</v>
+      <c r="E106" s="2">
+        <v>3.1</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2321,13 +2324,13 @@
         <v>3</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D107" s="1">
         <v>0.87690000000000001</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>9</v>
+      <c r="E107" s="2">
+        <v>3.4</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2338,13 +2341,13 @@
         <v>7</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D108" s="1">
         <v>0.12839999999999999</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>10</v>
+      <c r="E108" s="2">
+        <v>3.5</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2355,13 +2358,13 @@
         <v>7</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D109" s="1">
         <v>0.67889999999999995</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>10</v>
+      <c r="E109" s="2">
+        <v>3.65</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2372,13 +2375,13 @@
         <v>7</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D110" s="1">
         <v>0.92559999999999998</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>10</v>
+      <c r="E110" s="2">
+        <v>3.7</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2389,13 +2392,13 @@
         <v>7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D111" s="1">
         <v>0.14319999999999999</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>12</v>
+      <c r="E111" s="2">
+        <v>3.1</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2406,13 +2409,13 @@
         <v>5</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D112" s="1">
         <v>0.54669999999999996</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>9</v>
+      <c r="E112" s="2">
+        <v>3.35</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2423,13 +2426,13 @@
         <v>7</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D113" s="1">
         <v>0.54669999999999996</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>9</v>
+      <c r="E113" s="2">
+        <v>3.5409999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2440,13 +2443,13 @@
         <v>7</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D114" s="1">
         <v>0.76890000000000003</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>10</v>
+      <c r="E114" s="2">
+        <v>2.9</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2457,13 +2460,13 @@
         <v>7</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D115" s="1">
         <v>0.87690000000000001</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>10</v>
+      <c r="E115" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2474,13 +2477,13 @@
         <v>7</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D116" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>9</v>
+      <c r="E116" s="2">
+        <v>2.78</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2491,13 +2494,13 @@
         <v>7</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D117" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>10</v>
+      <c r="E117" s="2">
+        <v>2.76</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2508,13 +2511,13 @@
         <v>7</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D118" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>12</v>
+      <c r="E118" s="2">
+        <v>2.91</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2525,13 +2528,13 @@
         <v>7</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D119" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>10</v>
+      <c r="E119" s="2">
+        <v>2.92</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2542,13 +2545,13 @@
         <v>7</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D120" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>10</v>
+      <c r="E120" s="2">
+        <v>2.95</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2559,13 +2562,13 @@
         <v>2</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D121" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>10</v>
+      <c r="E121" s="2">
+        <v>2.94</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2576,13 +2579,13 @@
         <v>6</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D122" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>9</v>
+      <c r="E122" s="2">
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2593,13 +2596,13 @@
         <v>3</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D123" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>9</v>
+      <c r="E123" s="2">
+        <v>2.59</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2610,13 +2613,13 @@
         <v>5</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D124" s="1">
         <v>0.78949999999999998</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>10</v>
+      <c r="E124" s="2">
+        <v>2.79</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2627,13 +2630,13 @@
         <v>5</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D125" s="1">
         <v>0.78949999999999998</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>10</v>
+      <c r="E125" s="2">
+        <v>2.92</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2644,13 +2647,13 @@
         <v>5</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D126" s="1">
         <v>1.2364999999999999</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>11</v>
+      <c r="E126" s="2">
+        <v>2.69</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2661,13 +2664,13 @@
         <v>3</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D127" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>9</v>
+      <c r="E127" s="2">
+        <v>2.69</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2678,13 +2681,13 @@
         <v>3</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D128" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>11</v>
+      <c r="E128" s="2">
+        <v>2.87</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2695,13 +2698,13 @@
         <v>7</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D129" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>10</v>
+      <c r="E129" s="2">
+        <v>2.87</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2712,13 +2715,13 @@
         <v>7</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D130" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>10</v>
+      <c r="E130" s="2">
+        <v>2.89</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2729,13 +2732,13 @@
         <v>7</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D131" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>10</v>
+      <c r="E131" s="2">
+        <v>2.99</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2746,13 +2749,13 @@
         <v>7</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D132" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>12</v>
+      <c r="E132" s="2">
+        <v>2.08</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2763,13 +2766,13 @@
         <v>7</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D133" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>9</v>
+      <c r="E133" s="2">
+        <v>2.9</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2780,13 +2783,13 @@
         <v>7</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D134" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>9</v>
+      <c r="E134" s="2">
+        <v>2.99</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2797,13 +2800,13 @@
         <v>7</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D135" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>10</v>
+      <c r="E135" s="2">
+        <v>2.9</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2814,13 +2817,13 @@
         <v>7</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D136" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>9</v>
+      <c r="E136" s="2">
+        <v>2.95</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2831,13 +2834,13 @@
         <v>7</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D137" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>9</v>
+      <c r="E137" s="2">
+        <v>2.89</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2848,13 +2851,13 @@
         <v>7</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D138" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>10</v>
+      <c r="E138" s="2">
+        <v>2.78</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2865,13 +2868,13 @@
         <v>7</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D139" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>11</v>
+      <c r="E139" s="2">
+        <v>2.69</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2882,13 +2885,13 @@
         <v>7</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D140" s="1">
         <v>0.98670000000000002</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>12</v>
+      <c r="E140" s="2">
+        <v>2.86</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2899,13 +2902,13 @@
         <v>7</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D141" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>10</v>
+      <c r="E141" s="2">
+        <v>2.95</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2916,13 +2919,13 @@
         <v>3</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D142" s="1">
         <v>0.14649999999999999</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>12</v>
+      <c r="E142" s="2">
+        <v>2.8</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2933,13 +2936,13 @@
         <v>3</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D143" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>12</v>
+      <c r="E143" s="2">
+        <v>2.7</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2950,13 +2953,13 @@
         <v>2</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D144" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>9</v>
+      <c r="E144" s="2">
+        <v>2.86</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2967,13 +2970,13 @@
         <v>2</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D145" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>11</v>
+      <c r="E145" s="2">
+        <v>2.98</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2984,13 +2987,13 @@
         <v>3</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D146" s="1">
         <v>0.23150000000000001</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>12</v>
+      <c r="E146" s="2">
+        <v>2.9</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -3001,13 +3004,13 @@
         <v>3</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D147" s="1">
         <v>0.23549999999999999</v>
       </c>
-      <c r="E147" s="1" t="s">
-        <v>12</v>
+      <c r="E147" s="2">
+        <v>2.8</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -3018,13 +3021,13 @@
         <v>7</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D148" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>10</v>
+      <c r="E148" s="2">
+        <v>2.88</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -3035,13 +3038,13 @@
         <v>3</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D149" s="1">
         <v>0.23749999999999999</v>
       </c>
-      <c r="E149" s="1" t="s">
-        <v>12</v>
+      <c r="E149" s="2">
+        <v>2.9</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -3052,12 +3055,14 @@
         <v>7</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D150" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="E150" s="1"/>
+      <c r="E150" s="2">
+        <v>2.89</v>
+      </c>
     </row>
     <row r="151" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
@@ -3067,13 +3072,13 @@
         <v>7</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D151" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>10</v>
+      <c r="E151" s="2">
+        <v>2.29</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3084,13 +3089,13 @@
         <v>3</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D152" s="1">
         <v>0.23050000000000001</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>12</v>
+      <c r="E152" s="2">
+        <v>2.9</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3101,13 +3106,13 @@
         <v>7</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D153" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>9</v>
+      <c r="E153" s="2">
+        <v>2.79</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3118,13 +3123,13 @@
         <v>7</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D154" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="E154" s="1" t="s">
-        <v>10</v>
+      <c r="E154" s="2">
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3135,13 +3140,13 @@
         <v>7</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D155" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>10</v>
+      <c r="E155" s="2">
+        <v>2.5471705156643827</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3152,13 +3157,13 @@
         <v>7</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D156" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>9</v>
+      <c r="E156" s="2">
+        <v>3.4928710919846857</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3169,13 +3174,13 @@
         <v>7</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D157" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>9</v>
+      <c r="E157" s="2">
+        <v>3.4276605774441467</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3186,13 +3191,13 @@
         <v>7</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D158" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>10</v>
+      <c r="E158" s="2">
+        <v>3.4647531427257974</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3203,13 +3208,13 @@
         <v>7</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D159" s="1">
         <v>0.91979999999999995</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>10</v>
+      <c r="E159" s="2">
+        <v>2.7467645792557205</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3220,13 +3225,13 @@
         <v>7</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D160" s="1">
         <v>0.54100000000000004</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>9</v>
+      <c r="E160" s="2">
+        <v>2.5815834092651273</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3237,13 +3242,13 @@
         <v>2</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D161" s="1">
         <v>0.92879999999999996</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>10</v>
+      <c r="E161" s="2">
+        <v>2.8871200022866619</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3254,13 +3259,13 @@
         <v>6</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D162" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>10</v>
+      <c r="E162" s="2">
+        <v>3.0961264102469341</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3271,13 +3276,13 @@
         <v>3</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D163" s="1">
         <v>0.23139999999999999</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>9</v>
+      <c r="E163" s="2">
+        <v>3.0011280696076055</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3288,13 +3293,13 @@
         <v>5</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D164" s="1">
         <v>0.54210000000000003</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>9</v>
+      <c r="E164" s="2">
+        <v>2.5711806632218956</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3305,13 +3310,13 @@
         <v>5</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D165" s="1">
         <v>0.95879999999999999</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>10</v>
+      <c r="E165" s="2">
+        <v>3.4917815897876312</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3322,13 +3327,13 @@
         <v>5</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D166" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>10</v>
+      <c r="E166" s="2">
+        <v>2.4632696705998267</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3339,13 +3344,13 @@
         <v>3</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D167" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>9</v>
+      <c r="E167" s="2">
+        <v>2.9071397536702102</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3356,13 +3361,13 @@
         <v>3</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D168" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>9</v>
+      <c r="E168" s="2">
+        <v>2.6859200089959891</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3373,13 +3378,13 @@
         <v>7</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D169" s="1">
         <v>0.51880000000000004</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>10</v>
+      <c r="E169" s="2">
+        <v>2.5216178664827216</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3390,13 +3395,13 @@
         <v>7</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D170" s="1">
         <v>0.65890000000000004</v>
       </c>
-      <c r="E170" s="1" t="s">
-        <v>9</v>
+      <c r="E170" s="2">
+        <v>3.1274602972800172</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3407,13 +3412,13 @@
         <v>7</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D171" s="1">
         <v>0.85640000000000005</v>
       </c>
-      <c r="E171" s="1" t="s">
-        <v>9</v>
+      <c r="E171" s="2">
+        <v>3.2973938682714321</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3424,13 +3429,13 @@
         <v>7</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D172" s="1">
         <v>0.78449999999999998</v>
       </c>
-      <c r="E172" s="1" t="s">
-        <v>10</v>
+      <c r="E172" s="2">
+        <v>2.7688082456445411</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3441,13 +3446,13 @@
         <v>3</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D173" s="1">
         <v>0.78049999999999997</v>
       </c>
-      <c r="E173" s="1" t="s">
-        <v>10</v>
+      <c r="E173" s="2">
+        <v>3.3839938787423751</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3458,13 +3463,13 @@
         <v>7</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D174" s="1">
         <v>0.6754</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>9</v>
+      <c r="E174" s="2">
+        <v>2.7769016207643702</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3475,13 +3480,13 @@
         <v>7</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D175" s="1">
         <v>0.91990000000000005</v>
       </c>
-      <c r="E175" s="1" t="s">
-        <v>10</v>
+      <c r="E175" s="2">
+        <v>2.7119558439764133</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3492,13 +3497,13 @@
         <v>7</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D176" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>10</v>
+      <c r="E176" s="2">
+        <v>2.5891321203857025</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3509,13 +3514,13 @@
         <v>3</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D177" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="E177" s="1" t="s">
-        <v>9</v>
+      <c r="E177" s="2">
+        <v>3.5933035973187577</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3526,13 +3531,13 @@
         <v>7</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D178" s="1">
         <v>0.87560000000000004</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>9</v>
+      <c r="E178" s="2">
+        <v>3.0703555119721009</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3543,13 +3548,13 @@
         <v>7</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D179" s="1">
         <v>0.87560000000000004</v>
       </c>
-      <c r="E179" s="1" t="s">
-        <v>10</v>
+      <c r="E179" s="2">
+        <v>2.7214015198905384</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3560,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D180" s="1">
         <v>0.87560000000000004</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>10</v>
+      <c r="E180" s="2">
+        <v>2.981839591341398</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3577,13 +3582,13 @@
         <v>7</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D181" s="1">
         <v>0.87560000000000004</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>9</v>
+      <c r="E181" s="2">
+        <v>3.1525770786988438</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3594,13 +3599,13 @@
         <v>2</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D182" s="1">
         <v>0.91080000000000005</v>
       </c>
-      <c r="E182" s="1" t="s">
-        <v>10</v>
+      <c r="E182" s="2">
+        <v>3.5113407165684949</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3611,13 +3616,13 @@
         <v>1</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D183" s="1">
-        <v>5.2394999999999996</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>9</v>
+        <v>1.2395</v>
+      </c>
+      <c r="E183" s="2">
+        <v>2.8421124337176629</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3628,13 +3633,13 @@
         <v>2</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D184" s="1">
         <v>0.32450000000000001</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>9</v>
+      <c r="E184" s="2">
+        <v>2.4350902096058888</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3645,13 +3650,13 @@
         <v>2</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D185" s="1">
         <v>0.90880000000000005</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>10</v>
+      <c r="E185" s="2">
+        <v>3.410322294468767</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3662,13 +3667,13 @@
         <v>6</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D186" s="1">
         <v>0.87560000000000004</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>10</v>
+      <c r="E186" s="2">
+        <v>3.2440998982653424</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3679,13 +3684,13 @@
         <v>3</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D187" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>9</v>
+      <c r="E187" s="2">
+        <v>3.0269963955595682</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3696,13 +3701,13 @@
         <v>2</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D188" s="1">
         <v>0.90580000000000005</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>10</v>
+      <c r="E188" s="2">
+        <v>3.4148225419644538</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3713,13 +3718,13 @@
         <v>2</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D189" s="1">
         <v>0.90280000000000005</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>10</v>
+      <c r="E189" s="2">
+        <v>3.2368192996462426</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3730,13 +3735,13 @@
         <v>2</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D190" s="1">
         <v>0.91879999999999995</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>10</v>
+      <c r="E190" s="2">
+        <v>3.347072933142893</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3747,13 +3752,13 @@
         <v>7</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D191" s="1">
         <v>0.87560000000000004</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>10</v>
+      <c r="E191" s="2">
+        <v>2.576111555924999</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3764,13 +3769,13 @@
         <v>1</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D192" s="1">
-        <v>5.2394999999999996</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>9</v>
+        <v>1.2395</v>
+      </c>
+      <c r="E192" s="2">
+        <v>3.0278938490412286</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3781,13 +3786,13 @@
         <v>2</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D193" s="1">
         <v>0.87560000000000004</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>9</v>
+      <c r="E193" s="2">
+        <v>2.6816738428625482</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3798,13 +3803,13 @@
         <v>1</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D194" s="1">
         <v>0.23949999999999999</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>10</v>
+      <c r="E194" s="2">
+        <v>2.847284018374153</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3815,13 +3820,13 @@
         <v>3</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D195" s="1">
         <v>0.87560000000000004</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>9</v>
+      <c r="E195" s="2">
+        <v>2.7794251972034925</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3832,13 +3837,13 @@
         <v>1</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D196" s="1">
         <v>0.87560000000000004</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>10</v>
+      <c r="E196" s="2">
+        <v>2.5476234769307249</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3849,13 +3854,13 @@
         <v>1</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D197" s="1">
         <v>0.14560000000000001</v>
       </c>
-      <c r="E197" s="1" t="s">
-        <v>12</v>
+      <c r="E197" s="2">
+        <v>2.38926372902116</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3866,13 +3871,13 @@
         <v>2</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D198" s="1">
         <v>0.87560000000000004</v>
       </c>
-      <c r="E198" s="1" t="s">
-        <v>12</v>
+      <c r="E198" s="2">
+        <v>3.1963009263188065</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3883,13 +3888,13 @@
         <v>5</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D199" s="1">
         <v>0.76890000000000003</v>
       </c>
-      <c r="E199" s="1" t="s">
-        <v>12</v>
+      <c r="E199" s="2">
+        <v>3.0941998141804623</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3900,13 +3905,13 @@
         <v>1</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D200" s="1">
         <v>0.14560000000000001</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>12</v>
+      <c r="E200" s="2">
+        <v>2.8710920971977445</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3917,13 +3922,13 @@
         <v>1</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D201" s="1">
         <v>0.46779999999999999</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>12</v>
+      <c r="E201" s="2">
+        <v>2.3059375757663703</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3934,13 +3939,13 @@
         <v>2</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D202" s="1">
         <v>0.87560000000000004</v>
       </c>
-      <c r="E202" s="1" t="s">
-        <v>12</v>
+      <c r="E202" s="2">
+        <v>2.5230287674946532</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3951,13 +3956,13 @@
         <v>6</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D203" s="1">
         <v>0.7893</v>
       </c>
-      <c r="E203" s="1" t="s">
-        <v>12</v>
+      <c r="E203" s="2">
+        <v>2.9353726332274013</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3968,13 +3973,13 @@
         <v>5</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D204" s="1">
         <v>0.34560000000000002</v>
       </c>
-      <c r="E204" s="1" t="s">
-        <v>12</v>
+      <c r="E204" s="2">
+        <v>2.944909410003747</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3985,13 +3990,13 @@
         <v>2</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D205" s="1">
         <v>0.7893</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>12</v>
+      <c r="E205" s="2">
+        <v>3.1083770092991312</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4002,13 +4007,13 @@
         <v>3</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D206" s="1">
         <v>0.7893</v>
       </c>
-      <c r="E206" s="1" t="s">
-        <v>12</v>
+      <c r="E206" s="2">
+        <v>2.5534537423084269</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4019,13 +4024,13 @@
         <v>6</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D207" s="1">
         <v>0.7893</v>
       </c>
-      <c r="E207" s="1" t="s">
-        <v>12</v>
+      <c r="E207" s="2">
+        <v>2.9064336943972759</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4036,13 +4041,13 @@
         <v>5</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D208" s="1">
         <v>0.24560000000000001</v>
       </c>
-      <c r="E208" s="1" t="s">
-        <v>12</v>
+      <c r="E208" s="2">
+        <v>2.7320239397354622</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4053,13 +4058,13 @@
         <v>1</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D209" s="1">
         <v>0.32450000000000001</v>
       </c>
-      <c r="E209" s="1" t="s">
-        <v>12</v>
+      <c r="E209" s="2">
+        <v>2.8129704532221962</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4070,13 +4075,13 @@
         <v>3</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D210" s="1">
         <v>0.7893</v>
       </c>
-      <c r="E210" s="1" t="s">
-        <v>12</v>
+      <c r="E210" s="2">
+        <v>2.9035564971937498</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4087,13 +4092,13 @@
         <v>5</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D211" s="1">
         <v>0.13239999999999999</v>
       </c>
-      <c r="E211" s="1" t="s">
-        <v>12</v>
+      <c r="E211" s="2">
+        <v>2.7527502053739417</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4104,13 +4109,13 @@
         <v>5</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D212" s="1">
         <v>0.23139999999999999</v>
       </c>
-      <c r="E212" s="1" t="s">
-        <v>12</v>
+      <c r="E212" s="2">
+        <v>2.7491099121142075</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4121,13 +4126,13 @@
         <v>2</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D213" s="1">
         <v>0.7893</v>
       </c>
-      <c r="E213" s="1" t="s">
-        <v>12</v>
+      <c r="E213" s="2">
+        <v>3.4663361999978521</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4138,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D214" s="1">
         <v>0.23139999999999999</v>
       </c>
-      <c r="E214" s="1" t="s">
-        <v>12</v>
+      <c r="E214" s="2">
+        <v>2.7981709877560181</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4155,13 +4160,13 @@
         <v>7</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D215" s="1">
         <v>0.7893</v>
       </c>
-      <c r="E215" s="1" t="s">
-        <v>12</v>
+      <c r="E215" s="2">
+        <v>3.2932629767451185</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4172,13 +4177,13 @@
         <v>2</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D216" s="1">
         <v>0.7893</v>
       </c>
-      <c r="E216" s="1" t="s">
-        <v>9</v>
+      <c r="E216" s="2">
+        <v>2.9444560260823733</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4189,13 +4194,13 @@
         <v>5</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D217" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E217" s="1" t="s">
-        <v>10</v>
+      <c r="E217" s="2">
+        <v>3.1827504105565096</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4206,13 +4211,13 @@
         <v>5</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D218" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E218" s="1" t="s">
-        <v>10</v>
+      <c r="E218" s="2">
+        <v>3.0491482253029814</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4223,13 +4228,13 @@
         <v>5</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D219" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E219" s="1" t="s">
-        <v>9</v>
+      <c r="E219" s="2">
+        <v>3.3333325505813698</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4240,13 +4245,13 @@
         <v>7</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D220" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E220" s="1" t="s">
-        <v>9</v>
+      <c r="E220" s="2">
+        <v>3.3151105935204033</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4257,13 +4262,13 @@
         <v>5</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D221" s="1">
         <v>0.90800000000000003</v>
       </c>
-      <c r="E221" s="1" t="s">
-        <v>10</v>
+      <c r="E221" s="2">
+        <v>3.0484768767699761</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4274,13 +4279,13 @@
         <v>5</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D222" s="1">
         <v>0.90869999999999995</v>
       </c>
-      <c r="E222" s="1" t="s">
-        <v>10</v>
+      <c r="E222" s="2">
+        <v>3.4762474556706571</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4291,13 +4296,13 @@
         <v>5</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D223" s="1">
         <v>0.21560000000000001</v>
       </c>
-      <c r="E223" s="1" t="s">
-        <v>9</v>
+      <c r="E223" s="2">
+        <v>2.7376651891497841</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4305,16 +4310,16 @@
         <v>0</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D224" s="1">
         <v>0.23139999999999999</v>
       </c>
-      <c r="E224" s="1" t="s">
-        <v>10</v>
+      <c r="E224" s="2">
+        <v>2.2508897127126168</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4322,16 +4327,16 @@
         <v>0</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D225" s="1">
         <v>0.56430000000000002</v>
       </c>
-      <c r="E225" s="1" t="s">
-        <v>12</v>
+      <c r="E225" s="2">
+        <v>2.4925695505300576</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4339,16 +4344,16 @@
         <v>0</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D226" s="1">
         <v>0.56430000000000002</v>
       </c>
-      <c r="E226" s="1" t="s">
-        <v>12</v>
+      <c r="E226" s="2">
+        <v>3.0047631235348455</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4356,16 +4361,16 @@
         <v>0</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D227" s="1">
         <v>0.4672</v>
       </c>
-      <c r="E227" s="1" t="s">
-        <v>12</v>
+      <c r="E227" s="2">
+        <v>2.8660244211299455</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4373,16 +4378,16 @@
         <v>0</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D228" s="1">
         <v>0.23139999999999999</v>
       </c>
-      <c r="E228" s="1" t="s">
-        <v>12</v>
+      <c r="E228" s="2">
+        <v>2.3995208001891921</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4390,16 +4395,16 @@
         <v>0</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D229" s="1">
         <v>0.35670000000000002</v>
       </c>
-      <c r="E229" s="1" t="s">
-        <v>10</v>
+      <c r="E229" s="2">
+        <v>2.6924507414574208</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4407,16 +4412,16 @@
         <v>0</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D230" s="1">
         <v>0.23139999999999999</v>
       </c>
-      <c r="E230" s="1" t="s">
-        <v>9</v>
+      <c r="E230" s="2">
+        <v>2.2383584007400938</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4427,13 +4432,13 @@
         <v>2</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D231" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E231" s="1" t="s">
-        <v>9</v>
+      <c r="E231" s="2">
+        <v>2.6603438334015723</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4441,16 +4446,16 @@
         <v>0</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D232" s="1">
         <v>0.1356</v>
       </c>
-      <c r="E232" s="1" t="s">
-        <v>10</v>
+      <c r="E232" s="2">
+        <v>3.1929325982159558</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4458,16 +4463,16 @@
         <v>0</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D233" s="1">
         <v>0.52339999999999998</v>
       </c>
-      <c r="E233" s="1" t="s">
-        <v>12</v>
+      <c r="E233" s="2">
+        <v>2.7760994455116039</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4475,16 +4480,16 @@
         <v>0</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D234" s="1">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="E234" s="1" t="s">
-        <v>9</v>
+      <c r="E234" s="2">
+        <v>2.7907256212713918</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4492,16 +4497,16 @@
         <v>0</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D235" s="1">
         <v>0.3453</v>
       </c>
-      <c r="E235" s="1" t="s">
-        <v>10</v>
+      <c r="E235" s="2">
+        <v>2.8072968880791667</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4509,16 +4514,16 @@
         <v>0</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D236" s="1">
         <v>0.3453</v>
       </c>
-      <c r="E236" s="1" t="s">
-        <v>10</v>
+      <c r="E236" s="2">
+        <v>3.021753891281814</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4526,16 +4531,16 @@
         <v>0</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D237" s="1">
         <v>0.3453</v>
       </c>
-      <c r="E237" s="1" t="s">
-        <v>9</v>
+      <c r="E237" s="2">
+        <v>2.6543567180489407</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4543,16 +4548,16 @@
         <v>0</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D238" s="1">
         <v>0.3453</v>
       </c>
-      <c r="E238" s="1" t="s">
-        <v>10</v>
+      <c r="E238" s="2">
+        <v>3.1488298235853085</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4560,16 +4565,16 @@
         <v>0</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D239" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E239" s="1" t="s">
-        <v>10</v>
+      <c r="E239" s="2">
+        <v>2.7898687332006249</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4580,13 +4585,13 @@
         <v>1</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D240" s="1">
         <v>0.1983</v>
       </c>
-      <c r="E240" s="1" t="s">
-        <v>12</v>
+      <c r="E240" s="2">
+        <v>2.4718732576475846</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4597,13 +4602,13 @@
         <v>2</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D241" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E241" s="1" t="s">
-        <v>9</v>
+      <c r="E241" s="2">
+        <v>3.2400790925742715</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4614,13 +4619,13 @@
         <v>1</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D242" s="1">
         <v>0.1983</v>
       </c>
-      <c r="E242" s="1" t="s">
-        <v>12</v>
+      <c r="E242" s="2">
+        <v>2.8902175233102567</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4631,13 +4636,13 @@
         <v>3</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D243" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E243" s="1" t="s">
-        <v>10</v>
+      <c r="E243" s="2">
+        <v>2.8500820773043776</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4648,13 +4653,13 @@
         <v>1</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D244" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E244" s="1" t="s">
-        <v>9</v>
+      <c r="E244" s="2">
+        <v>2.7984938368640719</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4665,13 +4670,13 @@
         <v>1</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D245" s="1">
         <v>0.3453</v>
       </c>
-      <c r="E245" s="1" t="s">
-        <v>10</v>
+      <c r="E245" s="2">
+        <v>3.0887814888854552</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4682,13 +4687,13 @@
         <v>2</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D246" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E246" s="1" t="s">
-        <v>9</v>
+      <c r="E246" s="2">
+        <v>2.6690805237912141</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4699,13 +4704,13 @@
         <v>5</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D247" s="1">
         <v>0.54369999999999996</v>
       </c>
-      <c r="E247" s="1" t="s">
-        <v>9</v>
+      <c r="E247" s="2">
+        <v>2.3946151208637092</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4716,13 +4721,13 @@
         <v>1</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D248" s="1">
         <v>0.98560000000000003</v>
       </c>
-      <c r="E248" s="1" t="s">
-        <v>10</v>
+      <c r="E248" s="2">
+        <v>2.719613583682607</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4733,13 +4738,13 @@
         <v>1</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D249" s="1">
         <v>0.98560000000000003</v>
       </c>
-      <c r="E249" s="1" t="s">
-        <v>10</v>
+      <c r="E249" s="2">
+        <v>2.7362642298436315</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4750,13 +4755,13 @@
         <v>2</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D250" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E250" s="1" t="s">
-        <v>9</v>
+      <c r="E250" s="2">
+        <v>3.4808002144960573</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4767,13 +4772,13 @@
         <v>6</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D251" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E251" s="1" t="s">
-        <v>10</v>
+      <c r="E251" s="2">
+        <v>3.1559343029685003</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4784,13 +4789,13 @@
         <v>3</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D252" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E252" s="1" t="s">
-        <v>10</v>
+      <c r="E252" s="2">
+        <v>2.7385009828830791</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4801,13 +4806,13 @@
         <v>2</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D253" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E253" s="1" t="s">
-        <v>10</v>
+      <c r="E253" s="2">
+        <v>2.8109900975416497</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4818,13 +4823,13 @@
         <v>3</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D254" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E254" s="1" t="s">
-        <v>10</v>
+      <c r="E254" s="2">
+        <v>3.4865812158844132</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4835,13 +4840,13 @@
         <v>6</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D255" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E255" s="1" t="s">
-        <v>9</v>
+      <c r="E255" s="2">
+        <v>3.2883094092322112</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4852,13 +4857,13 @@
         <v>5</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D256" s="1">
         <v>0.98560000000000003</v>
       </c>
-      <c r="E256" s="1" t="s">
-        <v>9</v>
+      <c r="E256" s="2">
+        <v>3.2639344808237429</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4869,13 +4874,13 @@
         <v>1</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D257" s="1">
         <v>0.12559999999999999</v>
       </c>
-      <c r="E257" s="1" t="s">
-        <v>10</v>
+      <c r="E257" s="2">
+        <v>2.5317746627628184</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4886,13 +4891,13 @@
         <v>3</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D258" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E258" s="1" t="s">
-        <v>9</v>
+      <c r="E258" s="2">
+        <v>3.0090984402470946</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4903,13 +4908,13 @@
         <v>5</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D259" s="1">
         <v>0.43759999999999999</v>
       </c>
-      <c r="E259" s="1" t="s">
-        <v>10</v>
+      <c r="E259" s="2">
+        <v>2.5573540852647958</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4920,13 +4925,13 @@
         <v>3</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D260" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E260" s="1" t="s">
-        <v>10</v>
+      <c r="E260" s="2">
+        <v>3.11663929561105</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4937,13 +4942,13 @@
         <v>2</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D261" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E261" s="1" t="s">
-        <v>10</v>
+      <c r="E261" s="2">
+        <v>2.7743846161957988</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4954,13 +4959,13 @@
         <v>5</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D262" s="1">
         <v>0.76890000000000003</v>
       </c>
-      <c r="E262" s="1" t="s">
-        <v>10</v>
+      <c r="E262" s="2">
+        <v>3.5460251789642276</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4971,13 +4976,13 @@
         <v>7</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D263" s="1">
         <v>0.34560000000000002</v>
       </c>
-      <c r="E263" s="1" t="s">
-        <v>9</v>
+      <c r="E263" s="2">
+        <v>2.5665917926360309</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4988,13 +4993,13 @@
         <v>2</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D264" s="1">
         <v>0.24560000000000001</v>
       </c>
-      <c r="E264" s="1" t="s">
-        <v>9</v>
+      <c r="E264" s="2">
+        <v>2.9149988118427381</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5005,13 +5010,13 @@
         <v>3</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D265" s="1">
         <v>0.13239999999999999</v>
       </c>
-      <c r="E265" s="1" t="s">
-        <v>9</v>
+      <c r="E265" s="2">
+        <v>2.4060138072426169</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5022,13 +5027,13 @@
         <v>5</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D266" s="1">
         <v>0.23139999999999999</v>
       </c>
-      <c r="E266" s="1" t="s">
-        <v>10</v>
+      <c r="E266" s="2">
+        <v>2.421903040838155</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5039,13 +5044,13 @@
         <v>5</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D267" s="1">
         <v>0.23139999999999999</v>
       </c>
-      <c r="E267" s="1" t="s">
-        <v>10</v>
+      <c r="E267" s="2">
+        <v>2.3073733179150691</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5056,13 +5061,13 @@
         <v>7</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D268" s="1">
         <v>0.23139999999999999</v>
       </c>
-      <c r="E268" s="1" t="s">
-        <v>10</v>
+      <c r="E268" s="2">
+        <v>2.4371475375887819</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5073,13 +5078,13 @@
         <v>3</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D269" s="1">
         <v>0.23139999999999999</v>
       </c>
-      <c r="E269" s="1" t="s">
-        <v>9</v>
+      <c r="E269" s="2">
+        <v>2.8715731209221778</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5090,13 +5095,13 @@
         <v>6</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D270" s="1">
         <v>0.35670000000000002</v>
       </c>
-      <c r="E270" s="1" t="s">
-        <v>9</v>
+      <c r="E270" s="2">
+        <v>2.6099318943781853</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5107,13 +5112,13 @@
         <v>6</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D271" s="1">
         <v>0.23139999999999999</v>
       </c>
-      <c r="E271" s="1" t="s">
-        <v>10</v>
+      <c r="E271" s="2">
+        <v>2.6473131186256529</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5124,13 +5129,13 @@
         <v>2</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D272" s="1">
         <v>0.1356</v>
       </c>
-      <c r="E272" s="1" t="s">
-        <v>9</v>
+      <c r="E272" s="2">
+        <v>2.3542977736071649</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5141,13 +5146,13 @@
         <v>6</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D273" s="1">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="E273" s="1" t="s">
-        <v>9</v>
+      <c r="E273" s="2">
+        <v>2.6399388121338516</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5158,13 +5163,13 @@
         <v>2</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D274" s="1">
         <v>0.3453</v>
       </c>
-      <c r="E274" s="1" t="s">
-        <v>12</v>
+      <c r="E274" s="2">
+        <v>2.8712480846015658</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5175,13 +5180,13 @@
         <v>3</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D275" s="1">
         <v>0.3453</v>
       </c>
-      <c r="E275" s="1" t="s">
-        <v>12</v>
+      <c r="E275" s="2">
+        <v>2.2281167994615281</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5192,13 +5197,13 @@
         <v>6</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D276" s="1">
         <v>0.3453</v>
       </c>
-      <c r="E276" s="1" t="s">
-        <v>12</v>
+      <c r="E276" s="2">
+        <v>2.204228744571799</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5209,13 +5214,13 @@
         <v>5</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D277" s="1">
         <v>0.3453</v>
       </c>
-      <c r="E277" s="1" t="s">
-        <v>12</v>
+      <c r="E277" s="2">
+        <v>2.9384260522706351</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5226,13 +5231,13 @@
         <v>3</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D278" s="1">
         <v>0.3453</v>
       </c>
-      <c r="E278" s="1" t="s">
-        <v>10</v>
+      <c r="E278" s="2">
+        <v>2.9925302521187396</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5243,13 +5248,13 @@
         <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D279" s="1">
         <v>0.54369999999999996</v>
       </c>
-      <c r="E279" s="1" t="s">
-        <v>10</v>
+      <c r="E279" s="2">
+        <v>2.4263383559656599</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5260,13 +5265,13 @@
         <v>1</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D280" s="1">
         <v>0.98560000000000003</v>
       </c>
-      <c r="E280" s="1" t="s">
-        <v>9</v>
+      <c r="E280" s="2">
+        <v>3.4223369763467457</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5277,13 +5282,13 @@
         <v>5</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D281" s="1">
         <v>0.98560000000000003</v>
       </c>
-      <c r="E281" s="1" t="s">
-        <v>12</v>
+      <c r="E281" s="2">
+        <v>3.4403179762345721</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5294,13 +5299,13 @@
         <v>5</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D282" s="1">
         <v>0.98560000000000003</v>
       </c>
-      <c r="E282" s="1" t="s">
-        <v>12</v>
+      <c r="E282" s="2">
+        <v>3.37038958412968</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5311,13 +5316,13 @@
         <v>2</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D283" s="1">
         <v>0.12559999999999999</v>
       </c>
-      <c r="E283" s="1" t="s">
-        <v>12</v>
+      <c r="E283" s="2">
+        <v>2.9747788215217801</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5328,13 +5333,13 @@
         <v>2</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D284" s="1">
         <v>0.43759999999999999</v>
       </c>
-      <c r="E284" s="1" t="s">
-        <v>12</v>
+      <c r="E284" s="2">
+        <v>3.042464055533606</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5345,13 +5350,13 @@
         <v>2</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D285" s="1">
         <v>0.3256</v>
       </c>
-      <c r="E285" s="1" t="s">
-        <v>12</v>
+      <c r="E285" s="2">
+        <v>2.7343208629996942</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5362,13 +5367,13 @@
         <v>2</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D286" s="1">
         <v>0.14560000000000001</v>
       </c>
-      <c r="E286" s="1" t="s">
-        <v>12</v>
+      <c r="E286" s="2">
+        <v>2.6467886595708219</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5379,13 +5384,13 @@
         <v>7</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D287" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E287" s="1" t="s">
-        <v>9</v>
+      <c r="E287" s="2">
+        <v>3.5313558924721868</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5396,13 +5401,13 @@
         <v>1</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D288" s="1">
         <v>0.23949999999999999</v>
       </c>
-      <c r="E288" s="1" t="s">
-        <v>10</v>
+      <c r="E288" s="2">
+        <v>2.414333574950565</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5413,13 +5418,13 @@
         <v>5</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D289" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E289" s="1" t="s">
-        <v>10</v>
+      <c r="E289" s="2">
+        <v>3.1273344252040216</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5430,13 +5435,13 @@
         <v>2</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D290" s="1">
         <v>1.0057</v>
       </c>
-      <c r="E290" s="1" t="s">
-        <v>9</v>
+      <c r="E290" s="2">
+        <v>2.9984170770019571</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5447,13 +5452,13 @@
         <v>2</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D291" s="1">
         <v>1.0057</v>
       </c>
-      <c r="E291" s="1" t="s">
-        <v>9</v>
+      <c r="E291" s="2">
+        <v>3.3720353924469562</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5464,13 +5469,13 @@
         <v>2</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D292" s="1">
         <v>1.0057</v>
       </c>
-      <c r="E292" s="1" t="s">
-        <v>10</v>
+      <c r="E292" s="2">
+        <v>3.5238866301099478</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5481,13 +5486,13 @@
         <v>1</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D293" s="1">
         <v>0.23949999999999999</v>
       </c>
-      <c r="E293" s="1" t="s">
-        <v>10</v>
+      <c r="E293" s="2">
+        <v>2.3620188649318177</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5498,13 +5503,13 @@
         <v>5</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D294" s="1">
         <v>1.0057</v>
       </c>
-      <c r="E294" s="1" t="s">
-        <v>9</v>
+      <c r="E294" s="2">
+        <v>3.3679712103811572</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5515,13 +5520,13 @@
         <v>5</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D295" s="1">
         <v>1.0057</v>
       </c>
-      <c r="E295" s="1" t="s">
-        <v>10</v>
+      <c r="E295" s="2">
+        <v>3.0449253150571103</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5532,13 +5537,13 @@
         <v>7</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D296" s="1">
         <v>1.0057</v>
       </c>
-      <c r="E296" s="1" t="s">
-        <v>10</v>
+      <c r="E296" s="2">
+        <v>3.3568842638689751</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5549,13 +5554,13 @@
         <v>2</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D297" s="1">
         <v>1.0057</v>
       </c>
-      <c r="E297" s="1" t="s">
-        <v>9</v>
+      <c r="E297" s="2">
+        <v>2.539624880173931</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5566,13 +5571,13 @@
         <v>3</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D298" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E298" s="1" t="s">
-        <v>9</v>
+      <c r="E298" s="2">
+        <v>2.5312348623023215</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5583,13 +5588,13 @@
         <v>5</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D299" s="1">
         <v>1.0057</v>
       </c>
-      <c r="E299" s="1" t="s">
-        <v>10</v>
+      <c r="E299" s="2">
+        <v>2.7073823520828029</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5600,13 +5605,13 @@
         <v>2</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D300" s="1">
         <v>1.0057</v>
       </c>
-      <c r="E300" s="1" t="s">
-        <v>10</v>
+      <c r="E300" s="2">
+        <v>3.5305030677770932</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5617,13 +5622,13 @@
         <v>2</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D301" s="1">
         <v>1.0057</v>
       </c>
-      <c r="E301" s="1" t="s">
-        <v>9</v>
+      <c r="E301" s="2">
+        <v>3.1408925008396409</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5634,13 +5639,13 @@
         <v>2</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D302" s="1">
         <v>1.0057</v>
       </c>
-      <c r="E302" s="1" t="s">
-        <v>9</v>
+      <c r="E302" s="2">
+        <v>2.8073014185659306</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5651,13 +5656,13 @@
         <v>2</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D303" s="1">
         <v>1.0057</v>
       </c>
-      <c r="E303" s="1" t="s">
-        <v>10</v>
+      <c r="E303" s="2">
+        <v>2.8279342139226191</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5668,13 +5673,13 @@
         <v>3</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D304" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E304" s="1" t="s">
-        <v>9</v>
+      <c r="E304" s="2">
+        <v>3.0664888125027105</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5685,13 +5690,13 @@
         <v>2</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D305" s="1">
         <v>1.0057</v>
       </c>
-      <c r="E305" s="1" t="s">
-        <v>9</v>
+      <c r="E305" s="2">
+        <v>2.784941055704937</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5702,13 +5707,13 @@
         <v>2</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D306" s="1">
         <v>1.0057</v>
       </c>
-      <c r="E306" s="1" t="s">
-        <v>10</v>
+      <c r="E306" s="2">
+        <v>3.2741474184022836</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5719,13 +5724,13 @@
         <v>2</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D307" s="1">
         <v>1.0057</v>
       </c>
-      <c r="E307" s="1" t="s">
-        <v>10</v>
+      <c r="E307" s="2">
+        <v>3.3634930971502546</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5736,13 +5741,13 @@
         <v>2</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D308" s="1">
         <v>1.0057</v>
       </c>
-      <c r="E308" s="1" t="s">
-        <v>9</v>
+      <c r="E308" s="2">
+        <v>2.9313890444840611</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5753,13 +5758,13 @@
         <v>3</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D309" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E309" s="1" t="s">
-        <v>10</v>
+      <c r="E309" s="2">
+        <v>2.2847966157417043</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5770,13 +5775,13 @@
         <v>2</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D310" s="1">
         <v>1.0057</v>
       </c>
-      <c r="E310" s="1" t="s">
-        <v>10</v>
+      <c r="E310" s="2">
+        <v>2.7704199302230244</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5787,13 +5792,13 @@
         <v>2</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D311" s="1">
         <v>0.75319999999999998</v>
       </c>
-      <c r="E311" s="1" t="s">
-        <v>9</v>
+      <c r="E311" s="2">
+        <v>2.7099451840708539</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5804,13 +5809,13 @@
         <v>3</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D312" s="1">
         <v>0.75319999999999998</v>
       </c>
-      <c r="E312" s="1" t="s">
-        <v>9</v>
+      <c r="E312" s="2">
+        <v>3.1584071988350955</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5821,13 +5826,13 @@
         <v>3</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D313" s="1">
         <v>0.75319999999999998</v>
       </c>
-      <c r="E313" s="1" t="s">
-        <v>10</v>
+      <c r="E313" s="2">
+        <v>2.3066112466552697</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5838,13 +5843,13 @@
         <v>3</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D314" s="1">
         <v>0.75319999999999998</v>
       </c>
-      <c r="E314" s="1" t="s">
-        <v>10</v>
+      <c r="E314" s="2">
+        <v>2.9726075998167802</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5855,13 +5860,13 @@
         <v>3</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D315" s="1">
         <v>0.75319999999999998</v>
       </c>
-      <c r="E315" s="1" t="s">
-        <v>9</v>
+      <c r="E315" s="2">
+        <v>2.9934626781151907</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5872,13 +5877,13 @@
         <v>3</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D316" s="1">
         <v>0.75319999999999998</v>
       </c>
-      <c r="E316" s="1" t="s">
-        <v>10</v>
+      <c r="E316" s="2">
+        <v>2.2953082770381061</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5889,13 +5894,13 @@
         <v>3</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D317" s="1">
         <v>0.86539999999999995</v>
       </c>
-      <c r="E317" s="1" t="s">
-        <v>9</v>
+      <c r="E317" s="2">
+        <v>2.8808706619557873</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5906,13 +5911,13 @@
         <v>3</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D318" s="1">
         <v>0.86539999999999995</v>
       </c>
-      <c r="E318" s="1" t="s">
-        <v>9</v>
+      <c r="E318" s="2">
+        <v>3.2719779737906238</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5923,13 +5928,13 @@
         <v>3</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D319" s="1">
         <v>0.86539999999999995</v>
       </c>
-      <c r="E319" s="1" t="s">
-        <v>10</v>
+      <c r="E319" s="2">
+        <v>3.5943159899483161</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5940,13 +5945,13 @@
         <v>2</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D320" s="1">
         <v>0.86539999999999995</v>
       </c>
-      <c r="E320" s="1" t="s">
-        <v>10</v>
+      <c r="E320" s="2">
+        <v>3.0008585152463314</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5957,13 +5962,13 @@
         <v>2</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D321" s="1">
         <v>0.86539999999999995</v>
       </c>
-      <c r="E321" s="1" t="s">
-        <v>9</v>
+      <c r="E321" s="2">
+        <v>2.5210012522705716</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5974,13 +5979,13 @@
         <v>2</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D322" s="1">
         <v>0.86539999999999995</v>
       </c>
-      <c r="E322" s="1" t="s">
-        <v>10</v>
+      <c r="E322" s="2">
+        <v>3.0618764209549481</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5991,13 +5996,13 @@
         <v>2</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D323" s="1">
         <v>0.86539999999999995</v>
       </c>
-      <c r="E323" s="1" t="s">
-        <v>10</v>
+      <c r="E323" s="2">
+        <v>3.0197140089860364</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6008,13 +6013,13 @@
         <v>3</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D324" s="1">
         <v>0.86539999999999995</v>
       </c>
-      <c r="E324" s="1" t="s">
-        <v>10</v>
+      <c r="E324" s="2">
+        <v>2.9398118291611226</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6025,13 +6030,13 @@
         <v>7</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D325" s="1">
         <v>0.86539999999999995</v>
       </c>
-      <c r="E325" s="1" t="s">
-        <v>10</v>
+      <c r="E325" s="2">
+        <v>2.8620633296291631</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6042,13 +6047,13 @@
         <v>7</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D326" s="1">
         <v>0.97560000000000002</v>
       </c>
-      <c r="E326" s="1" t="s">
-        <v>9</v>
+      <c r="E326" s="2">
+        <v>2.578946469693645</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6059,13 +6064,13 @@
         <v>7</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D327" s="1">
         <v>0.97560000000000002</v>
       </c>
-      <c r="E327" s="1" t="s">
-        <v>9</v>
+      <c r="E327" s="2">
+        <v>2.6641121374103953</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6076,13 +6081,13 @@
         <v>7</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D328" s="1">
         <v>0.97560000000000002</v>
       </c>
-      <c r="E328" s="1" t="s">
-        <v>10</v>
+      <c r="E328" s="2">
+        <v>3.4298468504642972</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6093,13 +6098,13 @@
         <v>7</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D329" s="1">
         <v>0.97560000000000002</v>
       </c>
-      <c r="E329" s="1" t="s">
-        <v>9</v>
+      <c r="E329" s="2">
+        <v>2.7809228629024676</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6110,13 +6115,13 @@
         <v>7</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D330" s="1">
         <v>0.97560000000000002</v>
       </c>
-      <c r="E330" s="1" t="s">
-        <v>10</v>
+      <c r="E330" s="2">
+        <v>3.0145428109505819</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6127,13 +6132,13 @@
         <v>7</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D331" s="1">
         <v>0.97560000000000002</v>
       </c>
-      <c r="E331" s="1" t="s">
-        <v>10</v>
+      <c r="E331" s="2">
+        <v>2.5931208823278848</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6144,13 +6149,13 @@
         <v>7</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D332" s="1">
         <v>0.97560000000000002</v>
       </c>
-      <c r="E332" s="1" t="s">
-        <v>10</v>
+      <c r="E332" s="2">
+        <v>3.2052419145045272</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6161,13 +6166,13 @@
         <v>7</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D333" s="1">
         <v>0.76029999999999998</v>
       </c>
-      <c r="E333" s="1" t="s">
-        <v>10</v>
+      <c r="E333" s="2">
+        <v>3.0883406076576509</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6178,13 +6183,13 @@
         <v>7</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D334" s="1">
         <v>0.76029999999999998</v>
       </c>
-      <c r="E334" s="1" t="s">
-        <v>9</v>
+      <c r="E334" s="2">
+        <v>3.43850377556267</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6195,13 +6200,13 @@
         <v>3</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D335" s="1">
         <v>0.76029999999999998</v>
       </c>
-      <c r="E335" s="1" t="s">
-        <v>9</v>
+      <c r="E335" s="2">
+        <v>2.6252566011740646</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6212,13 +6217,13 @@
         <v>7</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D336" s="1">
         <v>0.76029999999999998</v>
       </c>
-      <c r="E336" s="1" t="s">
-        <v>9</v>
+      <c r="E336" s="2">
+        <v>2.6628469991143424</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6229,13 +6234,13 @@
         <v>7</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D337" s="1">
         <v>0.76029999999999998</v>
       </c>
-      <c r="E337" s="1" t="s">
-        <v>10</v>
+      <c r="E337" s="2">
+        <v>3.1175005095733503</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6246,13 +6251,13 @@
         <v>7</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D338" s="1">
         <v>0.76029999999999998</v>
       </c>
-      <c r="E338" s="1" t="s">
-        <v>10</v>
+      <c r="E338" s="2">
+        <v>2.6563024285825159</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6263,13 +6268,13 @@
         <v>7</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D339" s="1">
         <v>0.76029999999999998</v>
       </c>
-      <c r="E339" s="1" t="s">
-        <v>10</v>
+      <c r="E339" s="2">
+        <v>3.0117495370245102</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6280,13 +6285,13 @@
         <v>7</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D340" s="1">
         <v>0.85780000000000001</v>
       </c>
-      <c r="E340" s="1" t="s">
-        <v>9</v>
+      <c r="E340" s="2">
+        <v>3.3215608458697732</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6297,13 +6302,13 @@
         <v>6</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D341" s="1">
         <v>0.85780000000000001</v>
       </c>
-      <c r="E341" s="1" t="s">
-        <v>9</v>
+      <c r="E341" s="2">
+        <v>3.251474829462059</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6314,13 +6319,13 @@
         <v>7</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D342" s="1">
         <v>0.85780000000000001</v>
       </c>
-      <c r="E342" s="1" t="s">
-        <v>10</v>
+      <c r="E342" s="2">
+        <v>2.9877450617219869</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6331,13 +6336,13 @@
         <v>5</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D343" s="1">
         <v>0.85780000000000001</v>
       </c>
-      <c r="E343" s="1" t="s">
-        <v>9</v>
+      <c r="E343" s="2">
+        <v>2.5824336274298512</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6348,13 +6353,13 @@
         <v>7</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D344" s="1">
         <v>0.85780000000000001</v>
       </c>
-      <c r="E344" s="1" t="s">
-        <v>9</v>
+      <c r="E344" s="2">
+        <v>3.4691123461846067</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6365,13 +6370,13 @@
         <v>3</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D345" s="1">
         <v>0.85780000000000001</v>
       </c>
-      <c r="E345" s="1" t="s">
-        <v>10</v>
+      <c r="E345" s="2">
+        <v>3.0511188161999132</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6382,13 +6387,13 @@
         <v>7</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D346" s="1">
         <v>0.91449999999999998</v>
       </c>
-      <c r="E346" s="1" t="s">
-        <v>10</v>
+      <c r="E346" s="2">
+        <v>2.7181568131647253</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6399,13 +6404,13 @@
         <v>7</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D347" s="1">
         <v>0.91449999999999998</v>
       </c>
-      <c r="E347" s="1" t="s">
-        <v>9</v>
+      <c r="E347" s="2">
+        <v>2.8840318368079521</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6416,13 +6421,13 @@
         <v>7</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D348" s="1">
         <v>0.91449999999999998</v>
       </c>
-      <c r="E348" s="1" t="s">
-        <v>10</v>
+      <c r="E348" s="2">
+        <v>3.3449693856112956</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6433,13 +6438,13 @@
         <v>7</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D349" s="1">
         <v>0.91449999999999998</v>
       </c>
-      <c r="E349" s="1" t="s">
-        <v>10</v>
+      <c r="E349" s="2">
+        <v>2.6056663837067329</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6450,13 +6455,13 @@
         <v>5</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D350" s="1">
         <v>0.91449999999999998</v>
       </c>
-      <c r="E350" s="1" t="s">
-        <v>9</v>
+      <c r="E350" s="2">
+        <v>3.3908241486799851</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6467,13 +6472,13 @@
         <v>7</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D351" s="1">
         <v>0.91449999999999998</v>
       </c>
-      <c r="E351" s="1" t="s">
-        <v>10</v>
+      <c r="E351" s="2">
+        <v>2.933067366080039</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6484,13 +6489,13 @@
         <v>7</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D352" s="1">
         <v>0.91449999999999998</v>
       </c>
-      <c r="E352" s="1" t="s">
-        <v>10</v>
+      <c r="E352" s="2">
+        <v>3.2288505309069486</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6501,13 +6506,13 @@
         <v>7</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D353" s="1">
         <v>0.91449999999999998</v>
       </c>
-      <c r="E353" s="1" t="s">
-        <v>9</v>
+      <c r="E353" s="2">
+        <v>3.3428598749912513</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6518,13 +6523,13 @@
         <v>7</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D354" s="1">
         <v>0.91449999999999998</v>
       </c>
-      <c r="E354" s="1" t="s">
-        <v>9</v>
+      <c r="E354" s="2">
+        <v>3.5997085517529985</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6535,13 +6540,13 @@
         <v>7</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D355" s="1">
         <v>0.91449999999999998</v>
       </c>
-      <c r="E355" s="1" t="s">
-        <v>10</v>
+      <c r="E355" s="2">
+        <v>3.0155129985542843</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6552,13 +6557,13 @@
         <v>7</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D356" s="1">
         <v>0.91449999999999998</v>
       </c>
-      <c r="E356" s="1" t="s">
-        <v>10</v>
+      <c r="E356" s="2">
+        <v>3.4187799665707286</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6569,13 +6574,13 @@
         <v>7</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D357" s="1">
         <v>0.91449999999999998</v>
       </c>
-      <c r="E357" s="1" t="s">
-        <v>9</v>
+      <c r="E357" s="2">
+        <v>2.7376834815173758</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6586,13 +6591,13 @@
         <v>7</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D358" s="1">
         <v>0.91449999999999998</v>
       </c>
-      <c r="E358" s="1" t="s">
-        <v>10</v>
+      <c r="E358" s="2">
+        <v>2.71676971226259</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6603,13 +6608,13 @@
         <v>2</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D359" s="1">
         <v>0.91449999999999998</v>
       </c>
-      <c r="E359" s="1" t="s">
-        <v>10</v>
+      <c r="E359" s="2">
+        <v>2.8599105157742066</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6620,13 +6625,13 @@
         <v>6</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D360" s="1">
         <v>0.91449999999999998</v>
       </c>
-      <c r="E360" s="1" t="s">
-        <v>9</v>
+      <c r="E360" s="2">
+        <v>2.931343822965415</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6637,13 +6642,13 @@
         <v>3</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D361" s="1">
         <v>0.78900000000000003</v>
       </c>
-      <c r="E361" s="1" t="s">
-        <v>9</v>
+      <c r="E361" s="2">
+        <v>3.4140216962594829</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6654,13 +6659,13 @@
         <v>5</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D362" s="1">
         <v>0.78900000000000003</v>
       </c>
-      <c r="E362" s="1" t="s">
-        <v>10</v>
+      <c r="E362" s="2">
+        <v>2.8717241533272913</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6671,13 +6676,13 @@
         <v>5</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D363" s="1">
         <v>0.78900000000000003</v>
       </c>
-      <c r="E363" s="1" t="s">
-        <v>10</v>
+      <c r="E363" s="2">
+        <v>2.8336161332613794</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6688,13 +6693,13 @@
         <v>5</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D364" s="1">
         <v>0.78900000000000003</v>
       </c>
-      <c r="E364" s="1" t="s">
-        <v>9</v>
+      <c r="E364" s="2">
+        <v>3.1618764071737711</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6705,13 +6710,13 @@
         <v>3</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D365" s="1">
         <v>0.78900000000000003</v>
       </c>
-      <c r="E365" s="1" t="s">
-        <v>9</v>
+      <c r="E365" s="2">
+        <v>2.927560656611738</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6722,13 +6727,13 @@
         <v>3</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D366" s="1">
         <v>0.78900000000000003</v>
       </c>
-      <c r="E366" s="1" t="s">
-        <v>10</v>
+      <c r="E366" s="2">
+        <v>3.58478578437516</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6739,13 +6744,13 @@
         <v>7</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D367" s="1">
         <v>0.78900000000000003</v>
       </c>
-      <c r="E367" s="1" t="s">
-        <v>9</v>
+      <c r="E367" s="2">
+        <v>2.7380434687353148</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6756,13 +6761,13 @@
         <v>7</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D368" s="1">
         <v>0.65429999999999999</v>
       </c>
-      <c r="E368" s="1" t="s">
-        <v>9</v>
+      <c r="E368" s="2">
+        <v>2.8576705386197085</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6773,13 +6778,13 @@
         <v>7</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D369" s="1">
         <v>0.65429999999999999</v>
       </c>
-      <c r="E369" s="1" t="s">
-        <v>10</v>
+      <c r="E369" s="2">
+        <v>3.0613494331570044</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6790,13 +6795,13 @@
         <v>7</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D370" s="1">
         <v>0.65429999999999999</v>
       </c>
-      <c r="E370" s="1" t="s">
-        <v>10</v>
+      <c r="E370" s="2">
+        <v>3.1562988444907498</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6807,13 +6812,13 @@
         <v>7</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D371" s="1">
         <v>0.65429999999999999</v>
       </c>
-      <c r="E371" s="1" t="s">
-        <v>9</v>
+      <c r="E371" s="2">
+        <v>2.3536601735252942</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6824,13 +6829,13 @@
         <v>7</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D372" s="1">
         <v>0.65429999999999999</v>
       </c>
-      <c r="E372" s="1" t="s">
-        <v>10</v>
+      <c r="E372" s="2">
+        <v>3.0470428801481582</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6841,13 +6846,13 @@
         <v>7</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D373" s="1">
         <v>0.65429999999999999</v>
       </c>
-      <c r="E373" s="1" t="s">
-        <v>10</v>
+      <c r="E373" s="2">
+        <v>2.3097511738613914</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6858,13 +6863,13 @@
         <v>7</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D374" s="1">
         <v>0.65429999999999999</v>
       </c>
-      <c r="E374" s="1" t="s">
-        <v>9</v>
+      <c r="E374" s="2">
+        <v>2.5698372867659875</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6875,13 +6880,13 @@
         <v>7</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D375" s="1">
         <v>0.53459999999999996</v>
       </c>
-      <c r="E375" s="1" t="s">
-        <v>9</v>
+      <c r="E375" s="2">
+        <v>2.7954476403514432</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6892,13 +6897,13 @@
         <v>7</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D376" s="1">
         <v>0.53459999999999996</v>
       </c>
-      <c r="E376" s="1" t="s">
-        <v>10</v>
+      <c r="E376" s="2">
+        <v>2.4429321063644807</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6909,13 +6914,13 @@
         <v>7</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D377" s="1">
         <v>0.53459999999999996</v>
       </c>
-      <c r="E377" s="1" t="s">
-        <v>10</v>
+      <c r="E377" s="2">
+        <v>2.4380239990374801</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6926,13 +6931,13 @@
         <v>7</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D378" s="1">
         <v>0.53459999999999996</v>
       </c>
-      <c r="E378" s="1" t="s">
-        <v>9</v>
+      <c r="E378" s="2">
+        <v>3.0120676620766487</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6943,13 +6948,13 @@
         <v>7</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D379" s="1">
         <v>0.53459999999999996</v>
       </c>
-      <c r="E379" s="1" t="s">
-        <v>10</v>
+      <c r="E379" s="2">
+        <v>2.4498115204666369</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6960,13 +6965,13 @@
         <v>3</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D380" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E380" s="1" t="s">
-        <v>9</v>
+      <c r="E380" s="2">
+        <v>2.2876281448930715</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6977,13 +6982,13 @@
         <v>3</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D381" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E381" s="1" t="s">
-        <v>9</v>
+      <c r="E381" s="2">
+        <v>2.3909927767601822</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6994,13 +6999,13 @@
         <v>2</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D382" s="1">
         <v>0.53459999999999996</v>
       </c>
-      <c r="E382" s="1" t="s">
-        <v>10</v>
+      <c r="E382" s="2">
+        <v>2.9793908983525847</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7011,13 +7016,13 @@
         <v>2</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D383" s="1">
         <v>0.53459999999999996</v>
       </c>
-      <c r="E383" s="1" t="s">
-        <v>10</v>
+      <c r="E383" s="2">
+        <v>2.2756225496265046</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7028,13 +7033,13 @@
         <v>3</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D384" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E384" s="1" t="s">
-        <v>9</v>
+      <c r="E384" s="2">
+        <v>3.1539020473738071</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7045,13 +7050,13 @@
         <v>3</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D385" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E385" s="1" t="s">
-        <v>10</v>
+      <c r="E385" s="2">
+        <v>2.5314805771239595</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7062,13 +7067,13 @@
         <v>7</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D386" s="1">
         <v>0.78649999999999998</v>
       </c>
-      <c r="E386" s="1" t="s">
-        <v>10</v>
+      <c r="E386" s="2">
+        <v>3.5914542445539239</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7079,13 +7084,13 @@
         <v>3</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D387" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E387" s="1" t="s">
-        <v>10</v>
+      <c r="E387" s="2">
+        <v>2.9094012409035583</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7096,13 +7101,13 @@
         <v>7</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D388" s="1">
         <v>0.78649999999999998</v>
       </c>
-      <c r="E388" s="1" t="s">
-        <v>10</v>
+      <c r="E388" s="2">
+        <v>3.3415673010677813</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7113,13 +7118,13 @@
         <v>7</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D389" s="1">
         <v>0.78649999999999998</v>
       </c>
-      <c r="E389" s="1" t="s">
-        <v>9</v>
+      <c r="E389" s="2">
+        <v>3.451561354946092</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7130,13 +7135,13 @@
         <v>3</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D390" s="1">
         <v>0.54359999999999997</v>
       </c>
-      <c r="E390" s="1" t="s">
-        <v>9</v>
+      <c r="E390" s="2">
+        <v>3.0959767652467747</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7147,13 +7152,13 @@
         <v>7</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D391" s="1">
         <v>0.54359999999999997</v>
       </c>
-      <c r="E391" s="1" t="s">
-        <v>10</v>
+      <c r="E391" s="2">
+        <v>2.7274953423231789</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7164,13 +7169,13 @@
         <v>7</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D392" s="1">
         <v>0.54359999999999997</v>
       </c>
-      <c r="E392" s="1" t="s">
-        <v>9</v>
+      <c r="E392" s="2">
+        <v>3.0977359938680626</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7181,13 +7186,13 @@
         <v>7</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D393" s="1">
         <v>0.54359999999999997</v>
       </c>
-      <c r="E393" s="1" t="s">
-        <v>10</v>
+      <c r="E393" s="2">
+        <v>2.3834651916025509</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7198,13 +7203,13 @@
         <v>7</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D394" s="1">
         <v>0.54359999999999997</v>
       </c>
-      <c r="E394" s="1" t="s">
-        <v>10</v>
+      <c r="E394" s="2">
+        <v>2.2511393161729201</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7215,13 +7220,13 @@
         <v>7</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D395" s="1">
         <v>0.54359999999999997</v>
       </c>
-      <c r="E395" s="1" t="s">
-        <v>10</v>
+      <c r="E395" s="2">
+        <v>2.6322941216647768</v>
       </c>
     </row>
     <row r="396" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7232,13 +7237,13 @@
         <v>7</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D396" s="1">
         <v>0.67889999999999995</v>
       </c>
-      <c r="E396" s="1" t="s">
-        <v>10</v>
+      <c r="E396" s="2">
+        <v>2.7470447617167908</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7249,13 +7254,13 @@
         <v>7</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D397" s="1">
         <v>0.75670000000000004</v>
       </c>
-      <c r="E397" s="1" t="s">
-        <v>9</v>
+      <c r="E397" s="2">
+        <v>2.4682341916926611</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7266,13 +7271,13 @@
         <v>7</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D398" s="1">
         <v>0.75670000000000004</v>
       </c>
-      <c r="E398" s="1" t="s">
-        <v>9</v>
+      <c r="E398" s="2">
+        <v>2.3088826148488653</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7283,13 +7288,13 @@
         <v>2</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D399" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E399" s="1" t="s">
-        <v>9</v>
+      <c r="E399" s="2">
+        <v>2.9943670667750846</v>
       </c>
     </row>
     <row r="400" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7300,13 +7305,13 @@
         <v>6</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D400" s="1">
         <v>0.75670000000000004</v>
       </c>
-      <c r="E400" s="1" t="s">
-        <v>10</v>
+      <c r="E400" s="2">
+        <v>2.5628884126477072</v>
       </c>
     </row>
     <row r="401" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7317,13 +7322,13 @@
         <v>3</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D401" s="1">
         <v>0.75670000000000004</v>
       </c>
-      <c r="E401" s="1" t="s">
-        <v>10</v>
+      <c r="E401" s="2">
+        <v>2.5223839685296037</v>
       </c>
     </row>
     <row r="402" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7334,13 +7339,13 @@
         <v>5</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D402" s="1">
         <v>0.65459999999999996</v>
       </c>
-      <c r="E402" s="1" t="s">
-        <v>10</v>
+      <c r="E402" s="2">
+        <v>2.4711854167028462</v>
       </c>
     </row>
     <row r="403" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7351,13 +7356,13 @@
         <v>5</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D403" s="1">
         <v>0.65459999999999996</v>
       </c>
-      <c r="E403" s="1" t="s">
-        <v>9</v>
+      <c r="E403" s="2">
+        <v>2.6244074439006284</v>
       </c>
     </row>
     <row r="404" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7368,13 +7373,13 @@
         <v>5</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D404" s="1">
         <v>0.65459999999999996</v>
       </c>
-      <c r="E404" s="1" t="s">
-        <v>9</v>
+      <c r="E404" s="2">
+        <v>2.7901789564309305</v>
       </c>
     </row>
     <row r="405" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7385,13 +7390,13 @@
         <v>3</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D405" s="1">
         <v>0.25669999999999998</v>
       </c>
-      <c r="E405" s="1" t="s">
-        <v>9</v>
+      <c r="E405" s="2">
+        <v>2.5160981409974683</v>
       </c>
     </row>
     <row r="406" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7402,13 +7407,13 @@
         <v>3</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D406" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E406" s="1" t="s">
-        <v>9</v>
+      <c r="E406" s="2">
+        <v>2.4328728363355419</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7419,13 +7424,13 @@
         <v>7</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D407" s="1">
         <v>0.65459999999999996</v>
       </c>
-      <c r="E407" s="1" t="s">
-        <v>9</v>
+      <c r="E407" s="2">
+        <v>2.2227843303335675</v>
       </c>
     </row>
     <row r="408" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7436,13 +7441,13 @@
         <v>7</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D408" s="1">
         <v>0.65459999999999996</v>
       </c>
-      <c r="E408" s="1" t="s">
-        <v>10</v>
+      <c r="E408" s="2">
+        <v>2.8510909495454326</v>
       </c>
     </row>
     <row r="409" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7453,13 +7458,13 @@
         <v>7</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D409" s="1">
         <v>0.6754</v>
       </c>
-      <c r="E409" s="1" t="s">
-        <v>9</v>
+      <c r="E409" s="2">
+        <v>2.2872427793955747</v>
       </c>
     </row>
     <row r="410" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7470,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D410" s="1">
         <v>0.65459999999999996</v>
       </c>
-      <c r="E410" s="1" t="s">
-        <v>9</v>
+      <c r="E410" s="2">
+        <v>2.4374420175595382</v>
       </c>
     </row>
     <row r="411" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7487,13 +7492,13 @@
         <v>3</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D411" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E411" s="1" t="s">
-        <v>10</v>
+      <c r="E411" s="2">
+        <v>2.4827124806049277</v>
       </c>
     </row>
     <row r="412" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7504,13 +7509,13 @@
         <v>7</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D412" s="1">
         <v>0.65459999999999996</v>
       </c>
-      <c r="E412" s="1" t="s">
-        <v>10</v>
+      <c r="E412" s="2">
+        <v>3.195439688933229</v>
       </c>
     </row>
     <row r="413" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7521,13 +7526,13 @@
         <v>7</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D413" s="1">
         <v>0.65459999999999996</v>
       </c>
-      <c r="E413" s="1" t="s">
-        <v>9</v>
+      <c r="E413" s="2">
+        <v>2.9709952403676079</v>
       </c>
     </row>
     <row r="414" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7538,13 +7543,13 @@
         <v>7</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D414" s="1">
         <v>0.78559999999999997</v>
       </c>
-      <c r="E414" s="1" t="s">
-        <v>9</v>
+      <c r="E414" s="2">
+        <v>2.6339182166178885</v>
       </c>
     </row>
     <row r="415" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7555,13 +7560,13 @@
         <v>3</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D415" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E415" s="1" t="s">
-        <v>10</v>
+      <c r="E415" s="2">
+        <v>3.1826239407460339</v>
       </c>
     </row>
     <row r="416" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7572,13 +7577,13 @@
         <v>7</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D416" s="1">
         <v>0.65459999999999996</v>
       </c>
-      <c r="E416" s="1" t="s">
-        <v>9</v>
+      <c r="E416" s="2">
+        <v>2.7120088146655572</v>
       </c>
     </row>
     <row r="417" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7589,13 +7594,13 @@
         <v>7</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D417" s="1">
         <v>0.75670000000000004</v>
       </c>
-      <c r="E417" s="1" t="s">
-        <v>9</v>
+      <c r="E417" s="2">
+        <v>2.4117863466667333</v>
       </c>
     </row>
     <row r="418" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7606,13 +7611,13 @@
         <v>7</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D418" s="1">
         <v>0.75670000000000004</v>
       </c>
-      <c r="E418" s="1" t="s">
-        <v>10</v>
+      <c r="E418" s="2">
+        <v>2.9578823533139498</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7623,13 +7628,13 @@
         <v>7</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D419" s="1">
         <v>0.75670000000000004</v>
       </c>
-      <c r="E419" s="1" t="s">
-        <v>10</v>
+      <c r="E419" s="2">
+        <v>2.2656966877686182</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7640,13 +7645,13 @@
         <v>2</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D420" s="1">
         <v>0.28449999999999998</v>
       </c>
-      <c r="E420" s="1" t="s">
-        <v>9</v>
+      <c r="E420" s="2">
+        <v>2.2877764809585592</v>
       </c>
     </row>
     <row r="421" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7657,13 +7662,13 @@
         <v>1</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D421" s="1">
         <v>0.23949999999999999</v>
       </c>
-      <c r="E421" s="1" t="s">
-        <v>10</v>
+      <c r="E421" s="2">
+        <v>2.444811544043441</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7674,13 +7679,13 @@
         <v>2</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D422" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E422" s="1" t="s">
-        <v>10</v>
+      <c r="E422" s="2">
+        <v>2.2080269331812876</v>
       </c>
     </row>
     <row r="423" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7691,13 +7696,13 @@
         <v>2</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D423" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E423" s="1" t="s">
-        <v>9</v>
+      <c r="E423" s="2">
+        <v>2.9228217125919507</v>
       </c>
     </row>
     <row r="424" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7708,13 +7713,13 @@
         <v>6</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D424" s="1">
         <v>0.75670000000000004</v>
       </c>
-      <c r="E424" s="1" t="s">
-        <v>9</v>
+      <c r="E424" s="2">
+        <v>3.0336350476332505</v>
       </c>
     </row>
     <row r="425" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7725,13 +7730,13 @@
         <v>3</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D425" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E425" s="1" t="s">
-        <v>10</v>
+      <c r="E425" s="2">
+        <v>3.1320424685196975</v>
       </c>
     </row>
     <row r="426" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7742,13 +7747,13 @@
         <v>2</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D426" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E426" s="1" t="s">
-        <v>10</v>
+      <c r="E426" s="2">
+        <v>2.6605024160534883</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7759,13 +7764,13 @@
         <v>2</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D427" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E427" s="1" t="s">
-        <v>9</v>
+      <c r="E427" s="2">
+        <v>2.3327497705345999</v>
       </c>
     </row>
     <row r="428" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7776,13 +7781,13 @@
         <v>2</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D428" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E428" s="1" t="s">
-        <v>9</v>
+      <c r="E428" s="2">
+        <v>2.2373509404143475</v>
       </c>
     </row>
     <row r="429" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7793,13 +7798,13 @@
         <v>7</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D429" s="1">
         <v>0.75670000000000004</v>
       </c>
-      <c r="E429" s="1" t="s">
-        <v>10</v>
+      <c r="E429" s="2">
+        <v>2.4863682532076767</v>
       </c>
     </row>
     <row r="430" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7810,13 +7815,13 @@
         <v>1</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D430" s="1">
         <v>0.23150000000000001</v>
       </c>
-      <c r="E430" s="1" t="s">
-        <v>9</v>
+      <c r="E430" s="2">
+        <v>2.7847350780634832</v>
       </c>
     </row>
     <row r="431" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7827,13 +7832,13 @@
         <v>2</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D431" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E431" s="1" t="s">
-        <v>9</v>
+      <c r="E431" s="2">
+        <v>2.2611877951304593</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7844,13 +7849,13 @@
         <v>1</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D432" s="1">
         <v>0.23949999999999999</v>
       </c>
-      <c r="E432" s="1" t="s">
-        <v>10</v>
+      <c r="E432" s="2">
+        <v>2.9183532504397021</v>
       </c>
     </row>
     <row r="433" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7861,13 +7866,13 @@
         <v>3</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D433" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E433" s="1" t="s">
-        <v>10</v>
+      <c r="E433" s="2">
+        <v>2.4020481663553737</v>
       </c>
     </row>
     <row r="434" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7878,13 +7883,13 @@
         <v>1</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D434" s="1">
         <v>0.23050000000000001</v>
       </c>
-      <c r="E434" s="1" t="s">
-        <v>9</v>
+      <c r="E434" s="2">
+        <v>2.4816800485641832</v>
       </c>
     </row>
     <row r="435" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7895,13 +7900,13 @@
         <v>1</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D435" s="1">
         <v>0.23949999999999999</v>
       </c>
-      <c r="E435" s="1" t="s">
-        <v>10</v>
+      <c r="E435" s="2">
+        <v>2.9237286990963911</v>
       </c>
     </row>
     <row r="436" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7912,13 +7917,13 @@
         <v>2</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D436" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E436" s="1" t="s">
-        <v>10</v>
+      <c r="E436" s="2">
+        <v>2.7906691646568209</v>
       </c>
     </row>
     <row r="437" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7929,13 +7934,13 @@
         <v>5</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D437" s="1">
         <v>0.75670000000000004</v>
       </c>
-      <c r="E437" s="1" t="s">
-        <v>9</v>
+      <c r="E437" s="2">
+        <v>3.0923935229652373</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7946,13 +7951,13 @@
         <v>1</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D438" s="1">
         <v>0.22950000000000001</v>
       </c>
-      <c r="E438" s="1" t="s">
-        <v>9</v>
+      <c r="E438" s="2">
+        <v>2.8346879012139672</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7963,13 +7968,13 @@
         <v>1</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D439" s="1">
         <v>0.23949999999999999</v>
       </c>
-      <c r="E439" s="1" t="s">
-        <v>10</v>
+      <c r="E439" s="2">
+        <v>2.9876585957045414</v>
       </c>
     </row>
     <row r="440" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7980,13 +7985,13 @@
         <v>2</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D440" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E440" s="1" t="s">
-        <v>10</v>
+      <c r="E440" s="2">
+        <v>2.6584204326567606</v>
       </c>
     </row>
     <row r="441" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7997,13 +8002,13 @@
         <v>6</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D441" s="1">
         <v>0.5645</v>
       </c>
-      <c r="E441" s="1" t="s">
-        <v>9</v>
+      <c r="E441" s="2">
+        <v>3.0391972262414528</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8014,13 +8019,13 @@
         <v>5</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D442" s="1">
         <v>0.5645</v>
       </c>
-      <c r="E442" s="1" t="s">
-        <v>10</v>
+      <c r="E442" s="2">
+        <v>2.5199957921244991</v>
       </c>
     </row>
     <row r="443" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8031,13 +8036,13 @@
         <v>2</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D443" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E443" s="1" t="s">
-        <v>9</v>
+      <c r="E443" s="2">
+        <v>2.4848103748769867</v>
       </c>
     </row>
     <row r="444" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8048,13 +8053,13 @@
         <v>3</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D444" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E444" s="1" t="s">
-        <v>9</v>
+      <c r="E444" s="2">
+        <v>2.235217539388314</v>
       </c>
     </row>
     <row r="445" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8065,13 +8070,13 @@
         <v>6</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D445" s="1">
         <v>0.5645</v>
       </c>
-      <c r="E445" s="1" t="s">
-        <v>10</v>
+      <c r="E445" s="2">
+        <v>2.9718968797687388</v>
       </c>
     </row>
     <row r="446" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8082,13 +8087,13 @@
         <v>5</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D446" s="1">
         <v>0.5645</v>
       </c>
-      <c r="E446" s="1" t="s">
-        <v>10</v>
+      <c r="E446" s="2">
+        <v>2.5872331805958768</v>
       </c>
     </row>
     <row r="447" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8099,13 +8104,13 @@
         <v>1</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D447" s="1">
-        <v>9.2345000000000006</v>
-      </c>
-      <c r="E447" s="1" t="s">
-        <v>9</v>
+        <v>1.2344999999999999</v>
+      </c>
+      <c r="E447" s="2">
+        <v>3.3386902005007459</v>
       </c>
     </row>
     <row r="448" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8116,13 +8121,13 @@
         <v>3</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D448" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E448" s="1" t="s">
-        <v>10</v>
+      <c r="E448" s="2">
+        <v>2.3498687380500947</v>
       </c>
     </row>
     <row r="449" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8133,13 +8138,13 @@
         <v>5</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D449" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E449" s="1" t="s">
-        <v>10</v>
+      <c r="E449" s="2">
+        <v>3.1138571890662954</v>
       </c>
     </row>
     <row r="450" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8150,13 +8155,13 @@
         <v>5</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D450" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E450" s="1" t="s">
-        <v>10</v>
+      <c r="E450" s="2">
+        <v>3.1249672752951474</v>
       </c>
     </row>
     <row r="451" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8167,13 +8172,13 @@
         <v>2</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D451" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E451" s="1" t="s">
-        <v>10</v>
+      <c r="E451" s="2">
+        <v>2.8803510674975783</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8184,13 +8189,13 @@
         <v>5</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D452" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E452" s="1" t="s">
-        <v>9</v>
+      <c r="E452" s="2">
+        <v>2.4779853501039133</v>
       </c>
     </row>
     <row r="453" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8201,13 +8206,13 @@
         <v>7</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D453" s="1">
         <v>0.5645</v>
       </c>
-      <c r="E453" s="1" t="s">
-        <v>9</v>
+      <c r="E453" s="2">
+        <v>2.8274834035394827</v>
       </c>
     </row>
     <row r="454" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8218,13 +8223,13 @@
         <v>2</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D454" s="1">
         <v>0.5645</v>
       </c>
-      <c r="E454" s="1" t="s">
-        <v>10</v>
+      <c r="E454" s="2">
+        <v>2.4165636532718842</v>
       </c>
     </row>
     <row r="455" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8235,13 +8240,13 @@
         <v>5</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D455" s="1">
         <v>0.5645</v>
       </c>
-      <c r="E455" s="1" t="s">
-        <v>9</v>
+      <c r="E455" s="2">
+        <v>2.3668724271553567</v>
       </c>
     </row>
     <row r="456" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8252,13 +8257,13 @@
         <v>5</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D456" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="E456" s="1" t="s">
-        <v>9</v>
+      <c r="E456" s="2">
+        <v>3.2302394350656436</v>
       </c>
     </row>
     <row r="457" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8269,13 +8274,13 @@
         <v>5</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D457" s="1">
         <v>0.15429999999999999</v>
       </c>
-      <c r="E457" s="1" t="s">
-        <v>9</v>
+      <c r="E457" s="2">
+        <v>2.2436583137775807</v>
       </c>
     </row>
     <row r="458" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8286,13 +8291,13 @@
         <v>7</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D458" s="1">
         <v>0.3256</v>
       </c>
-      <c r="E458" s="1" t="s">
-        <v>9</v>
+      <c r="E458" s="2">
+        <v>2.4942599482471897</v>
       </c>
     </row>
     <row r="459" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8303,13 +8308,13 @@
         <v>5</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D459" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E459" s="1" t="s">
-        <v>10</v>
+      <c r="E459" s="2">
+        <v>2.5636271191411848</v>
       </c>
     </row>
     <row r="460" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8320,13 +8325,13 @@
         <v>5</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D460" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E460" s="1" t="s">
-        <v>9</v>
+      <c r="E460" s="2">
+        <v>3.031895959156357</v>
       </c>
     </row>
     <row r="461" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8337,13 +8342,13 @@
         <v>5</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D461" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E461" s="1" t="s">
-        <v>9</v>
+      <c r="E461" s="2">
+        <v>2.2039915283892046</v>
       </c>
     </row>
     <row r="462" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8351,16 +8356,16 @@
         <v>8</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D462" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E462" s="1" t="s">
-        <v>9</v>
+      <c r="E462" s="2">
+        <v>2.9824201734848543</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8368,16 +8373,16 @@
         <v>8</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D463" s="1">
         <v>0.79890000000000005</v>
       </c>
-      <c r="E463" s="1" t="s">
-        <v>9</v>
+      <c r="E463" s="2">
+        <v>3.358502488335342</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8385,16 +8390,16 @@
         <v>8</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D464" s="1">
         <v>0.2356</v>
       </c>
-      <c r="E464" s="1" t="s">
-        <v>9</v>
+      <c r="E464" s="2">
+        <v>2.2793578533084564</v>
       </c>
     </row>
     <row r="465" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8402,16 +8407,16 @@
         <v>8</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D465" s="1">
         <v>0.75490000000000002</v>
       </c>
-      <c r="E465" s="1" t="s">
-        <v>12</v>
+      <c r="E465" s="2">
+        <v>2.2914726412415343</v>
       </c>
     </row>
     <row r="466" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8419,16 +8424,16 @@
         <v>4</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D466" s="1">
         <v>0.58989999999999998</v>
       </c>
-      <c r="E466" s="1" t="s">
-        <v>12</v>
+      <c r="E466" s="2">
+        <v>3.1851958849452879</v>
       </c>
     </row>
     <row r="467" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8436,16 +8441,16 @@
         <v>4</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D467" s="1">
         <v>0.26889999999999997</v>
       </c>
-      <c r="E467" s="1" t="s">
-        <v>12</v>
+      <c r="E467" s="2">
+        <v>3.0110135786205703</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8453,16 +8458,16 @@
         <v>8</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D468" s="1">
         <v>0.5645</v>
       </c>
-      <c r="E468" s="1" t="s">
-        <v>10</v>
+      <c r="E468" s="2">
+        <v>2.5871096213114697</v>
       </c>
     </row>
     <row r="469" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8473,13 +8478,13 @@
         <v>2</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D469" s="1">
         <v>0.83450000000000002</v>
       </c>
-      <c r="E469" s="1" t="s">
-        <v>9</v>
+      <c r="E469" s="2">
+        <v>3.3646650454792209</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8490,13 +8495,13 @@
         <v>2</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D470" s="1">
         <v>0.83450000000000002</v>
       </c>
-      <c r="E470" s="1" t="s">
-        <v>9</v>
+      <c r="E470" s="2">
+        <v>2.8956089232864501</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8507,13 +8512,13 @@
         <v>6</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D471" s="1">
         <v>0.83450000000000002</v>
       </c>
-      <c r="E471" s="1" t="s">
-        <v>10</v>
+      <c r="E471" s="2">
+        <v>2.9997063542546343</v>
       </c>
     </row>
     <row r="472" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8524,13 +8529,13 @@
         <v>3</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D472" s="1">
         <v>0.83450000000000002</v>
       </c>
-      <c r="E472" s="1" t="s">
-        <v>10</v>
+      <c r="E472" s="2">
+        <v>2.9854112313091417</v>
       </c>
     </row>
     <row r="473" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8541,13 +8546,13 @@
         <v>2</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D473" s="1">
         <v>1.1055999999999999</v>
       </c>
-      <c r="E473" s="1" t="s">
-        <v>9</v>
+      <c r="E473" s="2">
+        <v>3.3821302008357432</v>
       </c>
     </row>
     <row r="474" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8558,13 +8563,13 @@
         <v>2</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D474" s="1">
         <v>1.1055999999999999</v>
       </c>
-      <c r="E474" s="1" t="s">
-        <v>10</v>
+      <c r="E474" s="2">
+        <v>2.9895027879143554</v>
       </c>
     </row>
     <row r="475" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8575,13 +8580,13 @@
         <v>2</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D475" s="1">
         <v>1.1055999999999999</v>
       </c>
-      <c r="E475" s="1" t="s">
-        <v>10</v>
+      <c r="E475" s="2">
+        <v>3.5914002368612485</v>
       </c>
     </row>
     <row r="476" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8592,13 +8597,13 @@
         <v>7</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D476" s="1">
         <v>1.1055999999999999</v>
       </c>
-      <c r="E476" s="1" t="s">
-        <v>10</v>
+      <c r="E476" s="2">
+        <v>3.1781536024033574</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8609,13 +8614,13 @@
         <v>1</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D477" s="1">
         <v>0.23949999999999999</v>
       </c>
-      <c r="E477" s="1" t="s">
-        <v>9</v>
+      <c r="E477" s="2">
+        <v>2.2142558786794178</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8626,13 +8631,13 @@
         <v>2</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D478" s="1">
         <v>0.56340000000000001</v>
       </c>
-      <c r="E478" s="1" t="s">
-        <v>9</v>
+      <c r="E478" s="2">
+        <v>2.3107772915474953</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8643,13 +8648,13 @@
         <v>1</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D479" s="1">
         <v>0.23949999999999999</v>
       </c>
-      <c r="E479" s="1" t="s">
-        <v>9</v>
+      <c r="E479" s="2">
+        <v>2.6225391530328874</v>
       </c>
     </row>
     <row r="480" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8660,13 +8665,13 @@
         <v>3</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D480" s="1">
         <v>0.56340000000000001</v>
       </c>
-      <c r="E480" s="1" t="s">
-        <v>9</v>
+      <c r="E480" s="2">
+        <v>2.9263278424500858</v>
       </c>
     </row>
     <row r="481" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8677,13 +8682,13 @@
         <v>1</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D481" s="1">
         <v>0.27750000000000002</v>
       </c>
-      <c r="E481" s="1" t="s">
-        <v>9</v>
+      <c r="E481" s="2">
+        <v>2.9009810502264894</v>
       </c>
     </row>
     <row r="482" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8694,13 +8699,13 @@
         <v>1</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D482" s="1">
         <v>1.2395</v>
       </c>
-      <c r="E482" s="1" t="s">
-        <v>9</v>
+      <c r="E482" s="2">
+        <v>2.6966301934257437</v>
       </c>
     </row>
     <row r="483" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8711,13 +8716,13 @@
         <v>2</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D483" s="1">
         <v>0.56340000000000001</v>
       </c>
-      <c r="E483" s="1" t="s">
-        <v>9</v>
+      <c r="E483" s="2">
+        <v>2.4594771030106495</v>
       </c>
     </row>
     <row r="484" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8728,13 +8733,13 @@
         <v>5</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D484" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E484" s="1" t="s">
-        <v>9</v>
+      <c r="E484" s="2">
+        <v>2.9553337815753973</v>
       </c>
     </row>
     <row r="485" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8745,13 +8750,13 @@
         <v>1</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D485" s="1">
         <v>0.23949999999999999</v>
       </c>
-      <c r="E485" s="1" t="s">
-        <v>9</v>
+      <c r="E485" s="2">
+        <v>2.9584989958837022</v>
       </c>
     </row>
     <row r="486" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8762,13 +8767,13 @@
         <v>1</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D486" s="1">
         <v>0.23949999999999999</v>
       </c>
-      <c r="E486" s="1" t="s">
-        <v>9</v>
+      <c r="E486" s="2">
+        <v>3.162631288942253</v>
       </c>
     </row>
     <row r="487" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8779,13 +8784,13 @@
         <v>2</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D487" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E487" s="1" t="s">
-        <v>9</v>
+      <c r="E487" s="2">
+        <v>3.0279691181823218</v>
       </c>
     </row>
     <row r="488" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8796,13 +8801,13 @@
         <v>6</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D488" s="1">
         <v>0.56340000000000001</v>
       </c>
-      <c r="E488" s="1" t="s">
-        <v>9</v>
+      <c r="E488" s="2">
+        <v>2.8054981676796205</v>
       </c>
     </row>
     <row r="489" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8813,13 +8818,13 @@
         <v>5</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D489" s="1">
         <v>0.56340000000000001</v>
       </c>
-      <c r="E489" s="1" t="s">
-        <v>9</v>
+      <c r="E489" s="2">
+        <v>2.5606567828846245</v>
       </c>
     </row>
     <row r="490" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8830,13 +8835,13 @@
         <v>2</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D490" s="1">
         <v>0.56340000000000001</v>
       </c>
-      <c r="E490" s="1" t="s">
-        <v>9</v>
+      <c r="E490" s="2">
+        <v>2.9576639837313943</v>
       </c>
     </row>
     <row r="491" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8847,13 +8852,13 @@
         <v>3</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D491" s="1">
         <v>0.76449999999999996</v>
       </c>
-      <c r="E491" s="1" t="s">
-        <v>9</v>
+      <c r="E491" s="2">
+        <v>2.6218292122447457</v>
       </c>
     </row>
     <row r="492" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8864,13 +8869,13 @@
         <v>6</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D492" s="1">
         <v>0.45669999999999999</v>
       </c>
-      <c r="E492" s="1" t="s">
-        <v>9</v>
+      <c r="E492" s="2">
+        <v>2.6386167008459029</v>
       </c>
     </row>
     <row r="493" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8881,13 +8886,13 @@
         <v>5</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D493" s="1">
         <v>0.1234</v>
       </c>
-      <c r="E493" s="1" t="s">
-        <v>9</v>
+      <c r="E493" s="2">
+        <v>2.2832407659683085</v>
       </c>
     </row>
     <row r="494" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8898,13 +8903,13 @@
         <v>1</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D494" s="1">
         <v>0.23949999999999999</v>
       </c>
-      <c r="E494" s="1" t="s">
-        <v>9</v>
+      <c r="E494" s="2">
+        <v>3.0019751718539753</v>
       </c>
     </row>
     <row r="495" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8915,13 +8920,13 @@
         <v>3</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D495" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E495" s="1" t="s">
-        <v>9</v>
+      <c r="E495" s="2">
+        <v>2.593683155696886</v>
       </c>
     </row>
     <row r="496" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8932,13 +8937,13 @@
         <v>5</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D496" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E496" s="1" t="s">
-        <v>9</v>
+      <c r="E496" s="2">
+        <v>2.3222545205681149</v>
       </c>
     </row>
     <row r="497" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8949,13 +8954,13 @@
         <v>5</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D497" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="E497" s="1" t="s">
-        <v>9</v>
+      <c r="E497" s="2">
+        <v>2.3945241019152315</v>
       </c>
     </row>
     <row r="498" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8966,13 +8971,13 @@
         <v>2</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D498" s="1">
         <v>0.25779999999999997</v>
       </c>
-      <c r="E498" s="1" t="s">
-        <v>9</v>
+      <c r="E498" s="2">
+        <v>2.4237525413863992</v>
       </c>
     </row>
     <row r="499" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8983,13 +8988,13 @@
         <v>5</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D499" s="1">
         <v>0.54210000000000003</v>
       </c>
-      <c r="E499" s="1" t="s">
-        <v>9</v>
+      <c r="E499" s="2">
+        <v>3.137265296103199</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9000,13 +9005,13 @@
         <v>7</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D500" s="1">
         <v>0.25390000000000001</v>
       </c>
-      <c r="E500" s="1" t="s">
-        <v>12</v>
+      <c r="E500" s="2">
+        <v>2.638229626996929</v>
       </c>
     </row>
     <row r="501" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9017,13 +9022,13 @@
         <v>2</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D501" s="1">
         <v>0.25990000000000002</v>
       </c>
-      <c r="E501" s="1" t="s">
-        <v>12</v>
+      <c r="E501" s="2">
+        <v>3.1491641706717344</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9034,13 +9039,13 @@
         <v>5</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D502" s="1">
         <v>0.2959</v>
       </c>
-      <c r="E502" s="1" t="s">
-        <v>12</v>
+      <c r="E502" s="2">
+        <v>2.7621166582162644</v>
       </c>
     </row>
     <row r="503" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9051,13 +9056,13 @@
         <v>5</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D503" s="1">
         <v>0.75019999999999998</v>
       </c>
-      <c r="E503" s="1" t="s">
-        <v>9</v>
+      <c r="E503" s="2">
+        <v>2.5272285399151544</v>
       </c>
     </row>
     <row r="504" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9068,13 +9073,13 @@
         <v>5</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D504" s="1">
         <v>0.75019999999999998</v>
       </c>
-      <c r="E504" s="1" t="s">
-        <v>9</v>
+      <c r="E504" s="2">
+        <v>3.1184328415655793</v>
       </c>
     </row>
     <row r="505" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9085,13 +9090,13 @@
         <v>5</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D505" s="1">
         <v>0.75019999999999998</v>
       </c>
-      <c r="E505" s="1" t="s">
-        <v>9</v>
+      <c r="E505" s="2">
+        <v>2.3379735090496654</v>
       </c>
     </row>
   </sheetData>

--- a/Kusal_Data_Set.xlsx
+++ b/Kusal_Data_Set.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Educational\Project\course-finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981E91C6-B33C-4A73-92AB-86934A72A1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF26782-A35C-4DCD-A8E6-CDC4CC4A8631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -62,12 +49,6 @@
     <t>NIBM</t>
   </si>
   <si>
-    <t>A/L Stream</t>
-  </si>
-  <si>
-    <t>z-Core</t>
-  </si>
-  <si>
     <t>Interactive Media</t>
   </si>
   <si>
@@ -89,10 +70,16 @@
     <t>University</t>
   </si>
   <si>
-    <t>pecialization (Only for IT graduates/undergraduates)</t>
+    <t>Specialization</t>
   </si>
   <si>
-    <t>What is your GPA if you are a graduating student?2</t>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>z_core</t>
+  </si>
+  <si>
+    <t>gpa</t>
   </si>
 </sst>
 </file>
@@ -110,6 +97,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -280,10 +268,10 @@
   <autoFilter ref="A1:E505" xr:uid="{27FC18F2-0095-44BA-9648-5E164EC0F77C}"/>
   <tableColumns count="5">
     <tableColumn id="4" xr3:uid="{C6F9AF65-CB48-4EC0-8B2A-27E7557C6A9A}" name="University" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{CF60D45D-BC7C-454C-98E5-0B0224AFDB10}" name="pecialization (Only for IT graduates/undergraduates)" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{9BA60FD3-7668-4F38-A83E-9F348453F55F}" name="A/L Stream" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{EA650479-C2CA-49E4-91FF-C5B96D9C7FE9}" name="z-Core" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{CFAECDC8-3225-44A5-B437-B09164EA94CB}" name="What is your GPA if you are a graduating student?2" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{CF60D45D-BC7C-454C-98E5-0B0224AFDB10}" name="Specialization" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{9BA60FD3-7668-4F38-A83E-9F348453F55F}" name="Stream" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{EA650479-C2CA-49E4-91FF-C5B96D9C7FE9}" name="z_core" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CFAECDC8-3225-44A5-B437-B09164EA94CB}" name="gpa" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -492,7 +480,7 @@
   </sheetPr>
   <dimension ref="A1:E505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
@@ -516,16 +504,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>19</v>
@@ -539,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>0.46779999999999999</v>
@@ -556,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>0.92320000000000002</v>
@@ -573,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>0.46779999999999999</v>
@@ -590,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>0.92320000000000002</v>
@@ -607,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>1.0678000000000001</v>
@@ -624,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
         <v>0.23139999999999999</v>
@@ -641,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>0.92320000000000002</v>
@@ -658,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1">
         <v>0.92320000000000002</v>
@@ -675,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1">
         <v>0.64559999999999995</v>
@@ -692,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1">
         <v>0.1241</v>
@@ -709,7 +697,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1">
         <v>0.92320000000000002</v>
@@ -726,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
         <v>0.92320000000000002</v>
@@ -743,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <v>0.92320000000000002</v>
@@ -760,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1">
         <v>0.92320000000000002</v>
@@ -777,7 +765,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1">
         <v>0.63560000000000005</v>
@@ -794,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1">
         <v>0.63560000000000005</v>
@@ -811,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1">
         <v>0.63560000000000005</v>
@@ -828,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1">
         <v>1.1241000000000001</v>
@@ -845,7 +833,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1">
         <v>0.1241</v>
@@ -862,7 +850,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
         <v>0.63560000000000005</v>
@@ -879,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>0.59230000000000005</v>
@@ -896,7 +884,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1">
         <v>0.65669999999999995</v>
@@ -913,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1">
         <v>0.63560000000000005</v>
@@ -930,7 +918,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1">
         <v>0.63560000000000005</v>
@@ -947,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1">
         <v>0.77949999999999997</v>
@@ -964,7 +952,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1">
         <v>0.77949999999999997</v>
@@ -981,7 +969,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
         <v>0.63560000000000005</v>
@@ -998,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>0.84560000000000002</v>
@@ -1015,7 +1003,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" s="1">
         <v>0.84560000000000002</v>
@@ -1032,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1">
         <v>0.77949999999999997</v>
@@ -1049,7 +1037,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1">
         <v>0.5323</v>
@@ -1066,7 +1054,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1">
         <v>0.5323</v>
@@ -1083,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1">
         <v>0.5323</v>
@@ -1100,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" s="1">
         <v>0.5323</v>
@@ -1117,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1">
         <v>0.5323</v>
@@ -1134,7 +1122,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" s="1">
         <v>0.5323</v>
@@ -1151,7 +1139,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1">
         <v>0.23449999999999999</v>
@@ -1168,7 +1156,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1">
         <v>0.84560000000000002</v>
@@ -1185,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D40" s="1">
         <v>0.23449999999999999</v>
@@ -1202,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41" s="1">
         <v>0.23949999999999999</v>
@@ -1219,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1">
         <v>0.23949999999999999</v>
@@ -1236,7 +1224,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1">
         <v>0.84560000000000002</v>
@@ -1253,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1">
         <v>0.84560000000000002</v>
@@ -1270,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D45" s="1">
         <v>0.23449999999999999</v>
@@ -1287,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D46" s="1">
         <v>0.23449999999999999</v>
@@ -1304,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D47" s="1">
         <v>0.23449999999999999</v>
@@ -1321,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D48" s="1">
         <v>0.23449999999999999</v>
@@ -1338,7 +1326,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D49" s="1">
         <v>0.84560000000000002</v>
@@ -1355,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D50" s="1">
         <v>0.23949999999999999</v>
@@ -1372,7 +1360,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1">
         <v>0.84560000000000002</v>
@@ -1389,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D52" s="1">
         <v>0.23449999999999999</v>
@@ -1406,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D53" s="1">
         <v>0.23449999999999999</v>
@@ -1423,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D54" s="1">
         <v>0.23449999999999999</v>
@@ -1440,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D55" s="1">
         <v>0.23949999999999999</v>
@@ -1457,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D56" s="1">
         <v>0.65429999999999999</v>
@@ -1474,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D57" s="1">
         <v>1.3867</v>
@@ -1491,7 +1479,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D58" s="1">
         <v>0.84560000000000002</v>
@@ -1508,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1">
         <v>0.23449999999999999</v>
@@ -1525,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D60" s="1">
         <v>0.23449999999999999</v>
@@ -1542,7 +1530,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D61" s="1">
         <v>1.0056</v>
@@ -1559,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D62" s="1">
         <v>0.23449999999999999</v>
@@ -1576,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D63" s="1">
         <v>0.23449999999999999</v>
@@ -1593,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D64" s="1">
         <v>0.23449999999999999</v>
@@ -1610,7 +1598,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D65" s="1">
         <v>0.23449999999999999</v>
@@ -1627,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D66" s="1">
         <v>0.23449999999999999</v>
@@ -1644,7 +1632,7 @@
         <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D67" s="1">
         <v>0.23449999999999999</v>
@@ -1661,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D68" s="1">
         <v>0.23449999999999999</v>
@@ -1678,7 +1666,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D69" s="1">
         <v>0.23449999999999999</v>
@@ -1695,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D70" s="1">
         <v>0.23449999999999999</v>
@@ -1712,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D71" s="1">
         <v>0.23449999999999999</v>
@@ -1729,7 +1717,7 @@
         <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D72" s="1">
         <v>0.23449999999999999</v>
@@ -1746,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D73" s="1">
         <v>0.23449999999999999</v>
@@ -1763,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D74" s="1">
         <v>0.84560000000000002</v>
@@ -1780,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D75" s="1">
         <v>0.84560000000000002</v>
@@ -1797,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D76" s="1">
         <v>0.84560000000000002</v>
@@ -1814,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D77" s="1">
         <v>0.84560000000000002</v>
@@ -1831,7 +1819,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D78" s="1">
         <v>1.1023000000000001</v>
@@ -1848,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D79" s="1">
         <v>1.1023000000000001</v>
@@ -1865,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D80" s="1">
         <v>1.1023000000000001</v>
@@ -1882,7 +1870,7 @@
         <v>3</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D81" s="1">
         <v>1.1023000000000001</v>
@@ -1899,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D82" s="1">
         <v>0.23449999999999999</v>
@@ -1916,7 +1904,7 @@
         <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D83" s="1">
         <v>1.1023000000000001</v>
@@ -1933,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D84" s="1">
         <v>1.1023000000000001</v>
@@ -1950,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D85" s="1">
         <v>1.1023000000000001</v>
@@ -1967,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D86" s="1">
         <v>1.0032000000000001</v>
@@ -1984,7 +1972,7 @@
         <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D87" s="1">
         <v>1.0032000000000001</v>
@@ -2001,7 +1989,7 @@
         <v>7</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D88" s="1">
         <v>1.0032000000000001</v>
@@ -2018,7 +2006,7 @@
         <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D89" s="1">
         <v>1.0032000000000001</v>
@@ -2035,7 +2023,7 @@
         <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D90" s="1">
         <v>1.0032000000000001</v>
@@ -2052,7 +2040,7 @@
         <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D91" s="1">
         <v>1.0032000000000001</v>
@@ -2069,7 +2057,7 @@
         <v>7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D92" s="1">
         <v>0.74350000000000005</v>
@@ -2086,7 +2074,7 @@
         <v>7</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D93" s="1">
         <v>0.74350000000000005</v>
@@ -2103,7 +2091,7 @@
         <v>7</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D94" s="1">
         <v>0.74350000000000005</v>
@@ -2120,7 +2108,7 @@
         <v>7</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D95" s="1">
         <v>0.74350000000000005</v>
@@ -2137,7 +2125,7 @@
         <v>7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D96" s="1">
         <v>0.74350000000000005</v>
@@ -2154,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D97" s="1">
         <v>0.74350000000000005</v>
@@ -2171,7 +2159,7 @@
         <v>7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D98" s="1">
         <v>0.74350000000000005</v>
@@ -2188,7 +2176,7 @@
         <v>7</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D99" s="1">
         <v>0.74350000000000005</v>
@@ -2205,7 +2193,7 @@
         <v>7</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D100" s="1">
         <v>0.74350000000000005</v>
@@ -2222,7 +2210,7 @@
         <v>7</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D101" s="1">
         <v>0.87690000000000001</v>
@@ -2239,7 +2227,7 @@
         <v>7</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D102" s="1">
         <v>0.87690000000000001</v>
@@ -2256,7 +2244,7 @@
         <v>6</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D103" s="1">
         <v>0.87690000000000001</v>
@@ -2273,7 +2261,7 @@
         <v>7</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D104" s="1">
         <v>0.87690000000000001</v>
@@ -2290,7 +2278,7 @@
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D105" s="1">
         <v>1.0156000000000001</v>
@@ -2307,7 +2295,7 @@
         <v>7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D106" s="1">
         <v>0.87949999999999995</v>
@@ -2324,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D107" s="1">
         <v>0.87690000000000001</v>
@@ -2341,7 +2329,7 @@
         <v>7</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D108" s="1">
         <v>0.12839999999999999</v>
@@ -2358,7 +2346,7 @@
         <v>7</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D109" s="1">
         <v>0.67889999999999995</v>
@@ -2375,7 +2363,7 @@
         <v>7</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D110" s="1">
         <v>0.92559999999999998</v>
@@ -2392,7 +2380,7 @@
         <v>7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D111" s="1">
         <v>0.14319999999999999</v>
@@ -2409,7 +2397,7 @@
         <v>5</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D112" s="1">
         <v>0.54669999999999996</v>
@@ -2426,7 +2414,7 @@
         <v>7</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D113" s="1">
         <v>0.54669999999999996</v>
@@ -2443,7 +2431,7 @@
         <v>7</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D114" s="1">
         <v>0.76890000000000003</v>
@@ -2460,7 +2448,7 @@
         <v>7</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D115" s="1">
         <v>0.87690000000000001</v>
@@ -2477,7 +2465,7 @@
         <v>7</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D116" s="1">
         <v>0.98670000000000002</v>
@@ -2494,7 +2482,7 @@
         <v>7</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D117" s="1">
         <v>0.98670000000000002</v>
@@ -2511,7 +2499,7 @@
         <v>7</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D118" s="1">
         <v>0.98670000000000002</v>
@@ -2528,7 +2516,7 @@
         <v>7</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D119" s="1">
         <v>0.98670000000000002</v>
@@ -2545,7 +2533,7 @@
         <v>7</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D120" s="1">
         <v>0.98670000000000002</v>
@@ -2562,7 +2550,7 @@
         <v>2</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D121" s="1">
         <v>0.98670000000000002</v>
@@ -2579,7 +2567,7 @@
         <v>6</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D122" s="1">
         <v>0.98670000000000002</v>
@@ -2596,7 +2584,7 @@
         <v>3</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D123" s="1">
         <v>0.98670000000000002</v>
@@ -2613,7 +2601,7 @@
         <v>5</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D124" s="1">
         <v>0.78949999999999998</v>
@@ -2630,7 +2618,7 @@
         <v>5</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D125" s="1">
         <v>0.78949999999999998</v>
@@ -2647,7 +2635,7 @@
         <v>5</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D126" s="1">
         <v>1.2364999999999999</v>
@@ -2664,7 +2652,7 @@
         <v>3</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D127" s="1">
         <v>0.98670000000000002</v>
@@ -2681,7 +2669,7 @@
         <v>3</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D128" s="1">
         <v>0.98670000000000002</v>
@@ -2698,7 +2686,7 @@
         <v>7</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D129" s="1">
         <v>0.98670000000000002</v>
@@ -2715,7 +2703,7 @@
         <v>7</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D130" s="1">
         <v>0.98670000000000002</v>
@@ -2732,7 +2720,7 @@
         <v>7</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D131" s="1">
         <v>0.98670000000000002</v>
@@ -2749,7 +2737,7 @@
         <v>7</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D132" s="1">
         <v>0.98670000000000002</v>
@@ -2766,7 +2754,7 @@
         <v>7</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D133" s="1">
         <v>0.98670000000000002</v>
@@ -2783,7 +2771,7 @@
         <v>7</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D134" s="1">
         <v>0.98670000000000002</v>
@@ -2800,7 +2788,7 @@
         <v>7</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D135" s="1">
         <v>0.98670000000000002</v>
@@ -2817,7 +2805,7 @@
         <v>7</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D136" s="1">
         <v>0.98670000000000002</v>
@@ -2834,7 +2822,7 @@
         <v>7</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D137" s="1">
         <v>0.98670000000000002</v>
@@ -2851,7 +2839,7 @@
         <v>7</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D138" s="1">
         <v>0.98670000000000002</v>
@@ -2868,7 +2856,7 @@
         <v>7</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D139" s="1">
         <v>0.98670000000000002</v>
@@ -2885,7 +2873,7 @@
         <v>7</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D140" s="1">
         <v>0.98670000000000002</v>
@@ -2902,7 +2890,7 @@
         <v>7</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D141" s="1">
         <v>0.94530000000000003</v>
@@ -2919,7 +2907,7 @@
         <v>3</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D142" s="1">
         <v>0.14649999999999999</v>
@@ -2936,7 +2924,7 @@
         <v>3</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D143" s="1">
         <v>0.23449999999999999</v>
@@ -2953,7 +2941,7 @@
         <v>2</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D144" s="1">
         <v>0.94530000000000003</v>
@@ -2970,7 +2958,7 @@
         <v>2</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D145" s="1">
         <v>0.94530000000000003</v>
@@ -2987,7 +2975,7 @@
         <v>3</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D146" s="1">
         <v>0.23150000000000001</v>
@@ -3004,7 +2992,7 @@
         <v>3</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D147" s="1">
         <v>0.23549999999999999</v>
@@ -3021,7 +3009,7 @@
         <v>7</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D148" s="1">
         <v>0.94530000000000003</v>
@@ -3038,7 +3026,7 @@
         <v>3</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D149" s="1">
         <v>0.23749999999999999</v>
@@ -3055,7 +3043,7 @@
         <v>7</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D150" s="1">
         <v>0.94530000000000003</v>
@@ -3072,7 +3060,7 @@
         <v>7</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D151" s="1">
         <v>0.94530000000000003</v>
@@ -3089,7 +3077,7 @@
         <v>3</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D152" s="1">
         <v>0.23050000000000001</v>
@@ -3106,7 +3094,7 @@
         <v>7</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D153" s="1">
         <v>0.94530000000000003</v>
@@ -3123,7 +3111,7 @@
         <v>7</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D154" s="1">
         <v>0.94530000000000003</v>
@@ -3140,7 +3128,7 @@
         <v>7</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D155" s="1">
         <v>0.94530000000000003</v>
@@ -3157,7 +3145,7 @@
         <v>7</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D156" s="1">
         <v>0.94530000000000003</v>
@@ -3174,7 +3162,7 @@
         <v>7</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D157" s="1">
         <v>0.94530000000000003</v>
@@ -3191,7 +3179,7 @@
         <v>7</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D158" s="1">
         <v>0.94530000000000003</v>
@@ -3208,7 +3196,7 @@
         <v>7</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D159" s="1">
         <v>0.91979999999999995</v>
@@ -3225,7 +3213,7 @@
         <v>7</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D160" s="1">
         <v>0.54100000000000004</v>
@@ -3242,7 +3230,7 @@
         <v>2</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D161" s="1">
         <v>0.92879999999999996</v>
@@ -3259,7 +3247,7 @@
         <v>6</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D162" s="1">
         <v>0.94530000000000003</v>
@@ -3276,7 +3264,7 @@
         <v>3</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D163" s="1">
         <v>0.23139999999999999</v>
@@ -3293,7 +3281,7 @@
         <v>5</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D164" s="1">
         <v>0.54210000000000003</v>
@@ -3310,7 +3298,7 @@
         <v>5</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D165" s="1">
         <v>0.95879999999999999</v>
@@ -3327,7 +3315,7 @@
         <v>5</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D166" s="1">
         <v>0.23449999999999999</v>
@@ -3344,7 +3332,7 @@
         <v>3</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D167" s="1">
         <v>0.94530000000000003</v>
@@ -3361,7 +3349,7 @@
         <v>3</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D168" s="1">
         <v>0.94530000000000003</v>
@@ -3378,7 +3366,7 @@
         <v>7</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D169" s="1">
         <v>0.51880000000000004</v>
@@ -3395,7 +3383,7 @@
         <v>7</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D170" s="1">
         <v>0.65890000000000004</v>
@@ -3412,7 +3400,7 @@
         <v>7</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D171" s="1">
         <v>0.85640000000000005</v>
@@ -3429,7 +3417,7 @@
         <v>7</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D172" s="1">
         <v>0.78449999999999998</v>
@@ -3446,7 +3434,7 @@
         <v>3</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D173" s="1">
         <v>0.78049999999999997</v>
@@ -3463,7 +3451,7 @@
         <v>7</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D174" s="1">
         <v>0.6754</v>
@@ -3480,7 +3468,7 @@
         <v>7</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D175" s="1">
         <v>0.91990000000000005</v>
@@ -3497,7 +3485,7 @@
         <v>7</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D176" s="1">
         <v>0.94530000000000003</v>
@@ -3514,7 +3502,7 @@
         <v>3</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D177" s="1">
         <v>0.94530000000000003</v>
@@ -3531,7 +3519,7 @@
         <v>7</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D178" s="1">
         <v>0.87560000000000004</v>
@@ -3548,7 +3536,7 @@
         <v>7</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D179" s="1">
         <v>0.87560000000000004</v>
@@ -3565,7 +3553,7 @@
         <v>7</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D180" s="1">
         <v>0.87560000000000004</v>
@@ -3582,7 +3570,7 @@
         <v>7</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D181" s="1">
         <v>0.87560000000000004</v>
@@ -3599,7 +3587,7 @@
         <v>2</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D182" s="1">
         <v>0.91080000000000005</v>
@@ -3616,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D183" s="1">
         <v>1.2395</v>
@@ -3633,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D184" s="1">
         <v>0.32450000000000001</v>
@@ -3650,7 +3638,7 @@
         <v>2</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D185" s="1">
         <v>0.90880000000000005</v>
@@ -3667,7 +3655,7 @@
         <v>6</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D186" s="1">
         <v>0.87560000000000004</v>
@@ -3684,7 +3672,7 @@
         <v>3</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D187" s="1">
         <v>0.23449999999999999</v>
@@ -3701,7 +3689,7 @@
         <v>2</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D188" s="1">
         <v>0.90580000000000005</v>
@@ -3718,7 +3706,7 @@
         <v>2</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D189" s="1">
         <v>0.90280000000000005</v>
@@ -3735,7 +3723,7 @@
         <v>2</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D190" s="1">
         <v>0.91879999999999995</v>
@@ -3752,7 +3740,7 @@
         <v>7</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D191" s="1">
         <v>0.87560000000000004</v>
@@ -3769,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D192" s="1">
         <v>1.2395</v>
@@ -3786,7 +3774,7 @@
         <v>2</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D193" s="1">
         <v>0.87560000000000004</v>
@@ -3803,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D194" s="1">
         <v>0.23949999999999999</v>
@@ -3820,7 +3808,7 @@
         <v>3</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D195" s="1">
         <v>0.87560000000000004</v>
@@ -3837,7 +3825,7 @@
         <v>1</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D196" s="1">
         <v>0.87560000000000004</v>
@@ -3854,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D197" s="1">
         <v>0.14560000000000001</v>
@@ -3871,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D198" s="1">
         <v>0.87560000000000004</v>
@@ -3888,7 +3876,7 @@
         <v>5</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D199" s="1">
         <v>0.76890000000000003</v>
@@ -3905,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D200" s="1">
         <v>0.14560000000000001</v>
@@ -3922,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D201" s="1">
         <v>0.46779999999999999</v>
@@ -3939,7 +3927,7 @@
         <v>2</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D202" s="1">
         <v>0.87560000000000004</v>
@@ -3956,7 +3944,7 @@
         <v>6</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D203" s="1">
         <v>0.7893</v>
@@ -3973,7 +3961,7 @@
         <v>5</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D204" s="1">
         <v>0.34560000000000002</v>
@@ -3990,7 +3978,7 @@
         <v>2</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D205" s="1">
         <v>0.7893</v>
@@ -4007,7 +3995,7 @@
         <v>3</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D206" s="1">
         <v>0.7893</v>
@@ -4024,7 +4012,7 @@
         <v>6</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D207" s="1">
         <v>0.7893</v>
@@ -4041,7 +4029,7 @@
         <v>5</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D208" s="1">
         <v>0.24560000000000001</v>
@@ -4058,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D209" s="1">
         <v>0.32450000000000001</v>
@@ -4075,7 +4063,7 @@
         <v>3</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D210" s="1">
         <v>0.7893</v>
@@ -4092,7 +4080,7 @@
         <v>5</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D211" s="1">
         <v>0.13239999999999999</v>
@@ -4109,7 +4097,7 @@
         <v>5</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D212" s="1">
         <v>0.23139999999999999</v>
@@ -4126,7 +4114,7 @@
         <v>2</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D213" s="1">
         <v>0.7893</v>
@@ -4143,7 +4131,7 @@
         <v>5</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D214" s="1">
         <v>0.23139999999999999</v>
@@ -4160,7 +4148,7 @@
         <v>7</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D215" s="1">
         <v>0.7893</v>
@@ -4177,7 +4165,7 @@
         <v>2</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D216" s="1">
         <v>0.7893</v>
@@ -4194,7 +4182,7 @@
         <v>5</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D217" s="1">
         <v>0.78539999999999999</v>
@@ -4211,7 +4199,7 @@
         <v>5</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D218" s="1">
         <v>0.78539999999999999</v>
@@ -4228,7 +4216,7 @@
         <v>5</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D219" s="1">
         <v>0.78539999999999999</v>
@@ -4245,7 +4233,7 @@
         <v>7</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D220" s="1">
         <v>0.78539999999999999</v>
@@ -4262,7 +4250,7 @@
         <v>5</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D221" s="1">
         <v>0.90800000000000003</v>
@@ -4279,7 +4267,7 @@
         <v>5</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D222" s="1">
         <v>0.90869999999999995</v>
@@ -4296,7 +4284,7 @@
         <v>5</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D223" s="1">
         <v>0.21560000000000001</v>
@@ -4310,10 +4298,10 @@
         <v>0</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D224" s="1">
         <v>0.23139999999999999</v>
@@ -4327,10 +4315,10 @@
         <v>0</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D225" s="1">
         <v>0.56430000000000002</v>
@@ -4344,10 +4332,10 @@
         <v>0</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D226" s="1">
         <v>0.56430000000000002</v>
@@ -4361,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D227" s="1">
         <v>0.4672</v>
@@ -4378,10 +4366,10 @@
         <v>0</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1">
         <v>0.23139999999999999</v>
@@ -4395,10 +4383,10 @@
         <v>0</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D229" s="1">
         <v>0.35670000000000002</v>
@@ -4412,10 +4400,10 @@
         <v>0</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D230" s="1">
         <v>0.23139999999999999</v>
@@ -4432,7 +4420,7 @@
         <v>2</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D231" s="1">
         <v>0.78539999999999999</v>
@@ -4446,10 +4434,10 @@
         <v>0</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D232" s="1">
         <v>0.1356</v>
@@ -4463,10 +4451,10 @@
         <v>0</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D233" s="1">
         <v>0.52339999999999998</v>
@@ -4480,10 +4468,10 @@
         <v>0</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D234" s="1">
         <v>7.6799999999999993E-2</v>
@@ -4497,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D235" s="1">
         <v>0.3453</v>
@@ -4514,10 +4502,10 @@
         <v>0</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D236" s="1">
         <v>0.3453</v>
@@ -4531,10 +4519,10 @@
         <v>0</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D237" s="1">
         <v>0.3453</v>
@@ -4548,10 +4536,10 @@
         <v>0</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D238" s="1">
         <v>0.3453</v>
@@ -4565,10 +4553,10 @@
         <v>0</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D239" s="1">
         <v>0.78539999999999999</v>
@@ -4585,7 +4573,7 @@
         <v>1</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D240" s="1">
         <v>0.1983</v>
@@ -4602,7 +4590,7 @@
         <v>2</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D241" s="1">
         <v>0.78539999999999999</v>
@@ -4619,7 +4607,7 @@
         <v>1</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D242" s="1">
         <v>0.1983</v>
@@ -4636,7 +4624,7 @@
         <v>3</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D243" s="1">
         <v>0.78539999999999999</v>
@@ -4653,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D244" s="1">
         <v>0.78539999999999999</v>
@@ -4670,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D245" s="1">
         <v>0.3453</v>
@@ -4687,7 +4675,7 @@
         <v>2</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D246" s="1">
         <v>0.78539999999999999</v>
@@ -4704,7 +4692,7 @@
         <v>5</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D247" s="1">
         <v>0.54369999999999996</v>
@@ -4721,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D248" s="1">
         <v>0.98560000000000003</v>
@@ -4738,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D249" s="1">
         <v>0.98560000000000003</v>
@@ -4755,7 +4743,7 @@
         <v>2</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D250" s="1">
         <v>0.78539999999999999</v>
@@ -4772,7 +4760,7 @@
         <v>6</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D251" s="1">
         <v>0.78539999999999999</v>
@@ -4789,7 +4777,7 @@
         <v>3</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D252" s="1">
         <v>0.78539999999999999</v>
@@ -4806,7 +4794,7 @@
         <v>2</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D253" s="1">
         <v>0.78539999999999999</v>
@@ -4823,7 +4811,7 @@
         <v>3</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D254" s="1">
         <v>0.78539999999999999</v>
@@ -4840,7 +4828,7 @@
         <v>6</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D255" s="1">
         <v>0.78539999999999999</v>
@@ -4857,7 +4845,7 @@
         <v>5</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D256" s="1">
         <v>0.98560000000000003</v>
@@ -4874,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D257" s="1">
         <v>0.12559999999999999</v>
@@ -4891,7 +4879,7 @@
         <v>3</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D258" s="1">
         <v>0.78539999999999999</v>
@@ -4908,7 +4896,7 @@
         <v>5</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D259" s="1">
         <v>0.43759999999999999</v>
@@ -4925,7 +4913,7 @@
         <v>3</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D260" s="1">
         <v>0.78539999999999999</v>
@@ -4942,7 +4930,7 @@
         <v>2</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D261" s="1">
         <v>0.78539999999999999</v>
@@ -4959,7 +4947,7 @@
         <v>5</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D262" s="1">
         <v>0.76890000000000003</v>
@@ -4976,7 +4964,7 @@
         <v>7</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D263" s="1">
         <v>0.34560000000000002</v>
@@ -4993,7 +4981,7 @@
         <v>2</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D264" s="1">
         <v>0.24560000000000001</v>
@@ -5010,7 +4998,7 @@
         <v>3</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D265" s="1">
         <v>0.13239999999999999</v>
@@ -5027,7 +5015,7 @@
         <v>5</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D266" s="1">
         <v>0.23139999999999999</v>
@@ -5044,7 +5032,7 @@
         <v>5</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D267" s="1">
         <v>0.23139999999999999</v>
@@ -5061,7 +5049,7 @@
         <v>7</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D268" s="1">
         <v>0.23139999999999999</v>
@@ -5078,7 +5066,7 @@
         <v>3</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D269" s="1">
         <v>0.23139999999999999</v>
@@ -5095,7 +5083,7 @@
         <v>6</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D270" s="1">
         <v>0.35670000000000002</v>
@@ -5112,7 +5100,7 @@
         <v>6</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D271" s="1">
         <v>0.23139999999999999</v>
@@ -5129,7 +5117,7 @@
         <v>2</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D272" s="1">
         <v>0.1356</v>
@@ -5146,7 +5134,7 @@
         <v>6</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D273" s="1">
         <v>7.6799999999999993E-2</v>
@@ -5163,7 +5151,7 @@
         <v>2</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D274" s="1">
         <v>0.3453</v>
@@ -5180,7 +5168,7 @@
         <v>3</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D275" s="1">
         <v>0.3453</v>
@@ -5197,7 +5185,7 @@
         <v>6</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D276" s="1">
         <v>0.3453</v>
@@ -5214,7 +5202,7 @@
         <v>5</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D277" s="1">
         <v>0.3453</v>
@@ -5231,7 +5219,7 @@
         <v>3</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D278" s="1">
         <v>0.3453</v>
@@ -5248,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D279" s="1">
         <v>0.54369999999999996</v>
@@ -5265,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D280" s="1">
         <v>0.98560000000000003</v>
@@ -5282,7 +5270,7 @@
         <v>5</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D281" s="1">
         <v>0.98560000000000003</v>
@@ -5299,7 +5287,7 @@
         <v>5</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D282" s="1">
         <v>0.98560000000000003</v>
@@ -5316,7 +5304,7 @@
         <v>2</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D283" s="1">
         <v>0.12559999999999999</v>
@@ -5333,7 +5321,7 @@
         <v>2</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D284" s="1">
         <v>0.43759999999999999</v>
@@ -5350,7 +5338,7 @@
         <v>2</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D285" s="1">
         <v>0.3256</v>
@@ -5367,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D286" s="1">
         <v>0.14560000000000001</v>
@@ -5384,7 +5372,7 @@
         <v>7</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D287" s="1">
         <v>0.78539999999999999</v>
@@ -5401,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D288" s="1">
         <v>0.23949999999999999</v>
@@ -5418,7 +5406,7 @@
         <v>5</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D289" s="1">
         <v>0.78539999999999999</v>
@@ -5435,7 +5423,7 @@
         <v>2</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D290" s="1">
         <v>1.0057</v>
@@ -5452,7 +5440,7 @@
         <v>2</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D291" s="1">
         <v>1.0057</v>
@@ -5469,7 +5457,7 @@
         <v>2</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D292" s="1">
         <v>1.0057</v>
@@ -5486,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D293" s="1">
         <v>0.23949999999999999</v>
@@ -5503,7 +5491,7 @@
         <v>5</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D294" s="1">
         <v>1.0057</v>
@@ -5520,7 +5508,7 @@
         <v>5</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D295" s="1">
         <v>1.0057</v>
@@ -5537,7 +5525,7 @@
         <v>7</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D296" s="1">
         <v>1.0057</v>
@@ -5554,7 +5542,7 @@
         <v>2</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D297" s="1">
         <v>1.0057</v>
@@ -5571,7 +5559,7 @@
         <v>3</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D298" s="1">
         <v>0.23449999999999999</v>
@@ -5588,7 +5576,7 @@
         <v>5</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D299" s="1">
         <v>1.0057</v>
@@ -5605,7 +5593,7 @@
         <v>2</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D300" s="1">
         <v>1.0057</v>
@@ -5622,7 +5610,7 @@
         <v>2</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D301" s="1">
         <v>1.0057</v>
@@ -5639,7 +5627,7 @@
         <v>2</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D302" s="1">
         <v>1.0057</v>
@@ -5656,7 +5644,7 @@
         <v>2</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D303" s="1">
         <v>1.0057</v>
@@ -5673,7 +5661,7 @@
         <v>3</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D304" s="1">
         <v>0.23449999999999999</v>
@@ -5690,7 +5678,7 @@
         <v>2</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D305" s="1">
         <v>1.0057</v>
@@ -5707,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D306" s="1">
         <v>1.0057</v>
@@ -5724,7 +5712,7 @@
         <v>2</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D307" s="1">
         <v>1.0057</v>
@@ -5741,7 +5729,7 @@
         <v>2</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D308" s="1">
         <v>1.0057</v>
@@ -5758,7 +5746,7 @@
         <v>3</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D309" s="1">
         <v>0.23449999999999999</v>
@@ -5775,7 +5763,7 @@
         <v>2</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D310" s="1">
         <v>1.0057</v>
@@ -5792,7 +5780,7 @@
         <v>2</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D311" s="1">
         <v>0.75319999999999998</v>
@@ -5809,7 +5797,7 @@
         <v>3</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D312" s="1">
         <v>0.75319999999999998</v>
@@ -5826,7 +5814,7 @@
         <v>3</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D313" s="1">
         <v>0.75319999999999998</v>
@@ -5843,7 +5831,7 @@
         <v>3</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D314" s="1">
         <v>0.75319999999999998</v>
@@ -5860,7 +5848,7 @@
         <v>3</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D315" s="1">
         <v>0.75319999999999998</v>
@@ -5877,7 +5865,7 @@
         <v>3</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D316" s="1">
         <v>0.75319999999999998</v>
@@ -5894,7 +5882,7 @@
         <v>3</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D317" s="1">
         <v>0.86539999999999995</v>
@@ -5911,7 +5899,7 @@
         <v>3</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D318" s="1">
         <v>0.86539999999999995</v>
@@ -5928,7 +5916,7 @@
         <v>3</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D319" s="1">
         <v>0.86539999999999995</v>
@@ -5945,7 +5933,7 @@
         <v>2</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D320" s="1">
         <v>0.86539999999999995</v>
@@ -5962,7 +5950,7 @@
         <v>2</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D321" s="1">
         <v>0.86539999999999995</v>
@@ -5979,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D322" s="1">
         <v>0.86539999999999995</v>
@@ -5996,7 +5984,7 @@
         <v>2</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D323" s="1">
         <v>0.86539999999999995</v>
@@ -6013,7 +6001,7 @@
         <v>3</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D324" s="1">
         <v>0.86539999999999995</v>
@@ -6030,7 +6018,7 @@
         <v>7</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D325" s="1">
         <v>0.86539999999999995</v>
@@ -6047,7 +6035,7 @@
         <v>7</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D326" s="1">
         <v>0.97560000000000002</v>
@@ -6064,7 +6052,7 @@
         <v>7</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D327" s="1">
         <v>0.97560000000000002</v>
@@ -6081,7 +6069,7 @@
         <v>7</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D328" s="1">
         <v>0.97560000000000002</v>
@@ -6098,7 +6086,7 @@
         <v>7</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D329" s="1">
         <v>0.97560000000000002</v>
@@ -6115,7 +6103,7 @@
         <v>7</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D330" s="1">
         <v>0.97560000000000002</v>
@@ -6132,7 +6120,7 @@
         <v>7</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D331" s="1">
         <v>0.97560000000000002</v>
@@ -6149,7 +6137,7 @@
         <v>7</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D332" s="1">
         <v>0.97560000000000002</v>
@@ -6166,7 +6154,7 @@
         <v>7</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D333" s="1">
         <v>0.76029999999999998</v>
@@ -6183,7 +6171,7 @@
         <v>7</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D334" s="1">
         <v>0.76029999999999998</v>
@@ -6200,7 +6188,7 @@
         <v>3</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D335" s="1">
         <v>0.76029999999999998</v>
@@ -6217,7 +6205,7 @@
         <v>7</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D336" s="1">
         <v>0.76029999999999998</v>
@@ -6234,7 +6222,7 @@
         <v>7</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D337" s="1">
         <v>0.76029999999999998</v>
@@ -6251,7 +6239,7 @@
         <v>7</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D338" s="1">
         <v>0.76029999999999998</v>
@@ -6268,7 +6256,7 @@
         <v>7</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D339" s="1">
         <v>0.76029999999999998</v>
@@ -6285,7 +6273,7 @@
         <v>7</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D340" s="1">
         <v>0.85780000000000001</v>
@@ -6302,7 +6290,7 @@
         <v>6</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D341" s="1">
         <v>0.85780000000000001</v>
@@ -6319,7 +6307,7 @@
         <v>7</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D342" s="1">
         <v>0.85780000000000001</v>
@@ -6336,7 +6324,7 @@
         <v>5</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D343" s="1">
         <v>0.85780000000000001</v>
@@ -6353,7 +6341,7 @@
         <v>7</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D344" s="1">
         <v>0.85780000000000001</v>
@@ -6370,7 +6358,7 @@
         <v>3</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D345" s="1">
         <v>0.85780000000000001</v>
@@ -6387,7 +6375,7 @@
         <v>7</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D346" s="1">
         <v>0.91449999999999998</v>
@@ -6404,7 +6392,7 @@
         <v>7</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D347" s="1">
         <v>0.91449999999999998</v>
@@ -6421,7 +6409,7 @@
         <v>7</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D348" s="1">
         <v>0.91449999999999998</v>
@@ -6438,7 +6426,7 @@
         <v>7</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D349" s="1">
         <v>0.91449999999999998</v>
@@ -6455,7 +6443,7 @@
         <v>5</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D350" s="1">
         <v>0.91449999999999998</v>
@@ -6472,7 +6460,7 @@
         <v>7</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D351" s="1">
         <v>0.91449999999999998</v>
@@ -6489,7 +6477,7 @@
         <v>7</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D352" s="1">
         <v>0.91449999999999998</v>
@@ -6506,7 +6494,7 @@
         <v>7</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D353" s="1">
         <v>0.91449999999999998</v>
@@ -6523,7 +6511,7 @@
         <v>7</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D354" s="1">
         <v>0.91449999999999998</v>
@@ -6540,7 +6528,7 @@
         <v>7</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D355" s="1">
         <v>0.91449999999999998</v>
@@ -6557,7 +6545,7 @@
         <v>7</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D356" s="1">
         <v>0.91449999999999998</v>
@@ -6574,7 +6562,7 @@
         <v>7</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D357" s="1">
         <v>0.91449999999999998</v>
@@ -6591,7 +6579,7 @@
         <v>7</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D358" s="1">
         <v>0.91449999999999998</v>
@@ -6608,7 +6596,7 @@
         <v>2</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D359" s="1">
         <v>0.91449999999999998</v>
@@ -6625,7 +6613,7 @@
         <v>6</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D360" s="1">
         <v>0.91449999999999998</v>
@@ -6642,7 +6630,7 @@
         <v>3</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D361" s="1">
         <v>0.78900000000000003</v>
@@ -6659,7 +6647,7 @@
         <v>5</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D362" s="1">
         <v>0.78900000000000003</v>
@@ -6676,7 +6664,7 @@
         <v>5</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D363" s="1">
         <v>0.78900000000000003</v>
@@ -6693,7 +6681,7 @@
         <v>5</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D364" s="1">
         <v>0.78900000000000003</v>
@@ -6710,7 +6698,7 @@
         <v>3</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D365" s="1">
         <v>0.78900000000000003</v>
@@ -6727,7 +6715,7 @@
         <v>3</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D366" s="1">
         <v>0.78900000000000003</v>
@@ -6744,7 +6732,7 @@
         <v>7</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D367" s="1">
         <v>0.78900000000000003</v>
@@ -6761,7 +6749,7 @@
         <v>7</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D368" s="1">
         <v>0.65429999999999999</v>
@@ -6778,7 +6766,7 @@
         <v>7</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D369" s="1">
         <v>0.65429999999999999</v>
@@ -6795,7 +6783,7 @@
         <v>7</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D370" s="1">
         <v>0.65429999999999999</v>
@@ -6812,7 +6800,7 @@
         <v>7</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D371" s="1">
         <v>0.65429999999999999</v>
@@ -6829,7 +6817,7 @@
         <v>7</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D372" s="1">
         <v>0.65429999999999999</v>
@@ -6846,7 +6834,7 @@
         <v>7</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D373" s="1">
         <v>0.65429999999999999</v>
@@ -6863,7 +6851,7 @@
         <v>7</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D374" s="1">
         <v>0.65429999999999999</v>
@@ -6880,7 +6868,7 @@
         <v>7</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D375" s="1">
         <v>0.53459999999999996</v>
@@ -6897,7 +6885,7 @@
         <v>7</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D376" s="1">
         <v>0.53459999999999996</v>
@@ -6914,7 +6902,7 @@
         <v>7</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D377" s="1">
         <v>0.53459999999999996</v>
@@ -6931,7 +6919,7 @@
         <v>7</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D378" s="1">
         <v>0.53459999999999996</v>
@@ -6948,7 +6936,7 @@
         <v>7</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D379" s="1">
         <v>0.53459999999999996</v>
@@ -6965,7 +6953,7 @@
         <v>3</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D380" s="1">
         <v>0.23449999999999999</v>
@@ -6982,7 +6970,7 @@
         <v>3</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D381" s="1">
         <v>0.23449999999999999</v>
@@ -6999,7 +6987,7 @@
         <v>2</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D382" s="1">
         <v>0.53459999999999996</v>
@@ -7016,7 +7004,7 @@
         <v>2</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D383" s="1">
         <v>0.53459999999999996</v>
@@ -7033,7 +7021,7 @@
         <v>3</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D384" s="1">
         <v>0.23449999999999999</v>
@@ -7050,7 +7038,7 @@
         <v>3</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D385" s="1">
         <v>0.23449999999999999</v>
@@ -7067,7 +7055,7 @@
         <v>7</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D386" s="1">
         <v>0.78649999999999998</v>
@@ -7084,7 +7072,7 @@
         <v>3</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D387" s="1">
         <v>0.23449999999999999</v>
@@ -7101,7 +7089,7 @@
         <v>7</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D388" s="1">
         <v>0.78649999999999998</v>
@@ -7118,7 +7106,7 @@
         <v>7</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D389" s="1">
         <v>0.78649999999999998</v>
@@ -7135,7 +7123,7 @@
         <v>3</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D390" s="1">
         <v>0.54359999999999997</v>
@@ -7152,7 +7140,7 @@
         <v>7</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D391" s="1">
         <v>0.54359999999999997</v>
@@ -7169,7 +7157,7 @@
         <v>7</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D392" s="1">
         <v>0.54359999999999997</v>
@@ -7186,7 +7174,7 @@
         <v>7</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D393" s="1">
         <v>0.54359999999999997</v>
@@ -7203,7 +7191,7 @@
         <v>7</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D394" s="1">
         <v>0.54359999999999997</v>
@@ -7220,7 +7208,7 @@
         <v>7</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D395" s="1">
         <v>0.54359999999999997</v>
@@ -7237,7 +7225,7 @@
         <v>7</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D396" s="1">
         <v>0.67889999999999995</v>
@@ -7254,7 +7242,7 @@
         <v>7</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D397" s="1">
         <v>0.75670000000000004</v>
@@ -7271,7 +7259,7 @@
         <v>7</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D398" s="1">
         <v>0.75670000000000004</v>
@@ -7288,7 +7276,7 @@
         <v>2</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D399" s="1">
         <v>0.23449999999999999</v>
@@ -7305,7 +7293,7 @@
         <v>6</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D400" s="1">
         <v>0.75670000000000004</v>
@@ -7322,7 +7310,7 @@
         <v>3</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D401" s="1">
         <v>0.75670000000000004</v>
@@ -7339,7 +7327,7 @@
         <v>5</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D402" s="1">
         <v>0.65459999999999996</v>
@@ -7356,7 +7344,7 @@
         <v>5</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D403" s="1">
         <v>0.65459999999999996</v>
@@ -7373,7 +7361,7 @@
         <v>5</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D404" s="1">
         <v>0.65459999999999996</v>
@@ -7390,7 +7378,7 @@
         <v>3</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D405" s="1">
         <v>0.25669999999999998</v>
@@ -7407,7 +7395,7 @@
         <v>3</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D406" s="1">
         <v>0.23449999999999999</v>
@@ -7424,7 +7412,7 @@
         <v>7</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D407" s="1">
         <v>0.65459999999999996</v>
@@ -7441,7 +7429,7 @@
         <v>7</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D408" s="1">
         <v>0.65459999999999996</v>
@@ -7458,7 +7446,7 @@
         <v>7</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D409" s="1">
         <v>0.6754</v>
@@ -7475,7 +7463,7 @@
         <v>7</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D410" s="1">
         <v>0.65459999999999996</v>
@@ -7492,7 +7480,7 @@
         <v>3</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D411" s="1">
         <v>0.23449999999999999</v>
@@ -7509,7 +7497,7 @@
         <v>7</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D412" s="1">
         <v>0.65459999999999996</v>
@@ -7526,7 +7514,7 @@
         <v>7</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D413" s="1">
         <v>0.65459999999999996</v>
@@ -7543,7 +7531,7 @@
         <v>7</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D414" s="1">
         <v>0.78559999999999997</v>
@@ -7560,7 +7548,7 @@
         <v>3</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D415" s="1">
         <v>0.23449999999999999</v>
@@ -7577,7 +7565,7 @@
         <v>7</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D416" s="1">
         <v>0.65459999999999996</v>
@@ -7594,7 +7582,7 @@
         <v>7</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D417" s="1">
         <v>0.75670000000000004</v>
@@ -7611,7 +7599,7 @@
         <v>7</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D418" s="1">
         <v>0.75670000000000004</v>
@@ -7628,7 +7616,7 @@
         <v>7</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D419" s="1">
         <v>0.75670000000000004</v>
@@ -7645,7 +7633,7 @@
         <v>2</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D420" s="1">
         <v>0.28449999999999998</v>
@@ -7662,7 +7650,7 @@
         <v>1</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D421" s="1">
         <v>0.23949999999999999</v>
@@ -7679,7 +7667,7 @@
         <v>2</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D422" s="1">
         <v>0.23449999999999999</v>
@@ -7696,7 +7684,7 @@
         <v>2</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D423" s="1">
         <v>0.23449999999999999</v>
@@ -7713,7 +7701,7 @@
         <v>6</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D424" s="1">
         <v>0.75670000000000004</v>
@@ -7730,7 +7718,7 @@
         <v>3</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D425" s="1">
         <v>0.23449999999999999</v>
@@ -7747,7 +7735,7 @@
         <v>2</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D426" s="1">
         <v>0.23449999999999999</v>
@@ -7764,7 +7752,7 @@
         <v>2</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D427" s="1">
         <v>0.23449999999999999</v>
@@ -7781,7 +7769,7 @@
         <v>2</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D428" s="1">
         <v>0.23449999999999999</v>
@@ -7798,7 +7786,7 @@
         <v>7</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D429" s="1">
         <v>0.75670000000000004</v>
@@ -7815,7 +7803,7 @@
         <v>1</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D430" s="1">
         <v>0.23150000000000001</v>
@@ -7832,7 +7820,7 @@
         <v>2</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D431" s="1">
         <v>0.23449999999999999</v>
@@ -7849,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D432" s="1">
         <v>0.23949999999999999</v>
@@ -7866,7 +7854,7 @@
         <v>3</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D433" s="1">
         <v>0.23449999999999999</v>
@@ -7883,7 +7871,7 @@
         <v>1</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D434" s="1">
         <v>0.23050000000000001</v>
@@ -7900,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D435" s="1">
         <v>0.23949999999999999</v>
@@ -7917,7 +7905,7 @@
         <v>2</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D436" s="1">
         <v>0.23449999999999999</v>
@@ -7934,7 +7922,7 @@
         <v>5</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D437" s="1">
         <v>0.75670000000000004</v>
@@ -7951,7 +7939,7 @@
         <v>1</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D438" s="1">
         <v>0.22950000000000001</v>
@@ -7968,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D439" s="1">
         <v>0.23949999999999999</v>
@@ -7985,7 +7973,7 @@
         <v>2</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D440" s="1">
         <v>0.23449999999999999</v>
@@ -8002,7 +7990,7 @@
         <v>6</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D441" s="1">
         <v>0.5645</v>
@@ -8019,7 +8007,7 @@
         <v>5</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D442" s="1">
         <v>0.5645</v>
@@ -8036,7 +8024,7 @@
         <v>2</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D443" s="1">
         <v>0.23449999999999999</v>
@@ -8053,7 +8041,7 @@
         <v>3</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D444" s="1">
         <v>0.23449999999999999</v>
@@ -8070,7 +8058,7 @@
         <v>6</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D445" s="1">
         <v>0.5645</v>
@@ -8087,7 +8075,7 @@
         <v>5</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D446" s="1">
         <v>0.5645</v>
@@ -8104,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D447" s="1">
         <v>1.2344999999999999</v>
@@ -8121,7 +8109,7 @@
         <v>3</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D448" s="1">
         <v>0.23449999999999999</v>
@@ -8138,7 +8126,7 @@
         <v>5</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D449" s="1">
         <v>0.23449999999999999</v>
@@ -8155,7 +8143,7 @@
         <v>5</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D450" s="1">
         <v>0.23449999999999999</v>
@@ -8172,7 +8160,7 @@
         <v>2</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D451" s="1">
         <v>0.23449999999999999</v>
@@ -8189,7 +8177,7 @@
         <v>5</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D452" s="1">
         <v>0.23449999999999999</v>
@@ -8206,7 +8194,7 @@
         <v>7</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D453" s="1">
         <v>0.5645</v>
@@ -8223,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D454" s="1">
         <v>0.5645</v>
@@ -8240,7 +8228,7 @@
         <v>5</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D455" s="1">
         <v>0.5645</v>
@@ -8257,7 +8245,7 @@
         <v>5</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D456" s="1">
         <v>0.78539999999999999</v>
@@ -8274,7 +8262,7 @@
         <v>5</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D457" s="1">
         <v>0.15429999999999999</v>
@@ -8291,7 +8279,7 @@
         <v>7</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D458" s="1">
         <v>0.3256</v>
@@ -8308,7 +8296,7 @@
         <v>5</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D459" s="1">
         <v>0.23449999999999999</v>
@@ -8325,7 +8313,7 @@
         <v>5</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D460" s="1">
         <v>0.23449999999999999</v>
@@ -8342,7 +8330,7 @@
         <v>5</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D461" s="1">
         <v>0.23449999999999999</v>
@@ -8356,10 +8344,10 @@
         <v>8</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D462" s="1">
         <v>0.23449999999999999</v>
@@ -8373,10 +8361,10 @@
         <v>8</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D463" s="1">
         <v>0.79890000000000005</v>
@@ -8390,10 +8378,10 @@
         <v>8</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D464" s="1">
         <v>0.2356</v>
@@ -8407,10 +8395,10 @@
         <v>8</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D465" s="1">
         <v>0.75490000000000002</v>
@@ -8424,10 +8412,10 @@
         <v>4</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D466" s="1">
         <v>0.58989999999999998</v>
@@ -8441,10 +8429,10 @@
         <v>4</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D467" s="1">
         <v>0.26889999999999997</v>
@@ -8458,10 +8446,10 @@
         <v>8</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D468" s="1">
         <v>0.5645</v>
@@ -8478,7 +8466,7 @@
         <v>2</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D469" s="1">
         <v>0.83450000000000002</v>
@@ -8495,7 +8483,7 @@
         <v>2</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D470" s="1">
         <v>0.83450000000000002</v>
@@ -8512,7 +8500,7 @@
         <v>6</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D471" s="1">
         <v>0.83450000000000002</v>
@@ -8529,7 +8517,7 @@
         <v>3</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D472" s="1">
         <v>0.83450000000000002</v>
@@ -8546,7 +8534,7 @@
         <v>2</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D473" s="1">
         <v>1.1055999999999999</v>
@@ -8563,7 +8551,7 @@
         <v>2</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D474" s="1">
         <v>1.1055999999999999</v>
@@ -8580,7 +8568,7 @@
         <v>2</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D475" s="1">
         <v>1.1055999999999999</v>
@@ -8597,7 +8585,7 @@
         <v>7</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D476" s="1">
         <v>1.1055999999999999</v>
@@ -8614,7 +8602,7 @@
         <v>1</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D477" s="1">
         <v>0.23949999999999999</v>
@@ -8631,7 +8619,7 @@
         <v>2</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D478" s="1">
         <v>0.56340000000000001</v>
@@ -8648,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D479" s="1">
         <v>0.23949999999999999</v>
@@ -8665,7 +8653,7 @@
         <v>3</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D480" s="1">
         <v>0.56340000000000001</v>
@@ -8682,7 +8670,7 @@
         <v>1</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D481" s="1">
         <v>0.27750000000000002</v>
@@ -8699,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D482" s="1">
         <v>1.2395</v>
@@ -8716,7 +8704,7 @@
         <v>2</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D483" s="1">
         <v>0.56340000000000001</v>
@@ -8733,7 +8721,7 @@
         <v>5</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D484" s="1">
         <v>0.23449999999999999</v>
@@ -8750,7 +8738,7 @@
         <v>1</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D485" s="1">
         <v>0.23949999999999999</v>
@@ -8767,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D486" s="1">
         <v>0.23949999999999999</v>
@@ -8784,7 +8772,7 @@
         <v>2</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D487" s="1">
         <v>0.23449999999999999</v>
@@ -8801,7 +8789,7 @@
         <v>6</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D488" s="1">
         <v>0.56340000000000001</v>
@@ -8818,7 +8806,7 @@
         <v>5</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D489" s="1">
         <v>0.56340000000000001</v>
@@ -8835,7 +8823,7 @@
         <v>2</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D490" s="1">
         <v>0.56340000000000001</v>
@@ -8852,7 +8840,7 @@
         <v>3</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D491" s="1">
         <v>0.76449999999999996</v>
@@ -8869,7 +8857,7 @@
         <v>6</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D492" s="1">
         <v>0.45669999999999999</v>
@@ -8886,7 +8874,7 @@
         <v>5</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D493" s="1">
         <v>0.1234</v>
@@ -8903,7 +8891,7 @@
         <v>1</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D494" s="1">
         <v>0.23949999999999999</v>
@@ -8920,7 +8908,7 @@
         <v>3</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D495" s="1">
         <v>0.23449999999999999</v>
@@ -8937,7 +8925,7 @@
         <v>5</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D496" s="1">
         <v>0.23449999999999999</v>
@@ -8954,7 +8942,7 @@
         <v>5</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D497" s="1">
         <v>0.23449999999999999</v>
@@ -8971,7 +8959,7 @@
         <v>2</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D498" s="1">
         <v>0.25779999999999997</v>
@@ -8988,7 +8976,7 @@
         <v>5</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D499" s="1">
         <v>0.54210000000000003</v>
@@ -9005,7 +8993,7 @@
         <v>7</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D500" s="1">
         <v>0.25390000000000001</v>
@@ -9022,7 +9010,7 @@
         <v>2</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D501" s="1">
         <v>0.25990000000000002</v>
@@ -9039,7 +9027,7 @@
         <v>5</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D502" s="1">
         <v>0.2959</v>
@@ -9056,7 +9044,7 @@
         <v>5</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D503" s="1">
         <v>0.75019999999999998</v>
@@ -9073,7 +9061,7 @@
         <v>5</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D504" s="1">
         <v>0.75019999999999998</v>
@@ -9090,7 +9078,7 @@
         <v>5</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D505" s="1">
         <v>0.75019999999999998</v>

--- a/Kusal_Data_Set.xlsx
+++ b/Kusal_Data_Set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Educational\Project\course-finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF26782-A35C-4DCD-A8E6-CDC4CC4A8631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51FBE83-C75B-4E98-8E57-5DC24EC25D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Kusal_Data_Set.xlsx
+++ b/Kusal_Data_Set.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Educational\Project\course-finder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51FBE83-C75B-4E98-8E57-5DC24EC25D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FD507D-9083-45D9-BFBF-587C685293FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -70,13 +83,13 @@
     <t>University</t>
   </si>
   <si>
-    <t>Specialization</t>
-  </si>
-  <si>
     <t>Stream</t>
   </si>
   <si>
-    <t>z_core</t>
+    <t xml:space="preserve">Specialization </t>
+  </si>
+  <si>
+    <t>z_Core</t>
   </si>
   <si>
     <t>gpa</t>
@@ -97,7 +110,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -268,9 +280,9 @@
   <autoFilter ref="A1:E505" xr:uid="{27FC18F2-0095-44BA-9648-5E164EC0F77C}"/>
   <tableColumns count="5">
     <tableColumn id="4" xr3:uid="{C6F9AF65-CB48-4EC0-8B2A-27E7557C6A9A}" name="University" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{CF60D45D-BC7C-454C-98E5-0B0224AFDB10}" name="Specialization" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{CF60D45D-BC7C-454C-98E5-0B0224AFDB10}" name="Specialization " dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{9BA60FD3-7668-4F38-A83E-9F348453F55F}" name="Stream" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{EA650479-C2CA-49E4-91FF-C5B96D9C7FE9}" name="z_core" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{EA650479-C2CA-49E4-91FF-C5B96D9C7FE9}" name="z_Core" dataDxfId="1"/>
     <tableColumn id="1" xr3:uid="{CFAECDC8-3225-44A5-B437-B09164EA94CB}" name="gpa" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -482,7 +494,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -507,10 +519,10 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -550,7 +562,8 @@
         <v>0.92320000000000002</v>
       </c>
       <c r="E3" s="2">
-        <v>3.45</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>2.9683842504108422</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -584,7 +597,8 @@
         <v>0.92320000000000002</v>
       </c>
       <c r="E5" s="2">
-        <v>3.65</v>
+        <f t="shared" ref="E5:E6" ca="1" si="0">RAND()*(3.9-2.7)+2.7</f>
+        <v>2.765001340303725</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -601,7 +615,8 @@
         <v>1.0678000000000001</v>
       </c>
       <c r="E6" s="2">
-        <v>3.22</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.7897563485900583</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -635,7 +650,8 @@
         <v>0.92320000000000002</v>
       </c>
       <c r="E8" s="2">
-        <v>3.43</v>
+        <f t="shared" ref="E8:E10" ca="1" si="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>2.9957877052965225</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -652,7 +668,8 @@
         <v>0.92320000000000002</v>
       </c>
       <c r="E9" s="2">
-        <v>3.12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.8706788506773626</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -669,7 +686,8 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="E10" s="2">
-        <v>3.2180793881029377</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2592509257428053</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -703,7 +721,8 @@
         <v>0.92320000000000002</v>
       </c>
       <c r="E12" s="2">
-        <v>3.46</v>
+        <f t="shared" ref="E12:E19" ca="1" si="2">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.0504035844108111</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -720,7 +739,8 @@
         <v>0.92320000000000002</v>
       </c>
       <c r="E13" s="2">
-        <v>3.13</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.581276351520092</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -737,7 +757,8 @@
         <v>0.92320000000000002</v>
       </c>
       <c r="E14" s="2">
-        <v>2.99</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.396820056232023</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -754,7 +775,8 @@
         <v>0.92320000000000002</v>
       </c>
       <c r="E15" s="2">
-        <v>3.09</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.217832629290319</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -771,7 +793,8 @@
         <v>0.63560000000000005</v>
       </c>
       <c r="E16" s="2">
-        <v>3.0970607404077737</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1651537025149095</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -788,7 +811,8 @@
         <v>0.63560000000000005</v>
       </c>
       <c r="E17" s="2">
-        <v>2.6248152860038014</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.3184367704578386</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -805,7 +829,8 @@
         <v>0.63560000000000005</v>
       </c>
       <c r="E18" s="2">
-        <v>3.4013374028809857</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7505019293341162</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -822,7 +847,8 @@
         <v>1.1241000000000001</v>
       </c>
       <c r="E19" s="2">
-        <v>3.89</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1218065619719022</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -856,7 +882,8 @@
         <v>0.63560000000000005</v>
       </c>
       <c r="E21" s="2">
-        <v>3.108810834406925</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.029934910617297</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -907,7 +934,8 @@
         <v>0.63560000000000005</v>
       </c>
       <c r="E24" s="2">
-        <v>2.9590002887699183</v>
+        <f t="shared" ref="E24:E31" ca="1" si="3">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.8125619718335333</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -924,7 +952,8 @@
         <v>0.63560000000000005</v>
       </c>
       <c r="E25" s="2">
-        <v>3.0046519671707999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.0642965517031282</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -941,7 +970,8 @@
         <v>0.77949999999999997</v>
       </c>
       <c r="E26" s="2">
-        <v>2.83</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.2547445772646362</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -958,7 +988,8 @@
         <v>0.77949999999999997</v>
       </c>
       <c r="E27" s="2">
-        <v>3.13</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.8777047705571199</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -975,7 +1006,8 @@
         <v>0.63560000000000005</v>
       </c>
       <c r="E28" s="2">
-        <v>2.7841862293591078</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.1658595496972066</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -992,7 +1024,8 @@
         <v>0.84560000000000002</v>
       </c>
       <c r="E29" s="2">
-        <v>2.56</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.1701571473639953</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1009,7 +1042,8 @@
         <v>0.84560000000000002</v>
       </c>
       <c r="E30" s="2">
-        <v>2.89</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.1865257995683276</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1026,7 +1060,8 @@
         <v>0.77949999999999997</v>
       </c>
       <c r="E31" s="2">
-        <v>2.78</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.3761235207573859</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1162,7 +1197,8 @@
         <v>0.84560000000000002</v>
       </c>
       <c r="E39" s="2">
-        <v>2.89</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.6787552987713368</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1230,7 +1266,8 @@
         <v>0.84560000000000002</v>
       </c>
       <c r="E43" s="2">
-        <v>2.09</v>
+        <f t="shared" ref="E43:E44" ca="1" si="4">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.5778940456109214</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1247,7 +1284,8 @@
         <v>0.84560000000000002</v>
       </c>
       <c r="E44" s="2">
-        <v>2.88</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.8710726532677282</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1332,7 +1370,8 @@
         <v>0.84560000000000002</v>
       </c>
       <c r="E49" s="2">
-        <v>2.98</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.7334185768804007</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1366,7 +1405,8 @@
         <v>0.84560000000000002</v>
       </c>
       <c r="E51" s="2">
-        <v>2.67</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>2.8801257680921837</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1468,7 +1508,8 @@
         <v>1.3867</v>
       </c>
       <c r="E57" s="2">
-        <v>3.33</v>
+        <f t="shared" ref="E57:E58" ca="1" si="5">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.2706981708515253</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1485,7 +1526,8 @@
         <v>0.84560000000000002</v>
       </c>
       <c r="E58" s="2">
-        <v>3.22</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2.9174439577779259</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1536,7 +1578,8 @@
         <v>1.0056</v>
       </c>
       <c r="E61" s="2">
-        <v>3.22</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.7999900469897576</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1757,7 +1800,8 @@
         <v>0.84560000000000002</v>
       </c>
       <c r="E74" s="2">
-        <v>3.24</v>
+        <f t="shared" ref="E74:E81" ca="1" si="6">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.2408905374873918</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1774,7 +1818,8 @@
         <v>0.84560000000000002</v>
       </c>
       <c r="E75" s="2">
-        <v>3.75</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.428242185934482</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1791,7 +1836,8 @@
         <v>0.84560000000000002</v>
       </c>
       <c r="E76" s="2">
-        <v>3.6</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.9795045327986598</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1808,7 +1854,8 @@
         <v>0.84560000000000002</v>
       </c>
       <c r="E77" s="2">
-        <v>3.15</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.8433578856979138</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1825,7 +1872,8 @@
         <v>1.1023000000000001</v>
       </c>
       <c r="E78" s="2">
-        <v>3.25</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.9738398686317944</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1842,7 +1890,8 @@
         <v>1.1023000000000001</v>
       </c>
       <c r="E79" s="2">
-        <v>3.4279999999999999</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.1045520909110387</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1859,7 +1908,8 @@
         <v>1.1023000000000001</v>
       </c>
       <c r="E80" s="2">
-        <v>3.8</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2.8907308600511143</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1876,7 +1926,8 @@
         <v>1.1023000000000001</v>
       </c>
       <c r="E81" s="2">
-        <v>2.9</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.872800180679655</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1910,7 +1961,8 @@
         <v>1.1023000000000001</v>
       </c>
       <c r="E83" s="2">
-        <v>3.75</v>
+        <f t="shared" ref="E83:E107" ca="1" si="7">RAND()*(3.9-2.7)+2.7</f>
+        <v>2.7503176440274562</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1927,7 +1979,8 @@
         <v>1.1023000000000001</v>
       </c>
       <c r="E84" s="2">
-        <v>3.1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.7736963855410619</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1944,7 +1997,8 @@
         <v>1.1023000000000001</v>
       </c>
       <c r="E85" s="2">
-        <v>3.8</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.840962172819288</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1961,7 +2015,8 @@
         <v>1.0032000000000001</v>
       </c>
       <c r="E86" s="2">
-        <v>3.4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.8936662582267578</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1978,7 +2033,8 @@
         <v>1.0032000000000001</v>
       </c>
       <c r="E87" s="2">
-        <v>3.57</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.8676377306042404</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1995,7 +2051,8 @@
         <v>1.0032000000000001</v>
       </c>
       <c r="E88" s="2">
-        <v>3.4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.7785483285911017</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2012,7 +2069,8 @@
         <v>1.0032000000000001</v>
       </c>
       <c r="E89" s="2">
-        <v>3.5</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.0246029557479206</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2029,7 +2087,8 @@
         <v>1.0032000000000001</v>
       </c>
       <c r="E90" s="2">
-        <v>3.6</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.1728667985429246</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2046,7 +2105,8 @@
         <v>1.0032000000000001</v>
       </c>
       <c r="E91" s="2">
-        <v>3.42</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.8630262552119579</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2063,7 +2123,8 @@
         <v>0.74350000000000005</v>
       </c>
       <c r="E92" s="2">
-        <v>3.75</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.1948154399388904</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2080,7 +2141,8 @@
         <v>0.74350000000000005</v>
       </c>
       <c r="E93" s="2">
-        <v>3.15</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.3035372273748234</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2097,7 +2159,8 @@
         <v>0.74350000000000005</v>
       </c>
       <c r="E94" s="2">
-        <v>3.4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.6026312745880285</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2114,7 +2177,8 @@
         <v>0.74350000000000005</v>
       </c>
       <c r="E95" s="2">
-        <v>3.7</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.0798025773958972</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2131,7 +2195,8 @@
         <v>0.74350000000000005</v>
       </c>
       <c r="E96" s="2">
-        <v>3.36</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.4643111395474593</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2148,7 +2213,8 @@
         <v>0.74350000000000005</v>
       </c>
       <c r="E97" s="2">
-        <v>3.7</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.7949717108657799</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2165,7 +2231,8 @@
         <v>0.74350000000000005</v>
       </c>
       <c r="E98" s="2">
-        <v>3.7</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.6635744111906292</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2182,7 +2249,8 @@
         <v>0.74350000000000005</v>
       </c>
       <c r="E99" s="2">
-        <v>3.6</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.8440824893160528</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2199,7 +2267,8 @@
         <v>0.74350000000000005</v>
       </c>
       <c r="E100" s="2">
-        <v>3.2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5304696267458633</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2216,7 +2285,8 @@
         <v>0.87690000000000001</v>
       </c>
       <c r="E101" s="2">
-        <v>3.5</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.8619480867183063</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2233,7 +2303,8 @@
         <v>0.87690000000000001</v>
       </c>
       <c r="E102" s="2">
-        <v>3.5</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.0100181242309856</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2250,7 +2321,8 @@
         <v>0.87690000000000001</v>
       </c>
       <c r="E103" s="2">
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.5107181826056744</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2267,7 +2339,8 @@
         <v>0.87690000000000001</v>
       </c>
       <c r="E104" s="2">
-        <v>3.7</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.1510710144902099</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2284,7 +2357,8 @@
         <v>1.0156000000000001</v>
       </c>
       <c r="E105" s="2">
-        <v>3.81</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3.8969683211165345</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2301,7 +2375,8 @@
         <v>0.87949999999999995</v>
       </c>
       <c r="E106" s="2">
-        <v>3.1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.9001497067452791</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2318,7 +2393,8 @@
         <v>0.87690000000000001</v>
       </c>
       <c r="E107" s="2">
-        <v>3.4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2.7408764057886108</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2369,7 +2445,8 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="E110" s="2">
-        <v>3.7</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.3231284868966977</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2437,7 +2514,8 @@
         <v>0.76890000000000003</v>
       </c>
       <c r="E114" s="2">
-        <v>2.9</v>
+        <f t="shared" ref="E114:E141" ca="1" si="8">RAND()*(3.9-2.7)+2.7</f>
+        <v>2.7405168450766544</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2454,7 +2532,8 @@
         <v>0.87690000000000001</v>
       </c>
       <c r="E115" s="2">
-        <v>3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.5097886173942219</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2471,7 +2550,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E116" s="2">
-        <v>2.78</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.1654896721663097</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2488,7 +2568,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E117" s="2">
-        <v>2.76</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.3153823529402882</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2505,7 +2586,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E118" s="2">
-        <v>2.91</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.8770584351162367</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2522,7 +2604,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E119" s="2">
-        <v>2.92</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2.7904781802005303</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2539,7 +2622,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E120" s="2">
-        <v>2.95</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.8533943492739313</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2556,7 +2640,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E121" s="2">
-        <v>2.94</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.6622195600989951</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2573,7 +2658,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E122" s="2">
-        <v>2.4900000000000002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2.7324059190494734</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2590,7 +2676,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E123" s="2">
-        <v>2.59</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.5118310859497126</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2607,7 +2694,8 @@
         <v>0.78949999999999998</v>
       </c>
       <c r="E124" s="2">
-        <v>2.79</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.7147671137719014</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2624,7 +2712,8 @@
         <v>0.78949999999999998</v>
       </c>
       <c r="E125" s="2">
-        <v>2.92</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2.9160347908384807</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2641,7 +2730,8 @@
         <v>1.2364999999999999</v>
       </c>
       <c r="E126" s="2">
-        <v>2.69</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.596400767457526</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2658,7 +2748,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E127" s="2">
-        <v>2.69</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.8513791065378444</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2675,7 +2766,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E128" s="2">
-        <v>2.87</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2.7127698477817366</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2692,7 +2784,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E129" s="2">
-        <v>2.87</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2.9638222956140434</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2709,7 +2802,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E130" s="2">
-        <v>2.89</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.589581885461393</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2726,7 +2820,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E131" s="2">
-        <v>2.99</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>2.9896602568900321</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2743,7 +2838,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E132" s="2">
-        <v>2.08</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.2776057338789006</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2760,7 +2856,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E133" s="2">
-        <v>2.9</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.395529911027519</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2777,7 +2874,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E134" s="2">
-        <v>2.99</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.2005885213018979</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2794,7 +2892,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E135" s="2">
-        <v>2.9</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.5228796876852533</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2811,7 +2910,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E136" s="2">
-        <v>2.95</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.4791298767129764</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2828,7 +2928,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E137" s="2">
-        <v>2.89</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.7691486716137499</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2845,7 +2946,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E138" s="2">
-        <v>2.78</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.2441770444003648</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2862,7 +2964,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E139" s="2">
-        <v>2.69</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.5606806318908202</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2879,7 +2982,8 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="E140" s="2">
-        <v>2.86</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.6792395923158203</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2896,7 +3000,8 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="E141" s="2">
-        <v>2.95</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>3.5314392600835078</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2947,7 +3052,8 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="E144" s="2">
-        <v>2.86</v>
+        <f t="shared" ref="E144:E145" ca="1" si="9">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.1314053619387909</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -2964,7 +3070,8 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="E145" s="2">
-        <v>2.98</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3.5686905446336299</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -3015,7 +3122,8 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="E148" s="2">
-        <v>2.88</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.3266598036117885</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -3049,7 +3157,8 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="E150" s="2">
-        <v>2.89</v>
+        <f t="shared" ref="E150:E151" ca="1" si="10">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.5647415701400504</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -3066,7 +3175,8 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="E151" s="2">
-        <v>2.29</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>3.4105800764965153</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3100,7 +3210,8 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="E153" s="2">
-        <v>2.79</v>
+        <f t="shared" ref="E153:E159" ca="1" si="11">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.0935456426934769</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3117,7 +3228,8 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="E154" s="2">
-        <v>2.4900000000000002</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2.8112433024493324</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3134,7 +3246,8 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="E155" s="2">
-        <v>2.5471705156643827</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3.0194230332173162</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3151,7 +3264,8 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="E156" s="2">
-        <v>3.4928710919846857</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2.8400577242024938</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3168,7 +3282,8 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="E157" s="2">
-        <v>3.4276605774441467</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3.483924906239543</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3185,7 +3300,8 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="E158" s="2">
-        <v>3.4647531427257974</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3.3026499049429452</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3202,7 +3318,8 @@
         <v>0.91979999999999995</v>
       </c>
       <c r="E159" s="2">
-        <v>2.7467645792557205</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>3.0351913665556158</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3236,7 +3353,8 @@
         <v>0.92879999999999996</v>
       </c>
       <c r="E161" s="2">
-        <v>2.8871200022866619</v>
+        <f t="shared" ref="E161:E162" ca="1" si="12">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.7150801799617366</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3253,7 +3371,8 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="E162" s="2">
-        <v>3.0961264102469341</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>3.5840150559356418</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3304,7 +3423,8 @@
         <v>0.95879999999999999</v>
       </c>
       <c r="E165" s="2">
-        <v>3.4917815897876312</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>2.7767790788773019</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3338,7 +3458,8 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="E167" s="2">
-        <v>2.9071397536702102</v>
+        <f t="shared" ref="E167:E168" ca="1" si="13">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.0636080815754578</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3355,7 +3476,8 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="E168" s="2">
-        <v>2.6859200089959891</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3.0584767667677291</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3406,7 +3528,8 @@
         <v>0.85640000000000005</v>
       </c>
       <c r="E171" s="2">
-        <v>3.2973938682714321</v>
+        <f t="shared" ref="E171:E173" ca="1" si="14">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.5717502822883338</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3423,7 +3546,8 @@
         <v>0.78449999999999998</v>
       </c>
       <c r="E172" s="2">
-        <v>2.7688082456445411</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>3.1169286049727041</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3440,7 +3564,8 @@
         <v>0.78049999999999997</v>
       </c>
       <c r="E173" s="2">
-        <v>3.3839938787423751</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>3.275678792132247</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3474,7 +3599,8 @@
         <v>0.91990000000000005</v>
       </c>
       <c r="E175" s="2">
-        <v>2.7119558439764133</v>
+        <f t="shared" ref="E175:E183" ca="1" si="15">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.3687462748956514</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3491,7 +3617,8 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="E176" s="2">
-        <v>2.5891321203857025</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3.1416684699010835</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3508,7 +3635,8 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="E177" s="2">
-        <v>3.5933035973187577</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3.4070875938305374</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3525,7 +3653,8 @@
         <v>0.87560000000000004</v>
       </c>
       <c r="E178" s="2">
-        <v>3.0703555119721009</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3.8967211543963809</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3542,7 +3671,8 @@
         <v>0.87560000000000004</v>
       </c>
       <c r="E179" s="2">
-        <v>2.7214015198905384</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3.5552853287890458</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3559,7 +3689,8 @@
         <v>0.87560000000000004</v>
       </c>
       <c r="E180" s="2">
-        <v>2.981839591341398</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3.2359410780700468</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3576,7 +3707,8 @@
         <v>0.87560000000000004</v>
       </c>
       <c r="E181" s="2">
-        <v>3.1525770786988438</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3.8519456816679298</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3593,7 +3725,8 @@
         <v>0.91080000000000005</v>
       </c>
       <c r="E182" s="2">
-        <v>3.5113407165684949</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2.8295471388787057</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3610,7 +3743,8 @@
         <v>1.2395</v>
       </c>
       <c r="E183" s="2">
-        <v>2.8421124337176629</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3.0573003134064538</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3644,7 +3778,8 @@
         <v>0.90880000000000005</v>
       </c>
       <c r="E185" s="2">
-        <v>3.410322294468767</v>
+        <f t="shared" ref="E185:E186" ca="1" si="16">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.3589897993628908</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3661,7 +3796,8 @@
         <v>0.87560000000000004</v>
       </c>
       <c r="E186" s="2">
-        <v>3.2440998982653424</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>3.2595162652201077</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3695,7 +3831,8 @@
         <v>0.90580000000000005</v>
       </c>
       <c r="E188" s="2">
-        <v>3.4148225419644538</v>
+        <f t="shared" ref="E188:E193" ca="1" si="17">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.5779265474419897</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3712,7 +3849,8 @@
         <v>0.90280000000000005</v>
       </c>
       <c r="E189" s="2">
-        <v>3.2368192996462426</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>2.7256433297002491</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3729,7 +3867,8 @@
         <v>0.91879999999999995</v>
       </c>
       <c r="E190" s="2">
-        <v>3.347072933142893</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>3.8312928468749945</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3746,7 +3885,8 @@
         <v>0.87560000000000004</v>
       </c>
       <c r="E191" s="2">
-        <v>2.576111555924999</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>2.7059273375773132</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3763,7 +3903,8 @@
         <v>1.2395</v>
       </c>
       <c r="E192" s="2">
-        <v>3.0278938490412286</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>3.5961028350784927</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3780,7 +3921,8 @@
         <v>0.87560000000000004</v>
       </c>
       <c r="E193" s="2">
-        <v>2.6816738428625482</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>3.1688739094766745</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3814,7 +3956,8 @@
         <v>0.87560000000000004</v>
       </c>
       <c r="E195" s="2">
-        <v>2.7794251972034925</v>
+        <f t="shared" ref="E195:E196" ca="1" si="18">RAND()*(3.9-2.7)+2.7</f>
+        <v>2.9549772472958482</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3831,7 +3974,8 @@
         <v>0.87560000000000004</v>
       </c>
       <c r="E196" s="2">
-        <v>2.5476234769307249</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>3.8978080487426068</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3865,7 +4009,8 @@
         <v>0.87560000000000004</v>
       </c>
       <c r="E198" s="2">
-        <v>3.1963009263188065</v>
+        <f t="shared" ref="E198:E199" ca="1" si="19">RAND()*(3.9-2.7)+2.7</f>
+        <v>2.9491976532803363</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3882,7 +4027,8 @@
         <v>0.76890000000000003</v>
       </c>
       <c r="E199" s="2">
-        <v>3.0941998141804623</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>3.5898446199660707</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3933,7 +4079,8 @@
         <v>0.87560000000000004</v>
       </c>
       <c r="E202" s="2">
-        <v>2.5230287674946532</v>
+        <f t="shared" ref="E202:E203" ca="1" si="20">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.3032508588886609</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3950,7 +4097,8 @@
         <v>0.7893</v>
       </c>
       <c r="E203" s="2">
-        <v>2.9353726332274013</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>2.7362198847189543</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3984,7 +4132,8 @@
         <v>0.7893</v>
       </c>
       <c r="E205" s="2">
-        <v>3.1083770092991312</v>
+        <f t="shared" ref="E205:E207" ca="1" si="21">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.3314170298097738</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4001,7 +4150,8 @@
         <v>0.7893</v>
       </c>
       <c r="E206" s="2">
-        <v>2.5534537423084269</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>3.2839854350290429</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4018,7 +4168,8 @@
         <v>0.7893</v>
       </c>
       <c r="E207" s="2">
-        <v>2.9064336943972759</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>2.879387979140466</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4069,7 +4220,8 @@
         <v>0.7893</v>
       </c>
       <c r="E210" s="2">
-        <v>2.9035564971937498</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.7767614421542115</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4120,7 +4272,8 @@
         <v>0.7893</v>
       </c>
       <c r="E213" s="2">
-        <v>3.4663361999978521</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.399548396558234</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4154,7 +4307,8 @@
         <v>0.7893</v>
       </c>
       <c r="E215" s="2">
-        <v>3.2932629767451185</v>
+        <f t="shared" ref="E215:E222" ca="1" si="22">RAND()*(3.9-2.7)+2.7</f>
+        <v>2.7672875034874749</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4171,7 +4325,8 @@
         <v>0.7893</v>
       </c>
       <c r="E216" s="2">
-        <v>2.9444560260823733</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.3273981745235037</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4188,7 +4343,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E217" s="2">
-        <v>3.1827504105565096</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.6573419746900364</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4205,7 +4361,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E218" s="2">
-        <v>3.0491482253029814</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>2.7622174240830124</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4222,7 +4379,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E219" s="2">
-        <v>3.3333325505813698</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.5264341068288845</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4239,7 +4397,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E220" s="2">
-        <v>3.3151105935204033</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.6139367506475804</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4256,7 +4415,8 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="E221" s="2">
-        <v>3.0484768767699761</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.2414581208085309</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4273,7 +4433,8 @@
         <v>0.90869999999999995</v>
       </c>
       <c r="E222" s="2">
-        <v>3.4762474556706571</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>2.8711679457871528</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4426,7 +4587,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E231" s="2">
-        <v>2.6603438334015723</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.0461399242455998</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4562,7 +4724,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E239" s="2">
-        <v>2.7898687332006249</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.3075101102344284</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4596,7 +4759,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E241" s="2">
-        <v>3.2400790925742715</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.025704495299383</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4630,7 +4794,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E243" s="2">
-        <v>2.8500820773043776</v>
+        <f t="shared" ref="E243:E244" ca="1" si="23">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.406087152956073</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4647,7 +4812,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E244" s="2">
-        <v>2.7984938368640719</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>2.9931435989542412</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4681,7 +4847,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E246" s="2">
-        <v>2.6690805237912141</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.230221949637488</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4715,7 +4882,8 @@
         <v>0.98560000000000003</v>
       </c>
       <c r="E248" s="2">
-        <v>2.719613583682607</v>
+        <f t="shared" ref="E248:E256" ca="1" si="24">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.1816542897779656</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4732,7 +4900,8 @@
         <v>0.98560000000000003</v>
       </c>
       <c r="E249" s="2">
-        <v>2.7362642298436315</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>2.9657874300359932</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4749,7 +4918,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E250" s="2">
-        <v>3.4808002144960573</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>2.8186010395237746</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4766,7 +4936,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E251" s="2">
-        <v>3.1559343029685003</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>3.8255112561065379</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4783,7 +4954,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E252" s="2">
-        <v>2.7385009828830791</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>3.4343798985298908</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4800,7 +4972,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E253" s="2">
-        <v>2.8109900975416497</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>3.5501319811401864</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4817,7 +4990,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E254" s="2">
-        <v>3.4865812158844132</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>2.7996674633626499</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4834,7 +5008,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E255" s="2">
-        <v>3.2883094092322112</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>3.8549115855967853</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4851,7 +5026,8 @@
         <v>0.98560000000000003</v>
       </c>
       <c r="E256" s="2">
-        <v>3.2639344808237429</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>2.9761226188963095</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4885,7 +5061,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E258" s="2">
-        <v>3.0090984402470946</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.1524282414495466</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4919,7 +5096,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E260" s="2">
-        <v>3.11663929561105</v>
+        <f t="shared" ref="E260:E262" ca="1" si="25">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.3013621450197932</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4936,7 +5114,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E261" s="2">
-        <v>2.7743846161957988</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>2.7089261146439925</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4953,7 +5132,8 @@
         <v>0.76890000000000003</v>
       </c>
       <c r="E262" s="2">
-        <v>3.5460251789642276</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>2.8869984646421494</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5259,7 +5439,8 @@
         <v>0.98560000000000003</v>
       </c>
       <c r="E280" s="2">
-        <v>3.4223369763467457</v>
+        <f t="shared" ref="E280:E282" ca="1" si="26">RAND()*(3.9-2.7)+2.7</f>
+        <v>2.7080100719964353</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5276,7 +5457,8 @@
         <v>0.98560000000000003</v>
       </c>
       <c r="E281" s="2">
-        <v>3.4403179762345721</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>2.7168014863248335</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5293,7 +5475,8 @@
         <v>0.98560000000000003</v>
       </c>
       <c r="E282" s="2">
-        <v>3.37038958412968</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>3.6189144319354485</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5378,7 +5561,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E287" s="2">
-        <v>3.5313558924721868</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.6287955228130886</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5412,7 +5596,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E289" s="2">
-        <v>3.1273344252040216</v>
+        <f t="shared" ref="E289:E292" ca="1" si="27">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.3536945528570552</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5429,7 +5614,8 @@
         <v>1.0057</v>
       </c>
       <c r="E290" s="2">
-        <v>2.9984170770019571</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>3.6771192509722219</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5446,7 +5632,8 @@
         <v>1.0057</v>
       </c>
       <c r="E291" s="2">
-        <v>3.3720353924469562</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>3.3772640787248758</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5463,7 +5650,8 @@
         <v>1.0057</v>
       </c>
       <c r="E292" s="2">
-        <v>3.5238866301099478</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>3.5153467979276121</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5497,7 +5685,8 @@
         <v>1.0057</v>
       </c>
       <c r="E294" s="2">
-        <v>3.3679712103811572</v>
+        <f t="shared" ref="E294:E297" ca="1" si="28">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.3959686951563128</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5514,7 +5703,8 @@
         <v>1.0057</v>
       </c>
       <c r="E295" s="2">
-        <v>3.0449253150571103</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>2.7222759549205438</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5531,7 +5721,8 @@
         <v>1.0057</v>
       </c>
       <c r="E296" s="2">
-        <v>3.3568842638689751</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>3.3562055227530831</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5548,7 +5739,8 @@
         <v>1.0057</v>
       </c>
       <c r="E297" s="2">
-        <v>2.539624880173931</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>3.3858383083863002</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5582,7 +5774,8 @@
         <v>1.0057</v>
       </c>
       <c r="E299" s="2">
-        <v>2.7073823520828029</v>
+        <f t="shared" ref="E299:E303" ca="1" si="29">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.5746406871878582</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5599,7 +5792,8 @@
         <v>1.0057</v>
       </c>
       <c r="E300" s="2">
-        <v>3.5305030677770932</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.2026750206798456</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5616,7 +5810,8 @@
         <v>1.0057</v>
       </c>
       <c r="E301" s="2">
-        <v>3.1408925008396409</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>2.7523516705190763</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5633,7 +5828,8 @@
         <v>1.0057</v>
       </c>
       <c r="E302" s="2">
-        <v>2.8073014185659306</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>2.8081643212118035</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5650,7 +5846,8 @@
         <v>1.0057</v>
       </c>
       <c r="E303" s="2">
-        <v>2.8279342139226191</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.2144242599831143</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5684,7 +5881,8 @@
         <v>1.0057</v>
       </c>
       <c r="E305" s="2">
-        <v>2.784941055704937</v>
+        <f t="shared" ref="E305:E308" ca="1" si="30">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.7473452746249594</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5701,7 +5899,8 @@
         <v>1.0057</v>
       </c>
       <c r="E306" s="2">
-        <v>3.2741474184022836</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>3.7189944612018353</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5718,7 +5917,8 @@
         <v>1.0057</v>
       </c>
       <c r="E307" s="2">
-        <v>3.3634930971502546</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>3.2212758590859889</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5735,7 +5935,8 @@
         <v>1.0057</v>
       </c>
       <c r="E308" s="2">
-        <v>2.9313890444840611</v>
+        <f t="shared" ca="1" si="30"/>
+        <v>3.4645597393112366</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5769,7 +5970,8 @@
         <v>1.0057</v>
       </c>
       <c r="E310" s="2">
-        <v>2.7704199302230244</v>
+        <f t="shared" ref="E310:E367" ca="1" si="31">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.6719275705129855</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5786,7 +5988,8 @@
         <v>0.75319999999999998</v>
       </c>
       <c r="E311" s="2">
-        <v>2.7099451840708539</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.7693502896622535</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5803,7 +6006,8 @@
         <v>0.75319999999999998</v>
       </c>
       <c r="E312" s="2">
-        <v>3.1584071988350955</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>2.9197732646618846</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5820,7 +6024,8 @@
         <v>0.75319999999999998</v>
       </c>
       <c r="E313" s="2">
-        <v>2.3066112466552697</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.2091685801438352</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5837,7 +6042,8 @@
         <v>0.75319999999999998</v>
       </c>
       <c r="E314" s="2">
-        <v>2.9726075998167802</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.6625204954985779</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5854,7 +6060,8 @@
         <v>0.75319999999999998</v>
       </c>
       <c r="E315" s="2">
-        <v>2.9934626781151907</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.527897367196172</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5871,7 +6078,8 @@
         <v>0.75319999999999998</v>
       </c>
       <c r="E316" s="2">
-        <v>2.2953082770381061</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.0944815655566553</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5888,7 +6096,8 @@
         <v>0.86539999999999995</v>
       </c>
       <c r="E317" s="2">
-        <v>2.8808706619557873</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>2.7535977960930449</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5905,7 +6114,8 @@
         <v>0.86539999999999995</v>
       </c>
       <c r="E318" s="2">
-        <v>3.2719779737906238</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.7603918450829514</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5922,7 +6132,8 @@
         <v>0.86539999999999995</v>
       </c>
       <c r="E319" s="2">
-        <v>3.5943159899483161</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.1770193052267541</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5939,7 +6150,8 @@
         <v>0.86539999999999995</v>
       </c>
       <c r="E320" s="2">
-        <v>3.0008585152463314</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.3123664670224038</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5956,7 +6168,8 @@
         <v>0.86539999999999995</v>
       </c>
       <c r="E321" s="2">
-        <v>2.5210012522705716</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>2.7666401766832154</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5973,7 +6186,8 @@
         <v>0.86539999999999995</v>
       </c>
       <c r="E322" s="2">
-        <v>3.0618764209549481</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>2.7352901832754837</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5990,7 +6204,8 @@
         <v>0.86539999999999995</v>
       </c>
       <c r="E323" s="2">
-        <v>3.0197140089860364</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>2.9807723843108946</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6007,7 +6222,8 @@
         <v>0.86539999999999995</v>
       </c>
       <c r="E324" s="2">
-        <v>2.9398118291611226</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.6705675260056587</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6024,7 +6240,8 @@
         <v>0.86539999999999995</v>
       </c>
       <c r="E325" s="2">
-        <v>2.8620633296291631</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.4282404457688171</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6041,7 +6258,8 @@
         <v>0.97560000000000002</v>
       </c>
       <c r="E326" s="2">
-        <v>2.578946469693645</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.4837355841630315</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6058,7 +6276,8 @@
         <v>0.97560000000000002</v>
       </c>
       <c r="E327" s="2">
-        <v>2.6641121374103953</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>2.8454628094961989</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6075,7 +6294,8 @@
         <v>0.97560000000000002</v>
       </c>
       <c r="E328" s="2">
-        <v>3.4298468504642972</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.5593157886217841</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6092,7 +6312,8 @@
         <v>0.97560000000000002</v>
       </c>
       <c r="E329" s="2">
-        <v>2.7809228629024676</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.3708664449871999</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6109,7 +6330,8 @@
         <v>0.97560000000000002</v>
       </c>
       <c r="E330" s="2">
-        <v>3.0145428109505819</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.2696041323627116</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6126,7 +6348,8 @@
         <v>0.97560000000000002</v>
       </c>
       <c r="E331" s="2">
-        <v>2.5931208823278848</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.1099826692070569</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6143,7 +6366,8 @@
         <v>0.97560000000000002</v>
       </c>
       <c r="E332" s="2">
-        <v>3.2052419145045272</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>2.929512864748625</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6160,7 +6384,8 @@
         <v>0.76029999999999998</v>
       </c>
       <c r="E333" s="2">
-        <v>3.0883406076576509</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.8061680834535476</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6177,7 +6402,8 @@
         <v>0.76029999999999998</v>
       </c>
       <c r="E334" s="2">
-        <v>3.43850377556267</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.7478604445473565</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6194,7 +6420,8 @@
         <v>0.76029999999999998</v>
       </c>
       <c r="E335" s="2">
-        <v>2.6252566011740646</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.5111252031424325</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6211,7 +6438,8 @@
         <v>0.76029999999999998</v>
       </c>
       <c r="E336" s="2">
-        <v>2.6628469991143424</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.224062074683828</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6228,7 +6456,8 @@
         <v>0.76029999999999998</v>
       </c>
       <c r="E337" s="2">
-        <v>3.1175005095733503</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.4349370996705915</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6245,7 +6474,8 @@
         <v>0.76029999999999998</v>
       </c>
       <c r="E338" s="2">
-        <v>2.6563024285825159</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>2.969886975759958</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6262,7 +6492,8 @@
         <v>0.76029999999999998</v>
       </c>
       <c r="E339" s="2">
-        <v>3.0117495370245102</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>2.916576840554729</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6279,7 +6510,8 @@
         <v>0.85780000000000001</v>
       </c>
       <c r="E340" s="2">
-        <v>3.3215608458697732</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.213618190401466</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6296,7 +6528,8 @@
         <v>0.85780000000000001</v>
       </c>
       <c r="E341" s="2">
-        <v>3.251474829462059</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>2.7020750987205195</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6313,7 +6546,8 @@
         <v>0.85780000000000001</v>
       </c>
       <c r="E342" s="2">
-        <v>2.9877450617219869</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.6756995704500373</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6330,7 +6564,8 @@
         <v>0.85780000000000001</v>
       </c>
       <c r="E343" s="2">
-        <v>2.5824336274298512</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.47731967170072</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6347,7 +6582,8 @@
         <v>0.85780000000000001</v>
       </c>
       <c r="E344" s="2">
-        <v>3.4691123461846067</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.3704033964259121</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6364,7 +6600,8 @@
         <v>0.85780000000000001</v>
       </c>
       <c r="E345" s="2">
-        <v>3.0511188161999132</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>2.7200723398724653</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6381,7 +6618,8 @@
         <v>0.91449999999999998</v>
       </c>
       <c r="E346" s="2">
-        <v>2.7181568131647253</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.6986264529409976</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6398,7 +6636,8 @@
         <v>0.91449999999999998</v>
       </c>
       <c r="E347" s="2">
-        <v>2.8840318368079521</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>2.7224318934290102</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6415,7 +6654,8 @@
         <v>0.91449999999999998</v>
       </c>
       <c r="E348" s="2">
-        <v>3.3449693856112956</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.2686762889997483</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6432,7 +6672,8 @@
         <v>0.91449999999999998</v>
       </c>
       <c r="E349" s="2">
-        <v>2.6056663837067329</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.0055134263041254</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6449,7 +6690,8 @@
         <v>0.91449999999999998</v>
       </c>
       <c r="E350" s="2">
-        <v>3.3908241486799851</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.0514818683202334</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6466,7 +6708,8 @@
         <v>0.91449999999999998</v>
       </c>
       <c r="E351" s="2">
-        <v>2.933067366080039</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.3131587352992868</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6483,7 +6726,8 @@
         <v>0.91449999999999998</v>
       </c>
       <c r="E352" s="2">
-        <v>3.2288505309069486</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.3603177570898506</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6500,7 +6744,8 @@
         <v>0.91449999999999998</v>
       </c>
       <c r="E353" s="2">
-        <v>3.3428598749912513</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>2.856080150259964</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6517,7 +6762,8 @@
         <v>0.91449999999999998</v>
       </c>
       <c r="E354" s="2">
-        <v>3.5997085517529985</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.1140682259286554</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6534,7 +6780,8 @@
         <v>0.91449999999999998</v>
       </c>
       <c r="E355" s="2">
-        <v>3.0155129985542843</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.1266175150988529</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6551,7 +6798,8 @@
         <v>0.91449999999999998</v>
       </c>
       <c r="E356" s="2">
-        <v>3.4187799665707286</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.0820200565468641</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6568,7 +6816,8 @@
         <v>0.91449999999999998</v>
       </c>
       <c r="E357" s="2">
-        <v>2.7376834815173758</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>2.7771347847149039</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6585,7 +6834,8 @@
         <v>0.91449999999999998</v>
       </c>
       <c r="E358" s="2">
-        <v>2.71676971226259</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.8615843761365927</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6602,7 +6852,8 @@
         <v>0.91449999999999998</v>
       </c>
       <c r="E359" s="2">
-        <v>2.8599105157742066</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.816294765699852</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6619,7 +6870,8 @@
         <v>0.91449999999999998</v>
       </c>
       <c r="E360" s="2">
-        <v>2.931343822965415</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>2.8910892221391631</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6636,7 +6888,8 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="E361" s="2">
-        <v>3.4140216962594829</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.0981544403388654</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6653,7 +6906,8 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="E362" s="2">
-        <v>2.8717241533272913</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>2.8298063292798172</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6670,7 +6924,8 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="E363" s="2">
-        <v>2.8336161332613794</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>2.9349455856799405</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6687,7 +6942,8 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="E364" s="2">
-        <v>3.1618764071737711</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.3611438712463531</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6704,7 +6960,8 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="E365" s="2">
-        <v>2.927560656611738</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.2686549877490569</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6721,7 +6978,8 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="E366" s="2">
-        <v>3.58478578437516</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.5006644671608669</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6738,7 +6996,8 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="E367" s="2">
-        <v>2.7380434687353148</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>3.2617253859795703</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7061,7 +7320,8 @@
         <v>0.78649999999999998</v>
       </c>
       <c r="E386" s="2">
-        <v>3.5914542445539239</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.2077671839746396</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7095,7 +7355,8 @@
         <v>0.78649999999999998</v>
       </c>
       <c r="E388" s="2">
-        <v>3.3415673010677813</v>
+        <f t="shared" ref="E388:E389" ca="1" si="32">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.7434729930186998</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7112,7 +7373,8 @@
         <v>0.78649999999999998</v>
       </c>
       <c r="E389" s="2">
-        <v>3.451561354946092</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>3.3167071240853225</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7248,7 +7510,8 @@
         <v>0.75670000000000004</v>
       </c>
       <c r="E397" s="2">
-        <v>2.4682341916926611</v>
+        <f t="shared" ref="E397:E398" ca="1" si="33">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.2178968160244663</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7265,7 +7528,8 @@
         <v>0.75670000000000004</v>
       </c>
       <c r="E398" s="2">
-        <v>2.3088826148488653</v>
+        <f t="shared" ca="1" si="33"/>
+        <v>3.2912006171785793</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7299,7 +7563,8 @@
         <v>0.75670000000000004</v>
       </c>
       <c r="E400" s="2">
-        <v>2.5628884126477072</v>
+        <f t="shared" ref="E400:E401" ca="1" si="34">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.0871285115205866</v>
       </c>
     </row>
     <row r="401" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7316,7 +7581,8 @@
         <v>0.75670000000000004</v>
       </c>
       <c r="E401" s="2">
-        <v>2.5223839685296037</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>3.0030501433626218</v>
       </c>
     </row>
     <row r="402" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7537,7 +7803,8 @@
         <v>0.78559999999999997</v>
       </c>
       <c r="E414" s="2">
-        <v>2.6339182166178885</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>2.7133985640632385</v>
       </c>
     </row>
     <row r="415" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7588,7 +7855,8 @@
         <v>0.75670000000000004</v>
       </c>
       <c r="E417" s="2">
-        <v>2.4117863466667333</v>
+        <f t="shared" ref="E417:E419" ca="1" si="35">RAND()*(3.9-2.7)+2.7</f>
+        <v>2.8772883886902805</v>
       </c>
     </row>
     <row r="418" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7605,7 +7873,8 @@
         <v>0.75670000000000004</v>
       </c>
       <c r="E418" s="2">
-        <v>2.9578823533139498</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>3.4017794993772674</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7622,7 +7891,8 @@
         <v>0.75670000000000004</v>
       </c>
       <c r="E419" s="2">
-        <v>2.2656966877686182</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>3.2643637260486913</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7707,7 +7977,8 @@
         <v>0.75670000000000004</v>
       </c>
       <c r="E424" s="2">
-        <v>3.0336350476332505</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.339335698290494</v>
       </c>
     </row>
     <row r="425" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7792,7 +8063,8 @@
         <v>0.75670000000000004</v>
       </c>
       <c r="E429" s="2">
-        <v>2.4863682532076767</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.2357982623186956</v>
       </c>
     </row>
     <row r="430" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7928,7 +8200,8 @@
         <v>0.75670000000000004</v>
       </c>
       <c r="E437" s="2">
-        <v>3.0923935229652373</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.2663886951939967</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8098,7 +8371,8 @@
         <v>1.2344999999999999</v>
       </c>
       <c r="E447" s="2">
-        <v>3.3386902005007459</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.0732655788771002</v>
       </c>
     </row>
     <row r="448" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8251,7 +8525,8 @@
         <v>0.78539999999999999</v>
       </c>
       <c r="E456" s="2">
-        <v>3.2302394350656436</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.7783421053028912</v>
       </c>
     </row>
     <row r="457" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8370,7 +8645,8 @@
         <v>0.79890000000000005</v>
       </c>
       <c r="E463" s="2">
-        <v>3.358502488335342</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>2.9954092151196812</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8404,7 +8680,8 @@
         <v>0.75490000000000002</v>
       </c>
       <c r="E465" s="2">
-        <v>2.2914726412415343</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.0239927374876858</v>
       </c>
     </row>
     <row r="466" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8472,7 +8749,8 @@
         <v>0.83450000000000002</v>
       </c>
       <c r="E469" s="2">
-        <v>3.3646650454792209</v>
+        <f t="shared" ref="E469:E476" ca="1" si="36">RAND()*(3.9-2.7)+2.7</f>
+        <v>2.987281054385643</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8489,7 +8767,8 @@
         <v>0.83450000000000002</v>
       </c>
       <c r="E470" s="2">
-        <v>2.8956089232864501</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>3.7274638555153885</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8506,7 +8785,8 @@
         <v>0.83450000000000002</v>
       </c>
       <c r="E471" s="2">
-        <v>2.9997063542546343</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>2.8251747693340397</v>
       </c>
     </row>
     <row r="472" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8523,7 +8803,8 @@
         <v>0.83450000000000002</v>
       </c>
       <c r="E472" s="2">
-        <v>2.9854112313091417</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>2.9610631772435694</v>
       </c>
     </row>
     <row r="473" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8540,7 +8821,8 @@
         <v>1.1055999999999999</v>
       </c>
       <c r="E473" s="2">
-        <v>3.3821302008357432</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>2.8136284528092022</v>
       </c>
     </row>
     <row r="474" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8557,7 +8839,8 @@
         <v>1.1055999999999999</v>
       </c>
       <c r="E474" s="2">
-        <v>2.9895027879143554</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>3.1087294437023796</v>
       </c>
     </row>
     <row r="475" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8574,7 +8857,8 @@
         <v>1.1055999999999999</v>
       </c>
       <c r="E475" s="2">
-        <v>3.5914002368612485</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>3.7193871554654008</v>
       </c>
     </row>
     <row r="476" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8591,7 +8875,8 @@
         <v>1.1055999999999999</v>
       </c>
       <c r="E476" s="2">
-        <v>3.1781536024033574</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>3.6294588739558749</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8693,7 +8978,8 @@
         <v>1.2395</v>
       </c>
       <c r="E482" s="2">
-        <v>2.6966301934257437</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.149741559231106</v>
       </c>
     </row>
     <row r="483" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8846,7 +9132,8 @@
         <v>0.76449999999999996</v>
       </c>
       <c r="E491" s="2">
-        <v>2.6218292122447457</v>
+        <f ca="1">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.6963438983943075</v>
       </c>
     </row>
     <row r="492" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9050,7 +9337,8 @@
         <v>0.75019999999999998</v>
       </c>
       <c r="E503" s="2">
-        <v>2.5272285399151544</v>
+        <f t="shared" ref="E503:E505" ca="1" si="37">RAND()*(3.9-2.7)+2.7</f>
+        <v>3.6787668426602242</v>
       </c>
     </row>
     <row r="504" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9067,7 +9355,8 @@
         <v>0.75019999999999998</v>
       </c>
       <c r="E504" s="2">
-        <v>3.1184328415655793</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.1616751208484986</v>
       </c>
     </row>
     <row r="505" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9084,7 +9373,8 @@
         <v>0.75019999999999998</v>
       </c>
       <c r="E505" s="2">
-        <v>2.3379735090496654</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.6221194592705204</v>
       </c>
     </row>
   </sheetData>
